--- a/thrust_calc_results_center_base.xlsx
+++ b/thrust_calc_results_center_base.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>d_ax</t>
+          <t>a_dx</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>d_ay</t>
+          <t>a_dy</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15222.37167281955</v>
+        <v>20594.15739971409</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2803.800407979254</v>
+        <v>3175.679150721244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14961.92843913092</v>
+        <v>20347.8347972425</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>5.272640914735945</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9392016510086165</v>
+        <v>0.7821998724435915</v>
       </c>
       <c r="AB2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.66617568184159</v>
+        <v>35.50917390327657</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.456968210637569e-11</v>
+        <v>-4.547473508864641e-11</v>
       </c>
     </row>
     <row r="3">
@@ -703,22 +703,22 @@
         <v>25.85314164552767</v>
       </c>
       <c r="I3" t="n">
-        <v>15222.37167281955</v>
+        <v>20594.15739971409</v>
       </c>
       <c r="J3" t="n">
-        <v>40681.9411838068</v>
+        <v>51605.72545261287</v>
       </c>
       <c r="K3" t="n">
-        <v>2803.800407979254</v>
+        <v>3175.679150721244</v>
       </c>
       <c r="L3" t="n">
-        <v>7493.184750718814</v>
+        <v>7957.753415052685</v>
       </c>
       <c r="M3" t="n">
-        <v>14961.92843913092</v>
+        <v>20347.8347972425</v>
       </c>
       <c r="N3" t="n">
-        <v>39985.90402597284</v>
+        <v>50988.47967997941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>-25.85314164552767</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.813034036313923</v>
+        <v>9.656032257748898</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.962473972422018</v>
+        <v>4.947756960897486</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.66617568184159</v>
+        <v>35.50917390327657</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.81561561794969</v>
+        <v>30.80089860642516</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.093170329928398e-11</v>
+        <v>3.637978807091713e-11</v>
       </c>
     </row>
     <row r="4">
@@ -795,22 +795,22 @@
         <v>18.73390188558466</v>
       </c>
       <c r="I4" t="n">
-        <v>40681.9411838068</v>
+        <v>51605.72545261287</v>
       </c>
       <c r="J4" t="n">
-        <v>69247.99921232784</v>
+        <v>85540.20770655214</v>
       </c>
       <c r="K4" t="n">
-        <v>7493.184750718814</v>
+        <v>7957.753415052685</v>
       </c>
       <c r="L4" t="n">
-        <v>12754.75153388559</v>
+        <v>13190.54957625184</v>
       </c>
       <c r="M4" t="n">
-        <v>39985.90402597284</v>
+        <v>50988.47967997941</v>
       </c>
       <c r="N4" t="n">
-        <v>68063.21846797578</v>
+        <v>84517.07837092172</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>-18.73390188558466</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.08171373236503</v>
+        <v>12.0669967208405</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.588752826653693</v>
+        <v>8.534017753859334</v>
       </c>
       <c r="AB4" t="n">
-        <v>30.81561561794969</v>
+        <v>30.80089860642516</v>
       </c>
       <c r="AC4" t="n">
-        <v>27.32265471223835</v>
+        <v>27.26791963944399</v>
       </c>
       <c r="AD4" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>-1.455191522836685e-10</v>
       </c>
     </row>
     <row r="5">
@@ -887,22 +887,22 @@
         <v>13.01839398362824</v>
       </c>
       <c r="I5" t="n">
-        <v>69247.99921232784</v>
+        <v>85540.20770655214</v>
       </c>
       <c r="J5" t="n">
-        <v>97330.21503620608</v>
+        <v>118759.0138816608</v>
       </c>
       <c r="K5" t="n">
-        <v>12754.75153388559</v>
+        <v>13190.54957625184</v>
       </c>
       <c r="L5" t="n">
-        <v>17927.1996829832</v>
+        <v>18312.98639824133</v>
       </c>
       <c r="M5" t="n">
-        <v>68063.21846797578</v>
+        <v>84517.07837092172</v>
       </c>
       <c r="N5" t="n">
-        <v>95664.96887848008</v>
+        <v>117338.5610416385</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>-13.01839398362824</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.30426072861011</v>
+        <v>14.24952565581575</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.78454161521519</v>
+        <v>11.6093100163225</v>
       </c>
       <c r="AB5" t="n">
-        <v>27.32265471223835</v>
+        <v>27.26791963944399</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.80293559884343</v>
+        <v>24.62770399995075</v>
       </c>
       <c r="AD5" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -979,22 +979,22 @@
         <v>8.490560338649104</v>
       </c>
       <c r="I6" t="n">
-        <v>97330.21503620608</v>
+        <v>118759.0138816608</v>
       </c>
       <c r="J6" t="n">
-        <v>122914.1637759429</v>
+        <v>149254.824326475</v>
       </c>
       <c r="K6" t="n">
-        <v>17927.1996829832</v>
+        <v>18312.98639824133</v>
       </c>
       <c r="L6" t="n">
-        <v>22639.49336861673</v>
+        <v>23015.52933477768</v>
       </c>
       <c r="M6" t="n">
-        <v>95664.96887848008</v>
+        <v>117338.5610416385</v>
       </c>
       <c r="N6" t="n">
-        <v>120811.1956598049</v>
+        <v>147469.6171900059</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>-8.490560338649104</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.31237526019433</v>
+        <v>16.13714366130164</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.5999518761968</v>
+        <v>14.24457579670524</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.80293559884343</v>
+        <v>24.62770399995075</v>
       </c>
       <c r="AC6" t="n">
-        <v>23.09051221484591</v>
+        <v>22.73513613535435</v>
       </c>
       <c r="AD6" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>-6.257323548197746e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1071,22 +1071,22 @@
         <v>5.010018042625987</v>
       </c>
       <c r="I7" t="n">
-        <v>122914.1637759429</v>
+        <v>149254.824326475</v>
       </c>
       <c r="J7" t="n">
-        <v>144814.9066062193</v>
+        <v>175855.2450482356</v>
       </c>
       <c r="K7" t="n">
-        <v>22639.49336861673</v>
+        <v>23015.52933477768</v>
       </c>
       <c r="L7" t="n">
-        <v>26673.37934922385</v>
+        <v>27117.39181193256</v>
       </c>
       <c r="M7" t="n">
-        <v>120811.1956598049</v>
+        <v>147469.6171900059</v>
       </c>
       <c r="N7" t="n">
-        <v>142337.2333911982</v>
+        <v>173751.8755935979</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         <v>-5.010018042625987</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.08049417221992</v>
+        <v>17.72511809272836</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.08249837488696</v>
+        <v>16.49004237033597</v>
       </c>
       <c r="AB7" t="n">
-        <v>23.09051221484591</v>
+        <v>22.73513613535435</v>
       </c>
       <c r="AC7" t="n">
-        <v>22.09251641751294</v>
+        <v>21.50006041296196</v>
       </c>
       <c r="AD7" t="n">
-        <v>-2.037268131971359e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1163,25 +1163,25 @@
         <v>2.499933806165217</v>
       </c>
       <c r="I8" t="n">
-        <v>144814.9066062193</v>
+        <v>175855.2450482356</v>
       </c>
       <c r="J8" t="n">
-        <v>202068.0909130335</v>
+        <v>199366.0711412441</v>
       </c>
       <c r="K8" t="n">
-        <v>26673.37934922385</v>
+        <v>27117.39181193256</v>
       </c>
       <c r="L8" t="n">
-        <v>37218.81241102371</v>
+        <v>30742.82978400695</v>
       </c>
       <c r="M8" t="n">
-        <v>142337.2333911982</v>
+        <v>173751.8755935979</v>
       </c>
       <c r="N8" t="n">
-        <v>198610.8591390486</v>
+        <v>196981.4933925702</v>
       </c>
       <c r="O8" t="n">
-        <v>38107.2171642066</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0.6812982252878486</v>
@@ -1214,19 +1214,19 @@
         <v>-2.499933806165217</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.59258261134773</v>
+        <v>19.00012660679674</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.64316669120252</v>
+        <v>18.20857042225747</v>
       </c>
       <c r="AB8" t="n">
-        <v>22.09251641751294</v>
+        <v>21.50006041296196</v>
       </c>
       <c r="AC8" t="n">
-        <v>23.14310049736773</v>
+        <v>20.70850422842268</v>
       </c>
       <c r="AD8" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>-8.731149137020111e-11</v>
       </c>
     </row>
     <row r="9">
@@ -1255,25 +1255,25 @@
         <v>0.8792629304200403</v>
       </c>
       <c r="I9" t="n">
-        <v>202068.0909130335</v>
+        <v>199366.0711412441</v>
       </c>
       <c r="J9" t="n">
-        <v>252640.5124523608</v>
+        <v>220179.3636843024</v>
       </c>
       <c r="K9" t="n">
-        <v>37218.81241102371</v>
+        <v>30742.82978400695</v>
       </c>
       <c r="L9" t="n">
-        <v>46533.71939083737</v>
+        <v>33952.30021311853</v>
       </c>
       <c r="M9" t="n">
-        <v>198610.8591390486</v>
+        <v>196981.4933925702</v>
       </c>
       <c r="N9" t="n">
-        <v>248318.0249032403</v>
+        <v>217545.842301485</v>
       </c>
       <c r="O9" t="n">
-        <v>38107.2171642066</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0.6812982252878486</v>
@@ -1306,19 +1306,19 @@
         <v>-0.8792629304200403</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.26383756694769</v>
+        <v>19.82924129800264</v>
       </c>
       <c r="AA9" t="n">
-        <v>24.41190789844956</v>
+        <v>19.42191199952205</v>
       </c>
       <c r="AB9" t="n">
-        <v>23.14310049736773</v>
+        <v>20.70850422842268</v>
       </c>
       <c r="AC9" t="n">
-        <v>25.2911708288696</v>
+        <v>20.30117492994209</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.656612873077393e-10</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1347,25 +1347,25 @@
         <v>0.08948243701796343</v>
       </c>
       <c r="I10" t="n">
-        <v>252640.5124523608</v>
+        <v>220179.3636843024</v>
       </c>
       <c r="J10" t="n">
-        <v>295352.1463772726</v>
+        <v>236963.9727571273</v>
       </c>
       <c r="K10" t="n">
-        <v>46533.71939083737</v>
+        <v>33952.30021311853</v>
       </c>
       <c r="L10" t="n">
-        <v>54400.75215012533</v>
+        <v>36540.5358981734</v>
       </c>
       <c r="M10" t="n">
-        <v>248318.0249032403</v>
+        <v>217545.842301485</v>
       </c>
       <c r="N10" t="n">
-        <v>290298.8951669684</v>
+        <v>234129.6940183258</v>
       </c>
       <c r="O10" t="n">
-        <v>38107.2171642066</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0.6812982252878486</v>
@@ -1398,19 +1398,19 @@
         <v>-0.08948243701796343</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.20168839185164</v>
+        <v>20.21169249292412</v>
       </c>
       <c r="AA10" t="n">
-        <v>28.2254925408026</v>
+        <v>20.26541035623375</v>
       </c>
       <c r="AB10" t="n">
-        <v>25.2911708288696</v>
+        <v>20.30117492994209</v>
       </c>
       <c r="AC10" t="n">
-        <v>28.31497497782056</v>
+        <v>20.35489279325171</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1439,22 +1439,22 @@
         <v>0.17481744224213</v>
       </c>
       <c r="I11" t="n">
-        <v>295352.1463772726</v>
+        <v>236963.9727571273</v>
       </c>
       <c r="J11" t="n">
-        <v>300757.644096275</v>
+        <v>250039.058231366</v>
       </c>
       <c r="K11" t="n">
-        <v>54400.75215012533</v>
+        <v>36540.5358981734</v>
       </c>
       <c r="L11" t="n">
-        <v>55396.38785234193</v>
+        <v>38556.75222247004</v>
       </c>
       <c r="M11" t="n">
-        <v>290298.8951669684</v>
+        <v>234129.6940183258</v>
       </c>
       <c r="N11" t="n">
-        <v>295611.9089198785</v>
+        <v>247048.3910072751</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1490,19 +1490,19 @@
         <v>-0.17481744224213</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.14015753557843</v>
+        <v>20.18007535100958</v>
       </c>
       <c r="AA11" t="n">
-        <v>29.92793495446073</v>
+        <v>21.00187983491386</v>
       </c>
       <c r="AB11" t="n">
-        <v>28.31497497782056</v>
+        <v>20.35489279325171</v>
       </c>
       <c r="AC11" t="n">
-        <v>30.10275239670286</v>
+        <v>21.17669727715599</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>4.074536263942719e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>1.485784080558503</v>
       </c>
       <c r="I12" t="n">
-        <v>300757.644096275</v>
+        <v>250039.058231366</v>
       </c>
       <c r="J12" t="n">
-        <v>294235.0152801291</v>
+        <v>252038.8353915245</v>
       </c>
       <c r="K12" t="n">
-        <v>55396.38785234193</v>
+        <v>38556.75222247004</v>
       </c>
       <c r="L12" t="n">
-        <v>54194.98837735331</v>
+        <v>38865.12369455038</v>
       </c>
       <c r="M12" t="n">
-        <v>295611.9089198785</v>
+        <v>247048.3910072751</v>
       </c>
       <c r="N12" t="n">
-        <v>289200.8773355923</v>
+        <v>249024.2492323254</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>-1.485784080558503</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.61696831614436</v>
+        <v>19.69091319659749</v>
       </c>
       <c r="AA12" t="n">
-        <v>31.59134046834744</v>
+        <v>21.45449097001999</v>
       </c>
       <c r="AB12" t="n">
-        <v>30.10275239670286</v>
+        <v>21.17669727715599</v>
       </c>
       <c r="AC12" t="n">
-        <v>33.07712454890594</v>
+        <v>22.94027505057849</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.280568540096283e-09</v>
+        <v>1.455191522836685e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1623,22 +1623,22 @@
         <v>3.90671388902561</v>
       </c>
       <c r="I13" t="n">
-        <v>294235.0152801291</v>
+        <v>252038.8353915245</v>
       </c>
       <c r="J13" t="n">
-        <v>277564.6890614428</v>
+        <v>242791.7302298158</v>
       </c>
       <c r="K13" t="n">
-        <v>54194.98837735331</v>
+        <v>38865.12369455038</v>
       </c>
       <c r="L13" t="n">
-        <v>51124.49000445144</v>
+        <v>37439.19310187788</v>
       </c>
       <c r="M13" t="n">
-        <v>289200.8773355923</v>
+        <v>249024.2492323254</v>
       </c>
       <c r="N13" t="n">
-        <v>272815.7677546519</v>
+        <v>239887.7468481206</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1674,19 +1674,19 @@
         <v>-3.90671388902561</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.17041065988033</v>
+        <v>19.03356116155288</v>
       </c>
       <c r="AA13" t="n">
-        <v>32.9955078105634</v>
+        <v>21.46665524725301</v>
       </c>
       <c r="AB13" t="n">
-        <v>33.07712454890594</v>
+        <v>22.94027505057849</v>
       </c>
       <c r="AC13" t="n">
-        <v>36.90222169958901</v>
+        <v>25.37336913627862</v>
       </c>
       <c r="AD13" t="n">
-        <v>-8.731149137020111e-10</v>
+        <v>-2.619344741106033e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1715,22 +1715,22 @@
         <v>7.261723058294422</v>
       </c>
       <c r="I14" t="n">
-        <v>277564.6890614428</v>
+        <v>242791.7302298158</v>
       </c>
       <c r="J14" t="n">
-        <v>251571.3016183014</v>
+        <v>223605.6789103798</v>
       </c>
       <c r="K14" t="n">
-        <v>51124.49000445144</v>
+        <v>37439.19310187788</v>
       </c>
       <c r="L14" t="n">
-        <v>46336.78202541327</v>
+        <v>34480.6480166273</v>
       </c>
       <c r="M14" t="n">
-        <v>272815.7677546519</v>
+        <v>239887.7468481206</v>
       </c>
       <c r="N14" t="n">
-        <v>247267.1074555928</v>
+        <v>220931.1760556335</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>-7.261723058294422</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.64049864129458</v>
+        <v>18.11164607798419</v>
       </c>
       <c r="AA14" t="n">
-        <v>34.81976151048672</v>
+        <v>21.4138440438239</v>
       </c>
       <c r="AB14" t="n">
-        <v>36.90222169958901</v>
+        <v>25.37336913627862</v>
       </c>
       <c r="AC14" t="n">
-        <v>42.08148456878114</v>
+        <v>28.67556710211832</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.238689482212067e-10</v>
+        <v>3.783497959375381e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1807,22 +1807,22 @@
         <v>11.78043202639886</v>
       </c>
       <c r="I15" t="n">
-        <v>251571.3016183014</v>
+        <v>223605.6789103798</v>
       </c>
       <c r="J15" t="n">
-        <v>217321.3241248917</v>
+        <v>195563.0847811293</v>
       </c>
       <c r="K15" t="n">
-        <v>46336.78202541327</v>
+        <v>34480.6480166273</v>
       </c>
       <c r="L15" t="n">
-        <v>40028.29718919226</v>
+        <v>30156.39819276051</v>
       </c>
       <c r="M15" t="n">
-        <v>247267.1074555928</v>
+        <v>220931.1760556335</v>
       </c>
       <c r="N15" t="n">
-        <v>213603.1210996925</v>
+        <v>193223.9937925693</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1858,19 +1858,19 @@
         <v>-11.78043202639886</v>
       </c>
       <c r="Z15" t="n">
-        <v>30.30105254238229</v>
+        <v>16.89513507571947</v>
       </c>
       <c r="AA15" t="n">
-        <v>37.24782269253399</v>
+        <v>21.11422971377652</v>
       </c>
       <c r="AB15" t="n">
-        <v>42.08148456878114</v>
+        <v>28.67556710211832</v>
       </c>
       <c r="AC15" t="n">
-        <v>49.02825471893284</v>
+        <v>32.89466174017537</v>
       </c>
       <c r="AD15" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>8.731149137020111e-11</v>
       </c>
     </row>
     <row r="16">
@@ -1899,22 +1899,22 @@
         <v>17.6168056082001</v>
       </c>
       <c r="I16" t="n">
-        <v>217321.3241248917</v>
+        <v>195563.0847811293</v>
       </c>
       <c r="J16" t="n">
-        <v>176167.1731272777</v>
+        <v>159986.0091855307</v>
       </c>
       <c r="K16" t="n">
-        <v>40028.29718919226</v>
+        <v>30156.39819276051</v>
       </c>
       <c r="L16" t="n">
-        <v>32448.13636818288</v>
+        <v>24670.30934631202</v>
       </c>
       <c r="M16" t="n">
-        <v>213603.1210996925</v>
+        <v>193223.9937925693</v>
       </c>
       <c r="N16" t="n">
-        <v>173153.0864116722</v>
+        <v>158072.448490779</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1950,19 +1950,19 @@
         <v>-17.6168056082001</v>
       </c>
       <c r="Z16" t="n">
-        <v>31.41144911073275</v>
+        <v>15.27785613197528</v>
       </c>
       <c r="AA16" t="n">
-        <v>40.9972268244557</v>
+        <v>20.53791586463613</v>
       </c>
       <c r="AB16" t="n">
-        <v>49.02825471893284</v>
+        <v>32.89466174017537</v>
       </c>
       <c r="AC16" t="n">
-        <v>58.6140324326558</v>
+        <v>38.15472147283623</v>
       </c>
       <c r="AD16" t="n">
-        <v>-3.201421350240707e-10</v>
+        <v>5.529727786779404e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1991,22 +1991,22 @@
         <v>25.01342256816848</v>
       </c>
       <c r="I17" t="n">
-        <v>176167.1731272777</v>
+        <v>159986.0091855307</v>
       </c>
       <c r="J17" t="n">
-        <v>130199.0337615907</v>
+        <v>119026.9425532871</v>
       </c>
       <c r="K17" t="n">
-        <v>32448.13636818288</v>
+        <v>24670.30934631202</v>
       </c>
       <c r="L17" t="n">
-        <v>23981.28963248709</v>
+        <v>18354.30178103897</v>
       </c>
       <c r="M17" t="n">
-        <v>173153.0864116722</v>
+        <v>158072.448490779</v>
       </c>
       <c r="N17" t="n">
-        <v>127971.4270453159</v>
+        <v>117603.2850719488</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2042,19 +2042,19 @@
         <v>-25.01342256816848</v>
       </c>
       <c r="Z17" t="n">
-        <v>33.60060986448732</v>
+        <v>13.14129890466775</v>
       </c>
       <c r="AA17" t="n">
-        <v>47.83166546777507</v>
+        <v>19.62809090534333</v>
       </c>
       <c r="AB17" t="n">
-        <v>58.6140324326558</v>
+        <v>38.15472147283623</v>
       </c>
       <c r="AC17" t="n">
-        <v>72.84508803594355</v>
+        <v>44.64151347351181</v>
       </c>
       <c r="AD17" t="n">
-        <v>-9.167706593871117e-10</v>
+        <v>-2.328306436538696e-10</v>
       </c>
     </row>
     <row r="18">
@@ -2083,22 +2083,22 @@
         <v>34.37366592323602</v>
       </c>
       <c r="I18" t="n">
-        <v>130199.0337615907</v>
+        <v>119026.9425532871</v>
       </c>
       <c r="J18" t="n">
-        <v>82394.56468829914</v>
+        <v>75619.5729149049</v>
       </c>
       <c r="K18" t="n">
-        <v>23981.28963248709</v>
+        <v>18354.30178103897</v>
       </c>
       <c r="L18" t="n">
-        <v>15176.21032081501</v>
+        <v>11660.75874974338</v>
       </c>
       <c r="M18" t="n">
-        <v>127971.4270453159</v>
+        <v>117603.2850719488</v>
       </c>
       <c r="N18" t="n">
-        <v>80984.85617986057</v>
+        <v>74715.10231012804</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>-34.37366592323602</v>
       </c>
       <c r="Z18" t="n">
-        <v>38.47142211270753</v>
+        <v>10.26784755027579</v>
       </c>
       <c r="AA18" t="n">
-        <v>63.38871925019845</v>
+        <v>18.31918012529943</v>
       </c>
       <c r="AB18" t="n">
-        <v>72.84508803594355</v>
+        <v>44.64151347351181</v>
       </c>
       <c r="AC18" t="n">
-        <v>97.76238517343447</v>
+        <v>52.69284604853544</v>
       </c>
       <c r="AD18" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>1.673470251262188e-10</v>
       </c>
     </row>
     <row r="19">
@@ -2175,22 +2175,22 @@
         <v>44.92039688383612</v>
       </c>
       <c r="I19" t="n">
-        <v>82394.56468829914</v>
+        <v>75619.5729149049</v>
       </c>
       <c r="J19" t="n">
-        <v>46359.65685035141</v>
+        <v>42222.30508670387</v>
       </c>
       <c r="K19" t="n">
-        <v>15176.21032081501</v>
+        <v>11660.75874974338</v>
       </c>
       <c r="L19" t="n">
-        <v>8538.96012951032</v>
+        <v>6510.802620217835</v>
       </c>
       <c r="M19" t="n">
-        <v>80984.85617986057</v>
+        <v>74715.10231012804</v>
       </c>
       <c r="N19" t="n">
-        <v>45566.47828381042</v>
+        <v>41717.29253049944</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2226,19 +2226,19 @@
         <v>-44.92039688383612</v>
       </c>
       <c r="Z19" t="n">
-        <v>52.84198828959835</v>
+        <v>7.772449164699324</v>
       </c>
       <c r="AA19" t="n">
-        <v>96.08521301893943</v>
+        <v>15.73623342099551</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.76238517343447</v>
+        <v>52.69284604853544</v>
       </c>
       <c r="AC19" t="n">
-        <v>141.0056099027755</v>
+        <v>60.65663030483163</v>
       </c>
       <c r="AD19" t="n">
-        <v>-3.783497959375381e-10</v>
+        <v>7.275957614183426e-12</v>
       </c>
     </row>
     <row r="20">
@@ -2267,22 +2267,22 @@
         <v>56.70352678246132</v>
       </c>
       <c r="I20" t="n">
-        <v>46359.65685035141</v>
+        <v>42222.30508670387</v>
       </c>
       <c r="J20" t="n">
-        <v>15231.93147031067</v>
+        <v>13221.40609254259</v>
       </c>
       <c r="K20" t="n">
-        <v>8538.96012951032</v>
+        <v>6510.802620217835</v>
       </c>
       <c r="L20" t="n">
-        <v>2805.561221910348</v>
+        <v>2038.779390502728</v>
       </c>
       <c r="M20" t="n">
-        <v>45566.47828381042</v>
+        <v>41717.29253049944</v>
       </c>
       <c r="N20" t="n">
-        <v>14971.32467573773</v>
+        <v>13063.26749556877</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>-56.70352678246132</v>
       </c>
       <c r="Z20" t="n">
-        <v>84.30208312031422</v>
+        <v>3.953103522370313</v>
       </c>
       <c r="AA20" t="n">
-        <v>259.7393507517538</v>
+        <v>15.35253924342194</v>
       </c>
       <c r="AB20" t="n">
-        <v>141.0056099027755</v>
+        <v>60.65663030483163</v>
       </c>
       <c r="AC20" t="n">
-        <v>316.4428775342151</v>
+        <v>72.05606602588325</v>
       </c>
       <c r="AD20" t="n">
-        <v>-6.220943760126829e-10</v>
+        <v>-2.546585164964199e-11</v>
       </c>
     </row>
     <row r="21">
@@ -2359,19 +2359,19 @@
         <v>72.7067456626184</v>
       </c>
       <c r="I21" t="n">
-        <v>15231.93147031067</v>
+        <v>13221.40609254259</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2805.561221910348</v>
+        <v>2038.779390502728</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>14971.32467573773</v>
+        <v>13063.26749556877</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2410,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>84.30208312031422</v>
+        <v>3.953103522370313</v>
       </c>
       <c r="AA21" t="n">
-        <v>259.7393507517538</v>
+        <v>15.35253924342194</v>
       </c>
       <c r="AB21" t="n">
-        <v>316.4428775342151</v>
+        <v>72.05606602588325</v>
       </c>
       <c r="AC21" t="n">
         <v>83.95181749179723</v>

--- a/thrust_calc_results_center_base.xlsx
+++ b/thrust_calc_results_center_base.xlsx
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20594.15739971409</v>
+        <v>19348.16829700482</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3175.679150721244</v>
+        <v>3190.812714091454</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20347.8347972425</v>
+        <v>19083.2473827914</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>5.272640914735945</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7821998724435915</v>
+        <v>0.8380083762482684</v>
       </c>
       <c r="AB2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.50917390327657</v>
+        <v>35.56498240708125</v>
       </c>
       <c r="AD2" t="n">
-        <v>-4.547473508864641e-11</v>
+        <v>5.456968210637569e-11</v>
       </c>
     </row>
     <row r="3">
@@ -703,22 +703,22 @@
         <v>25.85314164552767</v>
       </c>
       <c r="I3" t="n">
-        <v>20594.15739971409</v>
+        <v>19348.16829700482</v>
       </c>
       <c r="J3" t="n">
-        <v>51605.72545261287</v>
+        <v>49139.2201214175</v>
       </c>
       <c r="K3" t="n">
-        <v>3175.679150721244</v>
+        <v>3190.812714091454</v>
       </c>
       <c r="L3" t="n">
-        <v>7957.753415052685</v>
+        <v>8103.81871384848</v>
       </c>
       <c r="M3" t="n">
-        <v>20347.8347972425</v>
+        <v>19083.2473827914</v>
       </c>
       <c r="N3" t="n">
-        <v>50988.47967997941</v>
+        <v>48466.39120456774</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>-25.85314164552767</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.656032257748898</v>
+        <v>9.711840761553574</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.947756960897486</v>
+        <v>4.99192567737439</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.50917390327657</v>
+        <v>35.56498240708125</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.80089860642516</v>
+        <v>30.84506732290206</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.637978807091713e-11</v>
+        <v>-5.093170329928398e-11</v>
       </c>
     </row>
     <row r="4">
@@ -795,22 +795,22 @@
         <v>18.73390188558466</v>
       </c>
       <c r="I4" t="n">
-        <v>51605.72545261287</v>
+        <v>49139.2201214175</v>
       </c>
       <c r="J4" t="n">
-        <v>85540.20770655214</v>
+        <v>81902.05792031095</v>
       </c>
       <c r="K4" t="n">
-        <v>7957.753415052685</v>
+        <v>8103.81871384848</v>
       </c>
       <c r="L4" t="n">
-        <v>13190.54957625184</v>
+        <v>13506.91826279175</v>
       </c>
       <c r="M4" t="n">
-        <v>50988.47967997941</v>
+        <v>48466.39120456774</v>
       </c>
       <c r="N4" t="n">
-        <v>84517.07837092172</v>
+        <v>80780.63041734839</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>-18.73390188558466</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.0669967208405</v>
+        <v>12.1111654373174</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.534017753859334</v>
+        <v>8.607194139985943</v>
       </c>
       <c r="AB4" t="n">
-        <v>30.80089860642516</v>
+        <v>30.84506732290206</v>
       </c>
       <c r="AC4" t="n">
-        <v>27.26791963944399</v>
+        <v>27.3410960255706</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1.455191522836685e-10</v>
+        <v>-1.600710675120354e-10</v>
       </c>
     </row>
     <row r="5">
@@ -887,22 +887,22 @@
         <v>13.01839398362824</v>
       </c>
       <c r="I5" t="n">
-        <v>85540.20770655214</v>
+        <v>81902.05792031095</v>
       </c>
       <c r="J5" t="n">
-        <v>118759.0138816608</v>
+        <v>113990.1748725663</v>
       </c>
       <c r="K5" t="n">
-        <v>13190.54957625184</v>
+        <v>13506.91826279175</v>
       </c>
       <c r="L5" t="n">
-        <v>18312.98639824133</v>
+        <v>18798.74589064839</v>
       </c>
       <c r="M5" t="n">
-        <v>84517.07837092172</v>
+        <v>80780.63041734839</v>
       </c>
       <c r="N5" t="n">
-        <v>117338.5610416385</v>
+        <v>112429.3872633711</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>-13.01839398362824</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.24952565581575</v>
+        <v>14.32270204194236</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.6093100163225</v>
+        <v>11.73099440922736</v>
       </c>
       <c r="AB5" t="n">
-        <v>27.26791963944399</v>
+        <v>27.3410960255706</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.62770399995075</v>
+        <v>24.74938839285561</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.891748979687691e-10</v>
       </c>
     </row>
     <row r="6">
@@ -979,22 +979,22 @@
         <v>8.490560338649104</v>
       </c>
       <c r="I6" t="n">
-        <v>118759.0138816608</v>
+        <v>113990.1748725663</v>
       </c>
       <c r="J6" t="n">
-        <v>149254.824326475</v>
+        <v>143389.3898543167</v>
       </c>
       <c r="K6" t="n">
-        <v>18312.98639824133</v>
+        <v>18798.74589064839</v>
       </c>
       <c r="L6" t="n">
-        <v>23015.52933477768</v>
+        <v>23647.13192430714</v>
       </c>
       <c r="M6" t="n">
-        <v>117338.5610416385</v>
+        <v>112429.3872633711</v>
       </c>
       <c r="N6" t="n">
-        <v>147469.6171900059</v>
+        <v>141426.0593898722</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>-8.490560338649104</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.13714366130164</v>
+        <v>16.2588280542065</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.24457579670524</v>
+        <v>14.42946989550886</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.62770399995075</v>
+        <v>24.74938839285561</v>
       </c>
       <c r="AC6" t="n">
-        <v>22.73513613535435</v>
+        <v>22.92003023415797</v>
       </c>
       <c r="AD6" t="n">
-        <v>-6.257323548197746e-10</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="7">
@@ -1071,22 +1071,22 @@
         <v>5.010018042625987</v>
       </c>
       <c r="I7" t="n">
-        <v>149254.824326475</v>
+        <v>143389.3898543167</v>
       </c>
       <c r="J7" t="n">
-        <v>175855.2450482356</v>
+        <v>168924.4270559396</v>
       </c>
       <c r="K7" t="n">
-        <v>23015.52933477768</v>
+        <v>23647.13192430714</v>
       </c>
       <c r="L7" t="n">
-        <v>27117.39181193256</v>
+        <v>27858.25517416793</v>
       </c>
       <c r="M7" t="n">
-        <v>147469.6171900059</v>
+        <v>141426.0593898722</v>
       </c>
       <c r="N7" t="n">
-        <v>173751.8755935979</v>
+        <v>166611.4632155555</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         <v>-5.010018042625987</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.72511809272836</v>
+        <v>17.91001219153198</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.49004237033597</v>
+        <v>16.75203145178586</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.73513613535435</v>
+        <v>22.92003023415797</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.50006041296196</v>
+        <v>21.76204949441185</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>2.037268131971359e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1163,22 +1163,22 @@
         <v>2.499933806165217</v>
       </c>
       <c r="I8" t="n">
-        <v>175855.2450482356</v>
+        <v>168924.4270559396</v>
       </c>
       <c r="J8" t="n">
-        <v>199366.0711412441</v>
+        <v>191349.1149094407</v>
       </c>
       <c r="K8" t="n">
-        <v>27117.39181193256</v>
+        <v>27858.25517416793</v>
       </c>
       <c r="L8" t="n">
-        <v>30742.82978400695</v>
+        <v>31556.43362776139</v>
       </c>
       <c r="M8" t="n">
-        <v>173751.8755935979</v>
+        <v>166611.4632155555</v>
       </c>
       <c r="N8" t="n">
-        <v>196981.4933925702</v>
+        <v>188729.1055277988</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>-2.499933806165217</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.00012660679674</v>
+        <v>19.26211568824663</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.20857042225747</v>
+        <v>18.55782516643347</v>
       </c>
       <c r="AB8" t="n">
-        <v>21.50006041296196</v>
+        <v>21.76204949441185</v>
       </c>
       <c r="AC8" t="n">
-        <v>20.70850422842268</v>
+        <v>21.05775897259869</v>
       </c>
       <c r="AD8" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>-2.037268131971359e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1255,22 +1255,22 @@
         <v>0.8792629304200403</v>
       </c>
       <c r="I9" t="n">
-        <v>199366.0711412441</v>
+        <v>191349.1149094407</v>
       </c>
       <c r="J9" t="n">
-        <v>220179.3636843024</v>
+        <v>210984.5370118085</v>
       </c>
       <c r="K9" t="n">
-        <v>30742.82978400695</v>
+        <v>31556.43362776139</v>
       </c>
       <c r="L9" t="n">
-        <v>33952.30021311853</v>
+        <v>34794.61894479147</v>
       </c>
       <c r="M9" t="n">
-        <v>196981.4933925702</v>
+        <v>188729.1055277988</v>
       </c>
       <c r="N9" t="n">
-        <v>217545.842301485</v>
+        <v>208095.6735508309</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>-0.8792629304200403</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.82924129800264</v>
+        <v>20.17849604217865</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.42191199952205</v>
+        <v>19.87355766569718</v>
       </c>
       <c r="AB9" t="n">
-        <v>20.70850422842268</v>
+        <v>21.05775897259869</v>
       </c>
       <c r="AC9" t="n">
-        <v>20.30117492994209</v>
+        <v>20.75282059611722</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.783497959375381e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1347,22 +1347,22 @@
         <v>0.08948243701796343</v>
       </c>
       <c r="I10" t="n">
-        <v>220179.3636843024</v>
+        <v>210984.5370118085</v>
       </c>
       <c r="J10" t="n">
-        <v>236963.9727571273</v>
+        <v>226458.2183885399</v>
       </c>
       <c r="K10" t="n">
-        <v>33952.30021311853</v>
+        <v>34794.61894479147</v>
       </c>
       <c r="L10" t="n">
-        <v>36540.5358981734</v>
+        <v>37346.468738155</v>
       </c>
       <c r="M10" t="n">
-        <v>217545.842301485</v>
+        <v>208095.6735508309</v>
       </c>
       <c r="N10" t="n">
-        <v>234129.6940183258</v>
+        <v>223357.4846484927</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1398,19 +1398,19 @@
         <v>-0.08948243701796343</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.21169249292412</v>
+        <v>20.66333815909925</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.26541035623375</v>
+        <v>20.8448233195438</v>
       </c>
       <c r="AB10" t="n">
-        <v>20.30117492994209</v>
+        <v>20.75282059611722</v>
       </c>
       <c r="AC10" t="n">
-        <v>20.35489279325171</v>
+        <v>20.93430575656177</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.783497959375381e-10</v>
+        <v>2.037268131971359e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1439,25 +1439,25 @@
         <v>0.17481744224213</v>
       </c>
       <c r="I11" t="n">
-        <v>236963.9727571273</v>
+        <v>226458.2183885399</v>
       </c>
       <c r="J11" t="n">
-        <v>250039.058231366</v>
+        <v>250494.4630372593</v>
       </c>
       <c r="K11" t="n">
-        <v>36540.5358981734</v>
+        <v>37346.468738155</v>
       </c>
       <c r="L11" t="n">
-        <v>38556.75222247004</v>
+        <v>41310.41787519135</v>
       </c>
       <c r="M11" t="n">
-        <v>234129.6940183258</v>
+        <v>223357.4846484927</v>
       </c>
       <c r="N11" t="n">
-        <v>247048.3910072751</v>
+        <v>247064.6178377266</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>15890.95654767201</v>
       </c>
       <c r="P11" t="n">
         <v>0.6806376797732446</v>
@@ -1490,19 +1490,19 @@
         <v>-0.17481744224213</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.18007535100958</v>
+        <v>20.75948831431964</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.00187983491386</v>
+        <v>23.51913132582883</v>
       </c>
       <c r="AB11" t="n">
-        <v>20.35489279325171</v>
+        <v>20.93430575656177</v>
       </c>
       <c r="AC11" t="n">
-        <v>21.17669727715599</v>
+        <v>23.69394876807096</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.074536263942719e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1531,25 +1531,25 @@
         <v>1.485784080558503</v>
       </c>
       <c r="I12" t="n">
-        <v>250039.058231366</v>
+        <v>250494.4630372593</v>
       </c>
       <c r="J12" t="n">
-        <v>252038.8353915245</v>
+        <v>261679.5647364778</v>
       </c>
       <c r="K12" t="n">
-        <v>38556.75222247004</v>
+        <v>41310.41787519135</v>
       </c>
       <c r="L12" t="n">
-        <v>38865.12369455038</v>
+        <v>43155.01443660317</v>
       </c>
       <c r="M12" t="n">
-        <v>247048.3910072751</v>
+        <v>247064.6178377266</v>
       </c>
       <c r="N12" t="n">
-        <v>249024.2492323254</v>
+        <v>258096.5697750535</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>15890.95654767201</v>
       </c>
       <c r="P12" t="n">
         <v>0.6806376797732446</v>
@@ -1582,19 +1582,19 @@
         <v>-1.485784080558503</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.69091319659749</v>
+        <v>22.20816468751246</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.45449097001999</v>
+        <v>26.28306114656847</v>
       </c>
       <c r="AB12" t="n">
-        <v>21.17669727715599</v>
+        <v>23.69394876807096</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.94027505057849</v>
+        <v>27.76884522712698</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.455191522836685e-10</v>
+        <v>3.492459654808044e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1623,22 +1623,22 @@
         <v>3.90671388902561</v>
       </c>
       <c r="I13" t="n">
-        <v>252038.8353915245</v>
+        <v>261679.5647364778</v>
       </c>
       <c r="J13" t="n">
-        <v>242791.7302298158</v>
+        <v>250661.4303662877</v>
       </c>
       <c r="K13" t="n">
-        <v>38865.12369455038</v>
+        <v>43155.01443660317</v>
       </c>
       <c r="L13" t="n">
-        <v>37439.19310187788</v>
+        <v>41337.95337457939</v>
       </c>
       <c r="M13" t="n">
-        <v>249024.2492323254</v>
+        <v>258096.5697750535</v>
       </c>
       <c r="N13" t="n">
-        <v>239887.7468481206</v>
+        <v>247229.299000087</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1674,19 +1674,19 @@
         <v>-3.90671388902561</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.03356116155288</v>
+        <v>23.86213133810137</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.46665524725301</v>
+        <v>26.74633722700864</v>
       </c>
       <c r="AB13" t="n">
-        <v>22.94027505057849</v>
+        <v>27.76884522712698</v>
       </c>
       <c r="AC13" t="n">
-        <v>25.37336913627862</v>
+        <v>30.65305111603425</v>
       </c>
       <c r="AD13" t="n">
-        <v>-2.619344741106033e-10</v>
+        <v>-8.731149137020111e-11</v>
       </c>
     </row>
     <row r="14">
@@ -1715,22 +1715,22 @@
         <v>7.261723058294422</v>
       </c>
       <c r="I14" t="n">
-        <v>242791.7302298158</v>
+        <v>250661.4303662877</v>
       </c>
       <c r="J14" t="n">
-        <v>223605.6789103798</v>
+        <v>229856.1039812186</v>
       </c>
       <c r="K14" t="n">
-        <v>37439.19310187788</v>
+        <v>41337.95337457939</v>
       </c>
       <c r="L14" t="n">
-        <v>34480.6480166273</v>
+        <v>37906.83271595985</v>
       </c>
       <c r="M14" t="n">
-        <v>239887.7468481206</v>
+        <v>247229.299000087</v>
       </c>
       <c r="N14" t="n">
-        <v>220931.1760556335</v>
+        <v>226708.8453741252</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1766,16 +1766,16 @@
         <v>-7.261723058294422</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.11164607798419</v>
+        <v>23.39132805773983</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4138440438239</v>
+        <v>27.38570615235</v>
       </c>
       <c r="AB14" t="n">
-        <v>25.37336913627862</v>
+        <v>30.65305111603425</v>
       </c>
       <c r="AC14" t="n">
-        <v>28.67556710211832</v>
+        <v>34.64742921064442</v>
       </c>
       <c r="AD14" t="n">
         <v>3.783497959375381e-10</v>
@@ -1807,22 +1807,22 @@
         <v>11.78043202639886</v>
       </c>
       <c r="I15" t="n">
-        <v>223605.6789103798</v>
+        <v>229856.1039812186</v>
       </c>
       <c r="J15" t="n">
-        <v>195563.0847811293</v>
+        <v>200348.4139407361</v>
       </c>
       <c r="K15" t="n">
-        <v>34480.6480166273</v>
+        <v>37906.83271595985</v>
       </c>
       <c r="L15" t="n">
-        <v>30156.39819276051</v>
+        <v>33040.55746450792</v>
       </c>
       <c r="M15" t="n">
-        <v>220931.1760556335</v>
+        <v>226708.8453741252</v>
       </c>
       <c r="N15" t="n">
-        <v>193223.9937925693</v>
+        <v>197605.1834618796</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1858,19 +1858,19 @@
         <v>-11.78043202639886</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.89513507571947</v>
+        <v>22.86699718424556</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.11422971377652</v>
+        <v>28.16298619527942</v>
       </c>
       <c r="AB15" t="n">
-        <v>28.67556710211832</v>
+        <v>34.64742921064442</v>
       </c>
       <c r="AC15" t="n">
-        <v>32.89466174017537</v>
+        <v>39.94341822167827</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.731149137020111e-11</v>
+        <v>-5.529727786779404e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1899,22 +1899,22 @@
         <v>17.6168056082001</v>
       </c>
       <c r="I16" t="n">
-        <v>195563.0847811293</v>
+        <v>200348.4139407361</v>
       </c>
       <c r="J16" t="n">
-        <v>159986.0091855307</v>
+        <v>163473.3948854044</v>
       </c>
       <c r="K16" t="n">
-        <v>30156.39819276051</v>
+        <v>33040.55746450792</v>
       </c>
       <c r="L16" t="n">
-        <v>24670.30934631202</v>
+        <v>26959.29551619566</v>
       </c>
       <c r="M16" t="n">
-        <v>193223.9937925693</v>
+        <v>197605.1834618796</v>
       </c>
       <c r="N16" t="n">
-        <v>158072.448490779</v>
+        <v>161235.0682098339</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1950,19 +1950,19 @@
         <v>-17.6168056082001</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.27785613197528</v>
+        <v>22.32661261347818</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.53791586463613</v>
+        <v>29.36126438301683</v>
       </c>
       <c r="AB16" t="n">
-        <v>32.89466174017537</v>
+        <v>39.94341822167827</v>
       </c>
       <c r="AC16" t="n">
-        <v>38.15472147283623</v>
+        <v>46.97806999121693</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.529727786779404e-10</v>
+        <v>-3.492459654808044e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1991,22 +1991,22 @@
         <v>25.01342256816848</v>
       </c>
       <c r="I17" t="n">
-        <v>159986.0091855307</v>
+        <v>163473.3948854044</v>
       </c>
       <c r="J17" t="n">
-        <v>119026.9425532871</v>
+        <v>121374.339180751</v>
       </c>
       <c r="K17" t="n">
-        <v>24670.30934631202</v>
+        <v>26959.29551619566</v>
       </c>
       <c r="L17" t="n">
-        <v>18354.30178103897</v>
+        <v>20016.50898820958</v>
       </c>
       <c r="M17" t="n">
-        <v>158072.448490779</v>
+        <v>161235.0682098339</v>
       </c>
       <c r="N17" t="n">
-        <v>117603.2850719488</v>
+        <v>119712.4453826289</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2042,19 +2042,19 @@
         <v>-25.01342256816848</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.14129890466775</v>
+        <v>21.96464742304845</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.62809090534333</v>
+        <v>31.6904460486558</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.15472147283623</v>
+        <v>46.97806999121693</v>
       </c>
       <c r="AC17" t="n">
-        <v>44.64151347351181</v>
+        <v>56.70386861682428</v>
       </c>
       <c r="AD17" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>1.891748979687691e-10</v>
       </c>
     </row>
     <row r="18">
@@ -2083,22 +2083,22 @@
         <v>34.37366592323602</v>
       </c>
       <c r="I18" t="n">
-        <v>119026.9425532871</v>
+        <v>121374.339180751</v>
       </c>
       <c r="J18" t="n">
-        <v>75619.5729149049</v>
+        <v>76999.1198049528</v>
       </c>
       <c r="K18" t="n">
-        <v>18354.30178103897</v>
+        <v>20016.50898820958</v>
       </c>
       <c r="L18" t="n">
-        <v>11660.75874974338</v>
+        <v>12698.34780616046</v>
       </c>
       <c r="M18" t="n">
-        <v>117603.2850719488</v>
+        <v>119712.4453826289</v>
       </c>
       <c r="N18" t="n">
-        <v>74715.10231012804</v>
+        <v>75944.82479887128</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>-34.37366592323602</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.26784755027579</v>
+        <v>22.33020269358826</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.31918012529943</v>
+        <v>37.51260777616771</v>
       </c>
       <c r="AB18" t="n">
-        <v>44.64151347351181</v>
+        <v>56.70386861682428</v>
       </c>
       <c r="AC18" t="n">
-        <v>52.69284604853544</v>
+        <v>71.88627369940373</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.673470251262188e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
     </row>
     <row r="19">
@@ -2175,22 +2175,22 @@
         <v>44.92039688383612</v>
       </c>
       <c r="I19" t="n">
-        <v>75619.5729149049</v>
+        <v>76999.1198049528</v>
       </c>
       <c r="J19" t="n">
-        <v>42222.30508670387</v>
+        <v>43048.61290702577</v>
       </c>
       <c r="K19" t="n">
-        <v>11660.75874974338</v>
+        <v>12698.34780616046</v>
       </c>
       <c r="L19" t="n">
-        <v>6510.802620217835</v>
+        <v>7099.383222183529</v>
       </c>
       <c r="M19" t="n">
-        <v>74715.10231012804</v>
+        <v>75944.82479887128</v>
       </c>
       <c r="N19" t="n">
-        <v>41717.29253049944</v>
+        <v>42459.17840801356</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2226,19 +2226,19 @@
         <v>-44.92039688383612</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.772449164699324</v>
+        <v>26.96587681556761</v>
       </c>
       <c r="AA19" t="n">
-        <v>15.73623342099551</v>
+        <v>50.17647007820467</v>
       </c>
       <c r="AB19" t="n">
-        <v>52.69284604853544</v>
+        <v>71.88627369940373</v>
       </c>
       <c r="AC19" t="n">
-        <v>60.65663030483163</v>
+        <v>95.09686696204079</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>-2.291926648467779e-10</v>
       </c>
     </row>
     <row r="20">
@@ -2267,22 +2267,22 @@
         <v>56.70352678246132</v>
       </c>
       <c r="I20" t="n">
-        <v>42222.30508670387</v>
+        <v>43048.61290702577</v>
       </c>
       <c r="J20" t="n">
-        <v>13221.40609254259</v>
+        <v>13627.07479317009</v>
       </c>
       <c r="K20" t="n">
-        <v>6510.802620217835</v>
+        <v>7099.383222183529</v>
       </c>
       <c r="L20" t="n">
-        <v>2038.779390502728</v>
+        <v>2247.315758187477</v>
       </c>
       <c r="M20" t="n">
-        <v>41717.29253049944</v>
+        <v>42459.17840801356</v>
       </c>
       <c r="N20" t="n">
-        <v>13063.26749556877</v>
+        <v>13440.48880441682</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>-56.70352678246132</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.953103522370313</v>
+        <v>38.39334017957948</v>
       </c>
       <c r="AA20" t="n">
-        <v>15.35253924342194</v>
+        <v>124.1855323624137</v>
       </c>
       <c r="AB20" t="n">
-        <v>60.65663030483163</v>
+        <v>95.09686696204079</v>
       </c>
       <c r="AC20" t="n">
-        <v>72.05606602588325</v>
+        <v>180.889059144875</v>
       </c>
       <c r="AD20" t="n">
-        <v>-2.546585164964199e-11</v>
+        <v>-2.746673999354243e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2359,19 +2359,19 @@
         <v>72.7067456626184</v>
       </c>
       <c r="I21" t="n">
-        <v>13221.40609254259</v>
+        <v>13627.07479317009</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2038.779390502728</v>
+        <v>2247.315758187477</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>13063.26749556877</v>
+        <v>13440.48880441682</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2410,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.953103522370313</v>
+        <v>38.39334017957948</v>
       </c>
       <c r="AA21" t="n">
-        <v>15.35253924342194</v>
+        <v>124.1855323624137</v>
       </c>
       <c r="AB21" t="n">
-        <v>72.05606602588325</v>
+        <v>180.889059144875</v>
       </c>
       <c r="AC21" t="n">
         <v>83.95181749179723</v>

--- a/thrust_calc_results_center_base.xlsx
+++ b/thrust_calc_results_center_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,43 +590,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.02372911589109</v>
+        <v>4.00949164635643</v>
       </c>
       <c r="C2" t="n">
-        <v>60.56948986259904</v>
+        <v>57.56237112783171</v>
       </c>
       <c r="D2" t="n">
         <v>55.5576253046535</v>
       </c>
       <c r="E2" t="n">
-        <v>65.58135442054459</v>
+        <v>59.56711695100993</v>
       </c>
       <c r="F2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="G2" t="n">
-        <v>30.04068289318306</v>
+        <v>35.73124841355734</v>
       </c>
       <c r="H2" t="n">
-        <v>34.72697403083298</v>
+        <v>37.81325497859791</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19348.16829700482</v>
+        <v>5101.265628877664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3190.812714091454</v>
+        <v>619.2670210747668</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19083.2473827914</v>
+        <v>5063.538226672908</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.56948986259904</v>
+        <v>57.56237112783171</v>
       </c>
       <c r="R2" t="n">
         <v>40</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>37.36348701541649</v>
+        <v>38.90662748929896</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -653,28 +653,28 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.273025969167023</v>
+        <v>2.186745021402089</v>
       </c>
       <c r="X2" t="n">
-        <v>2.636512984583511</v>
+        <v>1.093372510701045</v>
       </c>
       <c r="Y2" t="n">
-        <v>-34.72697403083298</v>
+        <v>-37.81325497859791</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.272640914735945</v>
+        <v>2.186359966971011</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8380083762482684</v>
+        <v>0.2451789476757611</v>
       </c>
       <c r="AB2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.56498240708125</v>
+        <v>38.05843392627367</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.456968210637569e-11</v>
+        <v>-1.591615728102624e-12</v>
       </c>
     </row>
     <row r="3">
@@ -682,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.02372911589107</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C3" t="n">
-        <v>70.59321897849011</v>
+        <v>61.57186277418815</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58135442054459</v>
+        <v>59.56711695100993</v>
       </c>
       <c r="E3" t="n">
-        <v>75.60508353643566</v>
+        <v>63.57660859736637</v>
       </c>
       <c r="F3" t="n">
-        <v>30.04068289318306</v>
+        <v>35.73124841355734</v>
       </c>
       <c r="G3" t="n">
-        <v>22.10032906584962</v>
+        <v>31.85108433739228</v>
       </c>
       <c r="H3" t="n">
-        <v>25.85314164552767</v>
+        <v>33.74603824153289</v>
       </c>
       <c r="I3" t="n">
-        <v>19348.16829700482</v>
+        <v>5101.265628877664</v>
       </c>
       <c r="J3" t="n">
-        <v>49139.2201214175</v>
+        <v>13022.41570242318</v>
       </c>
       <c r="K3" t="n">
-        <v>3190.812714091454</v>
+        <v>619.2670210747668</v>
       </c>
       <c r="L3" t="n">
-        <v>8103.81871384848</v>
+        <v>1580.853295226487</v>
       </c>
       <c r="M3" t="n">
-        <v>19083.2473827914</v>
+        <v>5063.538226672908</v>
       </c>
       <c r="N3" t="n">
-        <v>48466.39120456774</v>
+        <v>12926.10589410784</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.59321897849011</v>
+        <v>61.57186277418815</v>
       </c>
       <c r="R3" t="n">
         <v>40</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>32.92657082276384</v>
+        <v>36.87301912076644</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.14685835447233</v>
+        <v>6.253961758467113</v>
       </c>
       <c r="X3" t="n">
-        <v>7.073429177236164</v>
+        <v>3.126980879233557</v>
       </c>
       <c r="Y3" t="n">
-        <v>-25.85314164552767</v>
+        <v>-33.74603824153289</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.711840761553574</v>
+        <v>4.312395684740785</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.99192567737439</v>
+        <v>2.030515812560601</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.56498240708125</v>
+        <v>38.05843392627367</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.84506732290206</v>
+        <v>35.77655405409349</v>
       </c>
       <c r="AD3" t="n">
-        <v>-5.093170329928398e-11</v>
+        <v>1.864464138634503e-11</v>
       </c>
     </row>
     <row r="4">
@@ -774,43 +774,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.02372911589109</v>
+        <v>4.00949164635643</v>
       </c>
       <c r="C4" t="n">
-        <v>80.6169480943812</v>
+        <v>65.58135442054459</v>
       </c>
       <c r="D4" t="n">
-        <v>75.60508353643566</v>
+        <v>63.57660859736637</v>
       </c>
       <c r="E4" t="n">
-        <v>85.62881265232674</v>
+        <v>67.5861002437228</v>
       </c>
       <c r="F4" t="n">
-        <v>22.10032906584962</v>
+        <v>31.85108433739228</v>
       </c>
       <c r="G4" t="n">
-        <v>15.71643411866143</v>
+        <v>28.30982536539118</v>
       </c>
       <c r="H4" t="n">
-        <v>18.73390188558466</v>
+        <v>30.04068289318306</v>
       </c>
       <c r="I4" t="n">
-        <v>49139.2201214175</v>
+        <v>13022.41570242318</v>
       </c>
       <c r="J4" t="n">
-        <v>81902.05792031095</v>
+        <v>22862.59797774188</v>
       </c>
       <c r="K4" t="n">
-        <v>8103.81871384848</v>
+        <v>1580.853295226487</v>
       </c>
       <c r="L4" t="n">
-        <v>13506.91826279175</v>
+        <v>2775.400062204001</v>
       </c>
       <c r="M4" t="n">
-        <v>48466.39120456774</v>
+        <v>12926.10589410784</v>
       </c>
       <c r="N4" t="n">
-        <v>80780.63041734839</v>
+        <v>22693.51318739707</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.6169480943812</v>
+        <v>65.58135442054459</v>
       </c>
       <c r="R4" t="n">
         <v>40</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>29.36695094279233</v>
+        <v>35.02034144659153</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -837,28 +837,28 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.26609811441534</v>
+        <v>9.95931710681694</v>
       </c>
       <c r="X4" t="n">
-        <v>10.63304905720767</v>
+        <v>4.97965855340847</v>
       </c>
       <c r="Y4" t="n">
-        <v>-18.73390188558466</v>
+        <v>-30.04068289318306</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.1111654373174</v>
+        <v>5.735871160910428</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.607194139985943</v>
+        <v>3.651953668854041</v>
       </c>
       <c r="AB4" t="n">
-        <v>30.84506732290206</v>
+        <v>35.77655405409349</v>
       </c>
       <c r="AC4" t="n">
-        <v>27.3410960255706</v>
+        <v>33.6926365620371</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1.600710675120354e-10</v>
+        <v>2.819433575496078e-11</v>
       </c>
     </row>
     <row r="5">
@@ -866,43 +866,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.02372911589107</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C5" t="n">
-        <v>90.64067721027229</v>
+        <v>69.59084606690101</v>
       </c>
       <c r="D5" t="n">
-        <v>85.62881265232674</v>
+        <v>67.5861002437228</v>
       </c>
       <c r="E5" t="n">
-        <v>95.65254176821782</v>
+        <v>71.59559189007923</v>
       </c>
       <c r="F5" t="n">
-        <v>15.71643411866143</v>
+        <v>28.30982536539118</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6161421138269</v>
+        <v>25.0695366595517</v>
       </c>
       <c r="H5" t="n">
-        <v>13.01839398362824</v>
+        <v>26.65408684310715</v>
       </c>
       <c r="I5" t="n">
-        <v>81902.05792031095</v>
+        <v>22862.59797774188</v>
       </c>
       <c r="J5" t="n">
-        <v>113990.1748725663</v>
+        <v>33994.12361882484</v>
       </c>
       <c r="K5" t="n">
-        <v>13506.91826279175</v>
+        <v>2775.400062204001</v>
       </c>
       <c r="L5" t="n">
-        <v>18798.74589064839</v>
+        <v>4126.709173564166</v>
       </c>
       <c r="M5" t="n">
-        <v>80780.63041734839</v>
+        <v>22693.51318739707</v>
       </c>
       <c r="N5" t="n">
-        <v>112429.3872633711</v>
+        <v>33742.71346541007</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.64067721027229</v>
+        <v>69.59084606690101</v>
       </c>
       <c r="R5" t="n">
         <v>40</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26.50919699181412</v>
+        <v>33.32704342155358</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -929,28 +929,28 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>26.98160601637176</v>
+        <v>13.34591315689285</v>
       </c>
       <c r="X5" t="n">
-        <v>13.49080300818587</v>
+        <v>6.672956578446424</v>
       </c>
       <c r="Y5" t="n">
-        <v>-13.01839398362824</v>
+        <v>-26.65408684310715</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.32270204194236</v>
+        <v>7.03854971892995</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.73099440922736</v>
+        <v>5.143818552296842</v>
       </c>
       <c r="AB5" t="n">
-        <v>27.3410960255706</v>
+        <v>33.6926365620371</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.74938839285561</v>
+        <v>31.79790539540399</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.891748979687691e-10</v>
+        <v>-6.548361852765083e-11</v>
       </c>
     </row>
     <row r="6">
@@ -958,43 +958,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.02372911589109</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C6" t="n">
-        <v>100.6644063261634</v>
+        <v>73.60033771325746</v>
       </c>
       <c r="D6" t="n">
-        <v>95.65254176821782</v>
+        <v>71.59559189007923</v>
       </c>
       <c r="E6" t="n">
-        <v>105.6762708841089</v>
+        <v>75.60508353643567</v>
       </c>
       <c r="F6" t="n">
-        <v>10.6161421138269</v>
+        <v>25.0695366595517</v>
       </c>
       <c r="G6" t="n">
-        <v>6.62608620842262</v>
+        <v>22.10032906584962</v>
       </c>
       <c r="H6" t="n">
-        <v>8.490560338649104</v>
+        <v>23.55266605375184</v>
       </c>
       <c r="I6" t="n">
-        <v>113990.1748725663</v>
+        <v>33994.12361882484</v>
       </c>
       <c r="J6" t="n">
-        <v>143389.3898543167</v>
+        <v>45960.71807752333</v>
       </c>
       <c r="K6" t="n">
-        <v>18798.74589064839</v>
+        <v>4126.709173564166</v>
       </c>
       <c r="L6" t="n">
-        <v>23647.13192430714</v>
+        <v>5579.391280705962</v>
       </c>
       <c r="M6" t="n">
-        <v>112429.3872633711</v>
+        <v>33742.71346541007</v>
       </c>
       <c r="N6" t="n">
-        <v>141426.0593898722</v>
+        <v>45620.80664716881</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.6644063261634</v>
+        <v>73.60033771325746</v>
       </c>
       <c r="R6" t="n">
         <v>40</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>24.24528016932455</v>
+        <v>31.77633302687591</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>31.5094396613509</v>
+        <v>16.44733394624816</v>
       </c>
       <c r="X6" t="n">
-        <v>15.75471983067545</v>
+        <v>8.223666973124079</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.490560338649104</v>
+        <v>-23.55266605375184</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.2588280542065</v>
+        <v>8.245239341652159</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.42946989550886</v>
+        <v>6.524983549860465</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.74938839285561</v>
+        <v>31.79790539540399</v>
       </c>
       <c r="AC6" t="n">
-        <v>22.92003023415797</v>
+        <v>30.0776496036123</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>3.274180926382542e-11</v>
       </c>
     </row>
     <row r="7">
@@ -1050,43 +1050,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.02372911589109</v>
+        <v>4.009491646356423</v>
       </c>
       <c r="C7" t="n">
-        <v>110.6881354420544</v>
+        <v>77.60982935961388</v>
       </c>
       <c r="D7" t="n">
-        <v>105.6762708841089</v>
+        <v>75.60508353643567</v>
       </c>
       <c r="E7" t="n">
-        <v>115.7</v>
+        <v>79.61457518279209</v>
       </c>
       <c r="F7" t="n">
-        <v>6.62608620842262</v>
+        <v>22.10032906584962</v>
       </c>
       <c r="G7" t="n">
-        <v>3.632006118520721</v>
+        <v>19.37820205604925</v>
       </c>
       <c r="H7" t="n">
-        <v>5.010018042625987</v>
+        <v>20.70969382130177</v>
       </c>
       <c r="I7" t="n">
-        <v>143389.3898543167</v>
+        <v>45960.71807752333</v>
       </c>
       <c r="J7" t="n">
-        <v>168924.4270559396</v>
+        <v>58419.82884702988</v>
       </c>
       <c r="K7" t="n">
-        <v>23647.13192430714</v>
+        <v>5579.391280705962</v>
       </c>
       <c r="L7" t="n">
-        <v>27858.25517416793</v>
+        <v>7091.862297270212</v>
       </c>
       <c r="M7" t="n">
-        <v>141426.0593898722</v>
+        <v>45620.80664716881</v>
       </c>
       <c r="N7" t="n">
-        <v>166611.4632155555</v>
+        <v>57987.77363955976</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.6881354420544</v>
+        <v>77.60982935961388</v>
       </c>
       <c r="R7" t="n">
         <v>40</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>22.50500902131299</v>
+        <v>30.35484691065088</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1113,28 +1113,28 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>34.98998195737401</v>
+        <v>19.29030617869823</v>
       </c>
       <c r="X7" t="n">
-        <v>17.49499097868701</v>
+        <v>9.645153089349112</v>
       </c>
       <c r="Y7" t="n">
-        <v>-5.010018042625987</v>
+        <v>-20.70969382130177</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.91001219153198</v>
+        <v>9.367955782310531</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.75203145178586</v>
+        <v>7.808134606499319</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.92003023415797</v>
+        <v>30.0776496036123</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.76204949441185</v>
+        <v>28.51782842780109</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.037268131971359e-10</v>
+        <v>5.093170329928398e-11</v>
       </c>
     </row>
     <row r="8">
@@ -1142,61 +1142,61 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.866666666666674</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C8" t="n">
-        <v>120.6333333333333</v>
+        <v>81.61932100597031</v>
       </c>
       <c r="D8" t="n">
-        <v>115.7</v>
+        <v>79.61457518279209</v>
       </c>
       <c r="E8" t="n">
-        <v>125.5666666666667</v>
+        <v>83.62406682914853</v>
       </c>
       <c r="F8" t="n">
-        <v>3.632006118520721</v>
+        <v>19.37820205604925</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58401478028587</v>
+        <v>16.88358604272948</v>
       </c>
       <c r="H8" t="n">
-        <v>2.499933806165217</v>
+        <v>18.10353524162007</v>
       </c>
       <c r="I8" t="n">
-        <v>168924.4270559396</v>
+        <v>58419.82884702988</v>
       </c>
       <c r="J8" t="n">
-        <v>191349.1149094407</v>
+        <v>71107.75773802548</v>
       </c>
       <c r="K8" t="n">
-        <v>27858.25517416793</v>
+        <v>7091.862297270212</v>
       </c>
       <c r="L8" t="n">
-        <v>31556.43362776139</v>
+        <v>8632.110639457402</v>
       </c>
       <c r="M8" t="n">
-        <v>166611.4632155555</v>
+        <v>57987.77363955976</v>
       </c>
       <c r="N8" t="n">
-        <v>188729.1055277988</v>
+        <v>70581.8664845149</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6812982252878486</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.6333333333333</v>
+        <v>81.61932100597031</v>
       </c>
       <c r="R8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>23.08422102086657</v>
+        <v>29.05176762081003</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1205,28 +1205,28 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>41.50006619383478</v>
+        <v>21.89646475837993</v>
       </c>
       <c r="X8" t="n">
-        <v>20.58428721470135</v>
+        <v>10.94823237918997</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.499933806165217</v>
+        <v>-18.10353524162007</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.26211568824663</v>
+        <v>10.41429318618102</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.55782516643347</v>
+        <v>9.002655733174095</v>
       </c>
       <c r="AB8" t="n">
-        <v>21.76204949441185</v>
+        <v>28.51782842780109</v>
       </c>
       <c r="AC8" t="n">
-        <v>21.05775897259869</v>
+        <v>27.10619097479416</v>
       </c>
       <c r="AD8" t="n">
-        <v>-2.037268131971359e-10</v>
+        <v>-1.891748979687691e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1234,61 +1234,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.866666666666674</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C9" t="n">
-        <v>130.5</v>
+        <v>85.62881265232676</v>
       </c>
       <c r="D9" t="n">
-        <v>125.5666666666667</v>
+        <v>83.62406682914853</v>
       </c>
       <c r="E9" t="n">
-        <v>135.4333333333333</v>
+        <v>87.63355847550497</v>
       </c>
       <c r="F9" t="n">
-        <v>1.58401478028587</v>
+        <v>16.88358604272948</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3819458071278916</v>
+        <v>14.60032548998696</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8792629304200403</v>
+        <v>15.71643411866143</v>
       </c>
       <c r="I9" t="n">
-        <v>191349.1149094407</v>
+        <v>71107.75773802548</v>
       </c>
       <c r="J9" t="n">
-        <v>210984.5370118085</v>
+        <v>83817.4925554009</v>
       </c>
       <c r="K9" t="n">
-        <v>31556.43362776139</v>
+        <v>8632.110639457402</v>
       </c>
       <c r="L9" t="n">
-        <v>34794.61894479147</v>
+        <v>10175.00610729015</v>
       </c>
       <c r="M9" t="n">
-        <v>188729.1055277988</v>
+        <v>70581.8664845149</v>
       </c>
       <c r="N9" t="n">
-        <v>208095.6735508309</v>
+        <v>83197.60398587986</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6812982252878486</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.5</v>
+        <v>85.62881265232676</v>
       </c>
       <c r="R9" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>26.01311423102661</v>
+        <v>27.85821705933071</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1297,28 +1297,28 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>51.12073706957996</v>
+        <v>24.28356588133857</v>
       </c>
       <c r="X9" t="n">
-        <v>25.13385130060657</v>
+        <v>12.14178294066929</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.8792629304200403</v>
+        <v>-15.71643411866143</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.17849604217865</v>
+        <v>11.38975685613273</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.87355766569718</v>
+        <v>10.11584163646772</v>
       </c>
       <c r="AB9" t="n">
-        <v>21.05775897259869</v>
+        <v>27.10619097479416</v>
       </c>
       <c r="AC9" t="n">
-        <v>20.75282059611722</v>
+        <v>25.83227575512915</v>
       </c>
       <c r="AD9" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>1.673470251262188e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1326,61 +1326,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.866666666666674</v>
+        <v>4.009491646356423</v>
       </c>
       <c r="C10" t="n">
-        <v>140.3666666666667</v>
+        <v>89.63830429868318</v>
       </c>
       <c r="D10" t="n">
-        <v>135.4333333333333</v>
+        <v>87.63355847550497</v>
       </c>
       <c r="E10" t="n">
-        <v>145.3</v>
+        <v>91.64305012186139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3819458071278916</v>
+        <v>14.60032548998696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000375000585933094</v>
+        <v>12.51495034330679</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08948243701796343</v>
+        <v>13.53365485246148</v>
       </c>
       <c r="I10" t="n">
-        <v>210984.5370118085</v>
+        <v>83817.4925554009</v>
       </c>
       <c r="J10" t="n">
-        <v>226458.2183885399</v>
+        <v>96384.02105240329</v>
       </c>
       <c r="K10" t="n">
-        <v>34794.61894479147</v>
+        <v>10175.00610729015</v>
       </c>
       <c r="L10" t="n">
-        <v>37346.468738155</v>
+        <v>11700.51707530104</v>
       </c>
       <c r="M10" t="n">
-        <v>208095.6735508309</v>
+        <v>83197.60398587986</v>
       </c>
       <c r="N10" t="n">
-        <v>223357.4846484927</v>
+        <v>95671.19427706915</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6812982252878486</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.3666666666667</v>
+        <v>89.63830429868318</v>
       </c>
       <c r="R10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>29.4201788174892</v>
+        <v>26.76682742623074</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1389,28 +1389,28 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>59.91051756298204</v>
+        <v>26.46634514753852</v>
       </c>
       <c r="X10" t="n">
-        <v>29.33069638047123</v>
+        <v>13.23317257376926</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.08948243701796343</v>
+        <v>-13.53365485246148</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.66333815909925</v>
+        <v>12.29862090266766</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8448233195438</v>
+        <v>11.15352079825041</v>
       </c>
       <c r="AB10" t="n">
-        <v>20.75282059611722</v>
+        <v>25.83227575512915</v>
       </c>
       <c r="AC10" t="n">
-        <v>20.93430575656177</v>
+        <v>24.68717565071189</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.037268131971359e-10</v>
+        <v>-1.091393642127514e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1418,61 +1418,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.34999999999999</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C11" t="n">
-        <v>151.475</v>
+        <v>93.6477959450396</v>
       </c>
       <c r="D11" t="n">
-        <v>145.3</v>
+        <v>91.64305012186139</v>
       </c>
       <c r="E11" t="n">
-        <v>157.65</v>
+        <v>95.65254176821783</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000375000585933094</v>
+        <v>12.51495034330679</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6686231538410539</v>
+        <v>10.6161421138269</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17481744224213</v>
+        <v>11.5428603608886</v>
       </c>
       <c r="I11" t="n">
-        <v>226458.2183885399</v>
+        <v>96384.02105240329</v>
       </c>
       <c r="J11" t="n">
-        <v>250494.4630372593</v>
+        <v>108674.2657295691</v>
       </c>
       <c r="K11" t="n">
-        <v>37346.468738155</v>
+        <v>11700.51707530104</v>
       </c>
       <c r="L11" t="n">
-        <v>41310.41787519135</v>
+        <v>13192.48862965881</v>
       </c>
       <c r="M11" t="n">
-        <v>223357.4846484927</v>
+        <v>95671.19427706915</v>
       </c>
       <c r="N11" t="n">
-        <v>247064.6178377266</v>
+        <v>107870.5440591514</v>
       </c>
       <c r="O11" t="n">
-        <v>15890.95654767201</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6806376797732446</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.475</v>
+        <v>93.6477959450396</v>
       </c>
       <c r="R11" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>33.98037580017571</v>
+        <v>25.7714301804443</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1481,28 +1481,28 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>68.82518255775787</v>
+        <v>28.4571396391114</v>
       </c>
       <c r="X11" t="n">
-        <v>33.80555835793358</v>
+        <v>14.2285698195557</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.17481744224213</v>
+        <v>-11.5428603608886</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.75948831431964</v>
+        <v>13.1443152898233</v>
       </c>
       <c r="AA11" t="n">
-        <v>23.51913132582883</v>
+        <v>12.12042177360453</v>
       </c>
       <c r="AB11" t="n">
-        <v>20.93430575656177</v>
+        <v>24.68717565071189</v>
       </c>
       <c r="AC11" t="n">
-        <v>23.69394876807096</v>
+        <v>23.66328213449312</v>
       </c>
       <c r="AD11" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>3.128661774098873e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1510,61 +1510,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.34999999999999</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C12" t="n">
-        <v>163.825</v>
+        <v>97.65728759139606</v>
       </c>
       <c r="D12" t="n">
-        <v>157.65</v>
+        <v>95.65254176821783</v>
       </c>
       <c r="E12" t="n">
-        <v>170</v>
+        <v>99.66203341457427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6686231538410539</v>
+        <v>10.6161421138269</v>
       </c>
       <c r="G12" t="n">
-        <v>2.633054056944971</v>
+        <v>8.894335041372344</v>
       </c>
       <c r="H12" t="n">
-        <v>1.485784080558503</v>
+        <v>9.733651634797397</v>
       </c>
       <c r="I12" t="n">
-        <v>250494.4630372593</v>
+        <v>108674.2657295691</v>
       </c>
       <c r="J12" t="n">
-        <v>261679.5647364778</v>
+        <v>120579.9871590491</v>
       </c>
       <c r="K12" t="n">
-        <v>41310.41787519135</v>
+        <v>13192.48862965881</v>
       </c>
       <c r="L12" t="n">
-        <v>43155.01443660317</v>
+        <v>14637.78106878282</v>
       </c>
       <c r="M12" t="n">
-        <v>247064.6178377266</v>
+        <v>107870.5440591514</v>
       </c>
       <c r="N12" t="n">
-        <v>258096.5697750535</v>
+        <v>119688.2144100196</v>
       </c>
       <c r="O12" t="n">
-        <v>15890.95654767201</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6806376797732446</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>163.825</v>
+        <v>97.65728759139606</v>
       </c>
       <c r="R12" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.80675988444744</v>
+        <v>24.8668258173987</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>77.5142159194415</v>
+        <v>30.2663483652026</v>
       </c>
       <c r="X12" t="n">
-        <v>38.32097580388893</v>
+        <v>15.1331741826013</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.485784080558503</v>
+        <v>-9.733651634797397</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.20816468751246</v>
+        <v>13.92963049969573</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.28306114656847</v>
+        <v>13.02040844341097</v>
       </c>
       <c r="AB12" t="n">
-        <v>23.69394876807096</v>
+        <v>23.66328213449312</v>
       </c>
       <c r="AC12" t="n">
-        <v>27.76884522712698</v>
+        <v>22.75406007820837</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>4.729372449219227e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1602,43 +1602,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.74039578255775</v>
+        <v>4.009491646356423</v>
       </c>
       <c r="C13" t="n">
-        <v>175.3701978912789</v>
+        <v>101.6667792377525</v>
       </c>
       <c r="D13" t="n">
-        <v>170</v>
+        <v>99.66203341457427</v>
       </c>
       <c r="E13" t="n">
-        <v>180.7403957825578</v>
+        <v>103.6715250609307</v>
       </c>
       <c r="F13" t="n">
-        <v>2.633054056944971</v>
+        <v>8.894335041372344</v>
       </c>
       <c r="G13" t="n">
-        <v>5.445977332499893</v>
+        <v>7.341413291259855</v>
       </c>
       <c r="H13" t="n">
-        <v>3.90671388902561</v>
+        <v>8.097220863955656</v>
       </c>
       <c r="I13" t="n">
-        <v>261679.5647364778</v>
+        <v>120579.9871590491</v>
       </c>
       <c r="J13" t="n">
-        <v>250661.4303662877</v>
+        <v>132012.6596190492</v>
       </c>
       <c r="K13" t="n">
-        <v>43155.01443660317</v>
+        <v>14637.78106878282</v>
       </c>
       <c r="L13" t="n">
-        <v>41337.95337457939</v>
+        <v>16025.64783211102</v>
       </c>
       <c r="M13" t="n">
-        <v>258096.5697750535</v>
+        <v>119688.2144100196</v>
       </c>
       <c r="N13" t="n">
-        <v>247229.299000087</v>
+        <v>131036.3343170744</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>175.3701978912789</v>
+        <v>101.6667792377525</v>
       </c>
       <c r="R13" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>43.60982012961582</v>
+        <v>24.04861043197783</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1665,28 +1665,28 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>80.09328611097439</v>
+        <v>31.90277913604434</v>
       </c>
       <c r="X13" t="n">
-        <v>39.70310624059021</v>
+        <v>15.95138956802217</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.90671388902561</v>
+        <v>-8.097220863955656</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.86213133810137</v>
+        <v>14.65683921425271</v>
       </c>
       <c r="AA13" t="n">
-        <v>26.74633722700864</v>
+        <v>13.856639877215</v>
       </c>
       <c r="AB13" t="n">
-        <v>27.76884522712698</v>
+        <v>22.75406007820837</v>
       </c>
       <c r="AC13" t="n">
-        <v>30.65305111603425</v>
+        <v>21.95386074117066</v>
       </c>
       <c r="AD13" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>3.16504156216979e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1694,43 +1694,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.74039578255775</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C14" t="n">
-        <v>186.1105936738366</v>
+        <v>105.6762708841089</v>
       </c>
       <c r="D14" t="n">
-        <v>180.7403957825578</v>
+        <v>103.6715250609307</v>
       </c>
       <c r="E14" t="n">
-        <v>191.4807915651155</v>
+        <v>107.6810167072871</v>
       </c>
       <c r="F14" t="n">
-        <v>5.445977332499893</v>
+        <v>7.341413291259855</v>
       </c>
       <c r="G14" t="n">
-        <v>9.367563456822083</v>
+        <v>5.950477922973221</v>
       </c>
       <c r="H14" t="n">
-        <v>7.261723058294422</v>
+        <v>6.62608620842262</v>
       </c>
       <c r="I14" t="n">
-        <v>250661.4303662877</v>
+        <v>132012.6596190492</v>
       </c>
       <c r="J14" t="n">
-        <v>229856.1039812186</v>
+        <v>142899.6959525348</v>
       </c>
       <c r="K14" t="n">
-        <v>41337.95337457939</v>
+        <v>16025.64783211102</v>
       </c>
       <c r="L14" t="n">
-        <v>37906.83271595985</v>
+        <v>17347.27721765111</v>
       </c>
       <c r="M14" t="n">
-        <v>247229.299000087</v>
+        <v>131036.3343170744</v>
       </c>
       <c r="N14" t="n">
-        <v>226708.8453741252</v>
+        <v>141842.85345572</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.1105936738366</v>
+        <v>105.6762708841089</v>
       </c>
       <c r="R14" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.32793934476856</v>
+        <v>23.31304310421131</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1757,28 +1757,28 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>76.73827694170558</v>
+        <v>33.37391379157738</v>
       </c>
       <c r="X14" t="n">
-        <v>38.06621628647414</v>
+        <v>16.68695689578869</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.261723058294422</v>
+        <v>-6.62608620842262</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.39132805773983</v>
+        <v>15.32777453274804</v>
       </c>
       <c r="AA14" t="n">
-        <v>27.38570615235</v>
+        <v>14.63168266534171</v>
       </c>
       <c r="AB14" t="n">
-        <v>30.65305111603425</v>
+        <v>21.95386074117066</v>
       </c>
       <c r="AC14" t="n">
-        <v>34.64742921064442</v>
+        <v>21.25776887376433</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.783497959375381e-10</v>
+        <v>2.182787284255028e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1786,43 +1786,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.74039578255775</v>
+        <v>4.009491646356437</v>
       </c>
       <c r="C15" t="n">
-        <v>196.8509894563944</v>
+        <v>109.6857625304654</v>
       </c>
       <c r="D15" t="n">
-        <v>191.4807915651155</v>
+        <v>107.6810167072871</v>
       </c>
       <c r="E15" t="n">
-        <v>202.2211873476733</v>
+        <v>111.6905083536436</v>
       </c>
       <c r="F15" t="n">
-        <v>9.367563456822083</v>
+        <v>5.950477922973221</v>
       </c>
       <c r="G15" t="n">
-        <v>14.52139686873703</v>
+        <v>4.715665564391145</v>
       </c>
       <c r="H15" t="n">
-        <v>11.78043202639886</v>
+        <v>5.313886490363117</v>
       </c>
       <c r="I15" t="n">
-        <v>229856.1039812186</v>
+        <v>142899.6959525348</v>
       </c>
       <c r="J15" t="n">
-        <v>200348.4139407361</v>
+        <v>153181.6194726666</v>
       </c>
       <c r="K15" t="n">
-        <v>37906.83271595985</v>
+        <v>17347.27721765111</v>
       </c>
       <c r="L15" t="n">
-        <v>33040.55746450792</v>
+        <v>18595.44906606189</v>
       </c>
       <c r="M15" t="n">
-        <v>226708.8453741252</v>
+        <v>141842.85345572</v>
       </c>
       <c r="N15" t="n">
-        <v>197605.1834618796</v>
+        <v>152048.7350105233</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1831,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.8509894563944</v>
+        <v>109.6857625304654</v>
       </c>
       <c r="R15" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>47.64817220341477</v>
+        <v>22.65694324518156</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1849,28 +1849,28 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>72.21956797360114</v>
+        <v>34.68611350963688</v>
       </c>
       <c r="X15" t="n">
-        <v>35.86774017701591</v>
+        <v>17.34305675481844</v>
       </c>
       <c r="Y15" t="n">
-        <v>-11.78043202639886</v>
+        <v>-5.313886490363117</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.86699718424556</v>
+        <v>15.94388238340121</v>
       </c>
       <c r="AA15" t="n">
-        <v>28.16298619527942</v>
+        <v>15.34759103818534</v>
       </c>
       <c r="AB15" t="n">
-        <v>34.64742921064442</v>
+        <v>21.25776887376433</v>
       </c>
       <c r="AC15" t="n">
-        <v>39.94341822167827</v>
+        <v>20.66147752854845</v>
       </c>
       <c r="AD15" t="n">
-        <v>-5.529727786779404e-10</v>
+        <v>-8.731149137020111e-11</v>
       </c>
     </row>
     <row r="16">
@@ -1878,43 +1878,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.74039578255773</v>
+        <v>4.009491646356423</v>
       </c>
       <c r="C16" t="n">
-        <v>207.5913852389521</v>
+        <v>113.6952541768218</v>
       </c>
       <c r="D16" t="n">
-        <v>202.2211873476733</v>
+        <v>111.6905083536436</v>
       </c>
       <c r="E16" t="n">
-        <v>212.961583130231</v>
+        <v>115.7</v>
       </c>
       <c r="F16" t="n">
-        <v>14.52139686873703</v>
+        <v>4.715665564391145</v>
       </c>
       <c r="G16" t="n">
-        <v>21.09993317275917</v>
+        <v>3.632006118520721</v>
       </c>
       <c r="H16" t="n">
-        <v>17.6168056082001</v>
+        <v>4.15522070914804</v>
       </c>
       <c r="I16" t="n">
-        <v>200348.4139407361</v>
+        <v>153181.6194726666</v>
       </c>
       <c r="J16" t="n">
-        <v>163473.3948854044</v>
+        <v>162809.9161669164</v>
       </c>
       <c r="K16" t="n">
-        <v>33040.55746450792</v>
+        <v>18595.44906606189</v>
       </c>
       <c r="L16" t="n">
-        <v>26959.29551619566</v>
+        <v>19764.27402944336</v>
       </c>
       <c r="M16" t="n">
-        <v>197605.1834618796</v>
+        <v>152048.7350105233</v>
       </c>
       <c r="N16" t="n">
-        <v>161235.0682098339</v>
+        <v>161605.8237637723</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>207.5913852389521</v>
+        <v>113.6952541768218</v>
       </c>
       <c r="R16" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>50.65773215657706</v>
+        <v>22.07761035457402</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1941,28 +1941,28 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>66.3831943917999</v>
+        <v>35.84477929085196</v>
       </c>
       <c r="X16" t="n">
-        <v>33.04092654837697</v>
+        <v>17.92238964542598</v>
       </c>
       <c r="Y16" t="n">
-        <v>-17.6168056082001</v>
+        <v>-4.15522070914804</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.32661261347818</v>
+        <v>16.50625681940041</v>
       </c>
       <c r="AA16" t="n">
-        <v>29.36126438301683</v>
+        <v>16.00596379239214</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.94341822167827</v>
+        <v>20.66147752854845</v>
       </c>
       <c r="AC16" t="n">
-        <v>46.97806999121693</v>
+        <v>20.16118450154018</v>
       </c>
       <c r="AD16" t="n">
-        <v>-3.492459654808044e-10</v>
+        <v>-1.964508555829525e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1970,61 +1970,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.74039578255775</v>
+        <v>4.228571428571428</v>
       </c>
       <c r="C17" t="n">
-        <v>218.3317810215099</v>
+        <v>117.8142857142857</v>
       </c>
       <c r="D17" t="n">
-        <v>212.961583130231</v>
+        <v>115.7</v>
       </c>
       <c r="E17" t="n">
-        <v>223.7019789127887</v>
+        <v>119.9285714285714</v>
       </c>
       <c r="F17" t="n">
-        <v>21.09993317275917</v>
+        <v>3.632006118520721</v>
       </c>
       <c r="G17" t="n">
-        <v>29.41303341423252</v>
+        <v>2.648291578742857</v>
       </c>
       <c r="H17" t="n">
-        <v>25.01342256816848</v>
+        <v>3.119989139393425</v>
       </c>
       <c r="I17" t="n">
-        <v>163473.3948854044</v>
+        <v>162809.9161669164</v>
       </c>
       <c r="J17" t="n">
-        <v>121374.339180751</v>
+        <v>172556.0316997264</v>
       </c>
       <c r="K17" t="n">
-        <v>26959.29551619566</v>
+        <v>19764.27402944336</v>
       </c>
       <c r="L17" t="n">
-        <v>20016.50898820958</v>
+        <v>20947.40158486564</v>
       </c>
       <c r="M17" t="n">
-        <v>161235.0682098339</v>
+        <v>161605.8237637723</v>
       </c>
       <c r="N17" t="n">
-        <v>119712.4453826289</v>
+        <v>171279.8600034439</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.6812982252878483</v>
       </c>
       <c r="Q17" t="n">
-        <v>218.3317810215099</v>
+        <v>117.8142857142857</v>
       </c>
       <c r="R17" t="n">
-        <v>84</v>
+        <v>41.71428571428571</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>54.49896162865568</v>
+        <v>22.34237460734002</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2033,28 +2033,28 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>58.98657743183152</v>
+        <v>38.59429657489228</v>
       </c>
       <c r="X17" t="n">
-        <v>29.4855390604872</v>
+        <v>19.22238546794659</v>
       </c>
       <c r="Y17" t="n">
-        <v>-25.01342256816848</v>
+        <v>-3.119989139393425</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.96464742304845</v>
+        <v>17.04119536214675</v>
       </c>
       <c r="AA17" t="n">
-        <v>31.6904460486558</v>
+        <v>16.58124036601831</v>
       </c>
       <c r="AB17" t="n">
-        <v>46.97806999121693</v>
+        <v>20.16118450154018</v>
       </c>
       <c r="AC17" t="n">
-        <v>56.70386861682428</v>
+        <v>19.70122950541174</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.891748979687691e-10</v>
+        <v>6.693881005048752e-10</v>
       </c>
     </row>
     <row r="18">
@@ -2062,61 +2062,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.74039578255775</v>
+        <v>4.228571428571442</v>
       </c>
       <c r="C18" t="n">
-        <v>229.0721768040676</v>
+        <v>122.0428571428571</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7019789127887</v>
+        <v>119.9285714285714</v>
       </c>
       <c r="E18" t="n">
-        <v>234.4423746953465</v>
+        <v>124.1571428571429</v>
       </c>
       <c r="F18" t="n">
-        <v>29.41303341423252</v>
+        <v>2.648291578742857</v>
       </c>
       <c r="G18" t="n">
-        <v>39.99961494556892</v>
+        <v>1.823964755444393</v>
       </c>
       <c r="H18" t="n">
-        <v>34.37366592323602</v>
+        <v>2.216429024092093</v>
       </c>
       <c r="I18" t="n">
-        <v>121374.339180751</v>
+        <v>172556.0316997264</v>
       </c>
       <c r="J18" t="n">
-        <v>76999.1198049528</v>
+        <v>182060.5872274888</v>
       </c>
       <c r="K18" t="n">
-        <v>20016.50898820958</v>
+        <v>20947.40158486564</v>
       </c>
       <c r="L18" t="n">
-        <v>12698.34780616046</v>
+        <v>22101.20501650778</v>
       </c>
       <c r="M18" t="n">
-        <v>119712.4453826289</v>
+        <v>171279.8600034439</v>
       </c>
       <c r="N18" t="n">
-        <v>75944.82479887128</v>
+        <v>180714.1227420712</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.6812982252878487</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.0721768040676</v>
+        <v>122.0428571428571</v>
       </c>
       <c r="R18" t="n">
-        <v>84</v>
+        <v>45.14285714285714</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>59.42423583911215</v>
+        <v>23.47161781692436</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>49.62633407676398</v>
+        <v>42.92642811876505</v>
       </c>
       <c r="X18" t="n">
-        <v>25.05056991587613</v>
+        <v>21.25518879283227</v>
       </c>
       <c r="Y18" t="n">
-        <v>-34.37366592323602</v>
+        <v>-2.216429024092093</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.33020269358826</v>
+        <v>17.48480048131964</v>
       </c>
       <c r="AA18" t="n">
-        <v>37.51260777616771</v>
+        <v>17.07565067833724</v>
       </c>
       <c r="AB18" t="n">
-        <v>56.70386861682428</v>
+        <v>19.70122950541174</v>
       </c>
       <c r="AC18" t="n">
-        <v>71.88627369940373</v>
+        <v>19.29207970242933</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>3.637978807091713e-11</v>
       </c>
     </row>
     <row r="19">
@@ -2154,61 +2154,61 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.337612477961102</v>
+        <v>4.228571428571442</v>
       </c>
       <c r="C19" t="n">
-        <v>238.6111809343271</v>
+        <v>126.2714285714286</v>
       </c>
       <c r="D19" t="n">
-        <v>234.4423746953465</v>
+        <v>124.1571428571429</v>
       </c>
       <c r="E19" t="n">
-        <v>242.7799871733076</v>
+        <v>128.3857142857143</v>
       </c>
       <c r="F19" t="n">
-        <v>39.99961494556892</v>
+        <v>1.823964755444393</v>
       </c>
       <c r="G19" t="n">
-        <v>50.43654617266478</v>
+        <v>1.155708970922461</v>
       </c>
       <c r="H19" t="n">
-        <v>44.92039688383612</v>
+        <v>1.470507415897131</v>
       </c>
       <c r="I19" t="n">
-        <v>76999.1198049528</v>
+        <v>182060.5872274888</v>
       </c>
       <c r="J19" t="n">
-        <v>43048.61290702577</v>
+        <v>191143.8234326861</v>
       </c>
       <c r="K19" t="n">
-        <v>12698.34780616046</v>
+        <v>22101.20501650778</v>
       </c>
       <c r="L19" t="n">
-        <v>7099.383222183529</v>
+        <v>23203.86248148447</v>
       </c>
       <c r="M19" t="n">
-        <v>75944.82479887128</v>
+        <v>180714.1227420712</v>
       </c>
       <c r="N19" t="n">
-        <v>42459.17840801356</v>
+        <v>189730.182107134</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.6812982252878487</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.6111809343271</v>
+        <v>126.2714285714286</v>
       </c>
       <c r="R19" t="n">
-        <v>84</v>
+        <v>48.57142857142858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>64.85041009437636</v>
+        <v>24.69689762285971</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2217,28 +2217,28 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.07960311616388</v>
+        <v>47.10092115553145</v>
       </c>
       <c r="X19" t="n">
-        <v>19.93001321054024</v>
+        <v>23.22639020696258</v>
       </c>
       <c r="Y19" t="n">
-        <v>-44.92039688383612</v>
+        <v>-1.470507415897131</v>
       </c>
       <c r="Z19" t="n">
-        <v>26.96587681556761</v>
+        <v>17.8215722865322</v>
       </c>
       <c r="AA19" t="n">
-        <v>50.17647007820467</v>
+        <v>17.47954712217678</v>
       </c>
       <c r="AB19" t="n">
-        <v>71.88627369940373</v>
+        <v>19.29207970242933</v>
       </c>
       <c r="AC19" t="n">
-        <v>95.09686696204079</v>
+        <v>18.95005453807391</v>
       </c>
       <c r="AD19" t="n">
-        <v>-2.291926648467779e-10</v>
+        <v>-5.093170329928398e-11</v>
       </c>
     </row>
     <row r="20">
@@ -2246,61 +2246,61 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.337612477961102</v>
+        <v>4.228571428571428</v>
       </c>
       <c r="C20" t="n">
-        <v>246.9487934122882</v>
+        <v>130.5</v>
       </c>
       <c r="D20" t="n">
-        <v>242.7799871733076</v>
+        <v>128.3857142857143</v>
       </c>
       <c r="E20" t="n">
-        <v>251.1175996512687</v>
+        <v>132.6142857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>50.43654617266478</v>
+        <v>1.155708970922461</v>
       </c>
       <c r="G20" t="n">
-        <v>63.97272945919053</v>
+        <v>0.640902811588532</v>
       </c>
       <c r="H20" t="n">
-        <v>56.70352678246132</v>
+        <v>0.8792629304200403</v>
       </c>
       <c r="I20" t="n">
-        <v>43048.61290702577</v>
+        <v>191143.8234326861</v>
       </c>
       <c r="J20" t="n">
-        <v>13627.07479317009</v>
+        <v>199642.0015737264</v>
       </c>
       <c r="K20" t="n">
-        <v>7099.383222183529</v>
+        <v>23203.86248148447</v>
       </c>
       <c r="L20" t="n">
-        <v>2247.315758187477</v>
+        <v>24235.49695120774</v>
       </c>
       <c r="M20" t="n">
-        <v>42459.17840801356</v>
+        <v>189730.182107134</v>
       </c>
       <c r="N20" t="n">
-        <v>13440.48880441682</v>
+        <v>198165.5103187529</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.6812982252878483</v>
       </c>
       <c r="Q20" t="n">
-        <v>246.9487934122882</v>
+        <v>130.5</v>
       </c>
       <c r="R20" t="n">
-        <v>84</v>
+        <v>52.00000000000001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>70.56169899808332</v>
+        <v>26.01311423102661</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2309,28 +2309,28 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>27.29647321753868</v>
+        <v>51.12073706957997</v>
       </c>
       <c r="X20" t="n">
-        <v>13.858172215622</v>
+        <v>25.13385130060657</v>
       </c>
       <c r="Y20" t="n">
-        <v>-56.70352678246132</v>
+        <v>-0.8792629304200403</v>
       </c>
       <c r="Z20" t="n">
-        <v>38.39334017957948</v>
+        <v>18.07079160765387</v>
       </c>
       <c r="AA20" t="n">
-        <v>124.1855323624137</v>
+        <v>17.80771506003937</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.09686696204079</v>
+        <v>18.95005453807391</v>
       </c>
       <c r="AC20" t="n">
-        <v>180.889059144875</v>
+        <v>18.68697799045941</v>
       </c>
       <c r="AD20" t="n">
-        <v>-2.746673999354243e-10</v>
+        <v>-2.983142621815205e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2338,90 +2338,2850 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.339940676379882</v>
+        <v>4.228571428571428</v>
       </c>
       <c r="C21" t="n">
+        <v>134.7285714285715</v>
+      </c>
+      <c r="D21" t="n">
+        <v>132.6142857142857</v>
+      </c>
+      <c r="E21" t="n">
+        <v>136.8428571428572</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.640902811588532</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2775667620801983</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4404008240992709</v>
+      </c>
+      <c r="I21" t="n">
+        <v>199642.0015737264</v>
+      </c>
+      <c r="J21" t="n">
+        <v>207510.2620227552</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24235.49695120774</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25190.66270100275</v>
+      </c>
+      <c r="M21" t="n">
+        <v>198165.5103187529</v>
+      </c>
+      <c r="N21" t="n">
+        <v>205975.5795171768</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6812982252878493</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>134.7285714285715</v>
+      </c>
+      <c r="R21" t="n">
+        <v>55.42857142857144</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27.41675170887492</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>54.98817060447217</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26.97635088477564</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.4404008240992709</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18.24657716636014</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>18.06206011279452</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>18.68697799045941</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>18.50246093689379</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-2.182787284255028e-10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.228571428571428</v>
+      </c>
+      <c r="C22" t="n">
+        <v>138.9571428571429</v>
+      </c>
+      <c r="D22" t="n">
+        <v>136.8428571428572</v>
+      </c>
+      <c r="E22" t="n">
+        <v>141.0714285714286</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2775667620801983</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06432421280725009</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1522470901059449</v>
+      </c>
+      <c r="I22" t="n">
+        <v>207510.2620227552</v>
+      </c>
+      <c r="J22" t="n">
+        <v>214605.9446253926</v>
+      </c>
+      <c r="K22" t="n">
+        <v>25190.66270100275</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26052.04153274849</v>
+      </c>
+      <c r="M22" t="n">
+        <v>205975.5795171768</v>
+      </c>
+      <c r="N22" t="n">
+        <v>213018.7846189463</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6812982252878483</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>138.9571428571429</v>
+      </c>
+      <c r="R22" t="n">
+        <v>58.85714285714286</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>28.90538191576636</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>58.70489576703692</v>
+      </c>
+      <c r="X22" t="n">
+        <v>28.75313482566042</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.1522470901059449</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>18.35021384678785</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>18.252088217638</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18.50246093689379</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>18.40433530774395</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-6.984919309616089e-10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.228571428571428</v>
+      </c>
+      <c r="C23" t="n">
+        <v>143.1857142857143</v>
+      </c>
+      <c r="D23" t="n">
+        <v>141.0714285714286</v>
+      </c>
+      <c r="E23" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06432421280725009</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000375000585933094</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01371591991467369</v>
+      </c>
+      <c r="I23" t="n">
+        <v>214605.9446253926</v>
+      </c>
+      <c r="J23" t="n">
+        <v>220797.117216648</v>
+      </c>
+      <c r="K23" t="n">
+        <v>26052.04153274849</v>
+      </c>
+      <c r="L23" t="n">
+        <v>26803.61757024059</v>
+      </c>
+      <c r="M23" t="n">
+        <v>213018.7846189463</v>
+      </c>
+      <c r="N23" t="n">
+        <v>219164.1691890591</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6812982252878483</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>143.1857142857143</v>
+      </c>
+      <c r="R23" t="n">
+        <v>62.28571428571429</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>30.4773788463628</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>62.27199836579962</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30.46366292644812</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.01371591991467369</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>18.39061938782927</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>18.38484534335448</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>18.40433530774395</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>18.39856126326915</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-3.055902197957039e-10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.116666666666674</v>
+      </c>
+      <c r="C24" t="n">
+        <v>147.3583333333333</v>
+      </c>
+      <c r="D24" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>149.4166666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000375000585933094</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.08130647995052698</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02317613851877809</v>
+      </c>
+      <c r="I24" t="n">
+        <v>220797.117216648</v>
+      </c>
+      <c r="J24" t="n">
+        <v>230286.1690345761</v>
+      </c>
+      <c r="K24" t="n">
+        <v>26803.61757024059</v>
+      </c>
+      <c r="L24" t="n">
+        <v>27955.5389324311</v>
+      </c>
+      <c r="M24" t="n">
+        <v>219164.1691890591</v>
+      </c>
+      <c r="N24" t="n">
+        <v>228583.0428785536</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5296.985515890682</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6806376797732449</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>147.3583333333333</v>
+      </c>
+      <c r="R24" t="n">
+        <v>65.66666666666667</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>32.17337204564281</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>65.64349052814789</v>
+      </c>
+      <c r="X24" t="n">
+        <v>32.15019590712404</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.02317613851877809</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18.37538512475038</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19.06856340581314</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>18.39856126326915</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>19.09173954433192</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-5.820766091346741e-11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.116666666666646</v>
+      </c>
+      <c r="C25" t="n">
+        <v>151.475</v>
+      </c>
+      <c r="D25" t="n">
+        <v>149.4166666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08130647995052698</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3037919471873067</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.17481744224213</v>
+      </c>
+      <c r="I25" t="n">
+        <v>230286.1690345761</v>
+      </c>
+      <c r="J25" t="n">
+        <v>238563.3149072933</v>
+      </c>
+      <c r="K25" t="n">
+        <v>27955.5389324311</v>
+      </c>
+      <c r="L25" t="n">
+        <v>28960.34123846719</v>
+      </c>
+      <c r="M25" t="n">
+        <v>228583.0428785536</v>
+      </c>
+      <c r="N25" t="n">
+        <v>236798.9735089828</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5296.985515890642</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.6806376797732442</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>151.475</v>
+      </c>
+      <c r="R25" t="n">
+        <v>69</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>33.98037580017571</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>68.82518255775787</v>
+      </c>
+      <c r="X25" t="n">
+        <v>33.80555835793358</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.17481744224213</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>18.91692210208979</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19.72414269928987</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.09173954433192</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19.898960141532</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.164153218269348e-10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.116666666666674</v>
+      </c>
+      <c r="C26" t="n">
+        <v>155.5916666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3037919471873067</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6686231538410539</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4683447900840747</v>
+      </c>
+      <c r="I26" t="n">
+        <v>238563.3149072933</v>
+      </c>
+      <c r="J26" t="n">
+        <v>245549.6539186454</v>
+      </c>
+      <c r="K26" t="n">
+        <v>28960.34123846719</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29808.44632895436</v>
+      </c>
+      <c r="M26" t="n">
+        <v>236798.9735089828</v>
+      </c>
+      <c r="N26" t="n">
+        <v>243733.6436912647</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5296.985515890682</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6806376797732449</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>155.5916666666667</v>
+      </c>
+      <c r="R26" t="n">
+        <v>72.33333333333333</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>35.85387153520603</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>71.86498854324925</v>
+      </c>
+      <c r="X26" t="n">
+        <v>35.38552674512196</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.4683447900840747</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19.43061535144793</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.35691671838334</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>19.898960141532</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>20.82526150846742</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.149072527885437e-10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.116666666666674</v>
+      </c>
+      <c r="C27" t="n">
+        <v>159.7083333333333</v>
+      </c>
+      <c r="D27" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6686231538410539</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.177111258441087</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9048072735278083</v>
+      </c>
+      <c r="I27" t="n">
+        <v>245549.6539186454</v>
+      </c>
+      <c r="J27" t="n">
+        <v>251143.2696043364</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29808.44632895436</v>
+      </c>
+      <c r="L27" t="n">
+        <v>30487.4820770844</v>
+      </c>
+      <c r="M27" t="n">
+        <v>243733.6436912647</v>
+      </c>
+      <c r="N27" t="n">
+        <v>249285.8907041388</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5296.985515890682</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6806376797732449</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>159.7083333333333</v>
+      </c>
+      <c r="R27" t="n">
+        <v>75.66666666666667</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>37.79544665568664</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>74.76185939313886</v>
+      </c>
+      <c r="X27" t="n">
+        <v>36.89063938215883</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.9048072735278083</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19.92045423493961</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>20.97431265434898</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20.82526150846742</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>21.87911992787679</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-8.731149137020111e-11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.116666666666646</v>
+      </c>
+      <c r="C28" t="n">
+        <v>163.825</v>
+      </c>
+      <c r="D28" t="n">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>165.8833333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.177111258441087</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.831110740225327</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.485784080558503</v>
+      </c>
+      <c r="I28" t="n">
+        <v>251143.2696043364</v>
+      </c>
+      <c r="J28" t="n">
+        <v>255246.7151902775</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30487.4820770844</v>
+      </c>
+      <c r="L28" t="n">
+        <v>30985.61895311044</v>
+      </c>
+      <c r="M28" t="n">
+        <v>249285.8907041388</v>
+      </c>
+      <c r="N28" t="n">
+        <v>253358.9884600886</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5296.985515890642</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6806376797732442</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>163.825</v>
+      </c>
+      <c r="R28" t="n">
+        <v>79</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>39.80675988444744</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>77.5142159194415</v>
+      </c>
+      <c r="X28" t="n">
+        <v>38.32097580388893</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-1.485784080558503</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>20.39333584731828</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>21.5847236249688</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21.87911992787679</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>23.0705077055273</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.820766091346741e-11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.116666666666674</v>
+      </c>
+      <c r="C29" t="n">
+        <v>167.9416666666667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>165.8833333333333</v>
+      </c>
+      <c r="E29" t="n">
+        <v>170</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.831110740225327</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.633054056944971</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.213413622112483</v>
+      </c>
+      <c r="I29" t="n">
+        <v>255246.7151902775</v>
+      </c>
+      <c r="J29" t="n">
+        <v>257766.3396339125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30985.61895311044</v>
+      </c>
+      <c r="L29" t="n">
+        <v>31291.48820928174</v>
+      </c>
+      <c r="M29" t="n">
+        <v>253358.9884600886</v>
+      </c>
+      <c r="N29" t="n">
+        <v>255859.9785310588</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5296.985515890682</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6806376797732449</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>167.9416666666667</v>
+      </c>
+      <c r="R29" t="n">
+        <v>82.33333333333333</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>41.88960993561306</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>80.11991971122085</v>
+      </c>
+      <c r="X29" t="n">
+        <v>39.67619631350058</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-2.213413622112483</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>20.85709408341481</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>22.19802306094057</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>23.0705077055273</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>24.41143668305305</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-5.820766091346741e-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C30" t="n">
+        <v>172.0138242092296</v>
+      </c>
+      <c r="D30" t="n">
+        <v>170</v>
+      </c>
+      <c r="E30" t="n">
+        <v>174.0276484184592</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.633054056944971</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.563770125899708</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.080141543051639</v>
+      </c>
+      <c r="I30" t="n">
+        <v>257766.3396339125</v>
+      </c>
+      <c r="J30" t="n">
+        <v>255231.8680414693</v>
+      </c>
+      <c r="K30" t="n">
+        <v>31291.48820928174</v>
+      </c>
+      <c r="L30" t="n">
+        <v>30983.81658674044</v>
+      </c>
+      <c r="M30" t="n">
+        <v>255859.9785310588</v>
+      </c>
+      <c r="N30" t="n">
+        <v>253344.2511162573</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>172.0138242092296</v>
+      </c>
+      <c r="R30" t="n">
+        <v>84</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>43.18706120345391</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>80.91985845694836</v>
+      </c>
+      <c r="X30" t="n">
+        <v>40.10691966040228</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-3.080141543051639</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21.33129514000141</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>22.03814062642269</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>24.41143668305305</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>25.11828216947433</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2.837623469531536e-10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.027648418459137</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176.0414726276887</v>
+      </c>
+      <c r="D31" t="n">
+        <v>174.0276484184592</v>
+      </c>
+      <c r="E31" t="n">
+        <v>178.0552968369183</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.563770125899708</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.642523644875027</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.084397180084295</v>
+      </c>
+      <c r="I31" t="n">
+        <v>255231.8680414693</v>
+      </c>
+      <c r="J31" t="n">
+        <v>251225.5982914919</v>
+      </c>
+      <c r="K31" t="n">
+        <v>30983.81658674044</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30497.47634998702</v>
+      </c>
+      <c r="M31" t="n">
+        <v>253344.2511162573</v>
+      </c>
+      <c r="N31" t="n">
+        <v>249367.6105134748</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>176.0414726276887</v>
+      </c>
+      <c r="R31" t="n">
+        <v>84</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>43.70072448624472</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>79.9156028199157</v>
+      </c>
+      <c r="X31" t="n">
+        <v>39.61632730616043</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-4.084397180084295</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21.03388498939004</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>21.86581627664345</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>25.11828216947433</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>25.95021345672774</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.091393642127514e-10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C32" t="n">
+        <v>180.0691210461479</v>
+      </c>
+      <c r="D32" t="n">
+        <v>178.0552968369183</v>
+      </c>
+      <c r="E32" t="n">
+        <v>182.0829452553775</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.642523644875027</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.873512403181891</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.238696639282509</v>
+      </c>
+      <c r="I32" t="n">
+        <v>251225.5982914919</v>
+      </c>
+      <c r="J32" t="n">
+        <v>245787.2542647926</v>
+      </c>
+      <c r="K32" t="n">
+        <v>30497.47634998702</v>
+      </c>
+      <c r="L32" t="n">
+        <v>29837.28977081162</v>
+      </c>
+      <c r="M32" t="n">
+        <v>249367.6105134748</v>
+      </c>
+      <c r="N32" t="n">
+        <v>243969.4868178364</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>180.0691210461479</v>
+      </c>
+      <c r="R32" t="n">
+        <v>84</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>44.29150838722049</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>78.76130336071749</v>
+      </c>
+      <c r="X32" t="n">
+        <v>39.05281174793798</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-5.238696639282509</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>20.71151681744523</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21.667812399406</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>25.95021345672774</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>26.90650903868851</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-4.001776687800884e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C33" t="n">
+        <v>184.0967694646071</v>
+      </c>
+      <c r="D33" t="n">
+        <v>182.0829452553775</v>
+      </c>
+      <c r="E33" t="n">
+        <v>186.1105936738366</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.873512403181891</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.261723058294422</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.54761960438482</v>
+      </c>
+      <c r="I33" t="n">
+        <v>245787.2542647926</v>
+      </c>
+      <c r="J33" t="n">
+        <v>238981.3413216767</v>
+      </c>
+      <c r="K33" t="n">
+        <v>29837.28977081162</v>
+      </c>
+      <c r="L33" t="n">
+        <v>29011.08746326684</v>
+      </c>
+      <c r="M33" t="n">
+        <v>243969.4868178364</v>
+      </c>
+      <c r="N33" t="n">
+        <v>237213.9083277083</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>184.0967694646071</v>
+      </c>
+      <c r="R33" t="n">
+        <v>84</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>44.96193838809383</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>77.45238039561518</v>
+      </c>
+      <c r="X33" t="n">
+        <v>38.41431878370901</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-6.54761960438482</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>20.35888943430369</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21.43827961044553</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26.90650903868851</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>27.98589921483035</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-1.673470251262188e-10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C34" t="n">
+        <v>188.1244178830662</v>
+      </c>
+      <c r="D34" t="n">
+        <v>186.1105936738366</v>
+      </c>
+      <c r="E34" t="n">
+        <v>190.1382420922958</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.261723058294422</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.813044376521873</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.016587914786768</v>
+      </c>
+      <c r="I34" t="n">
+        <v>238981.3413216767</v>
+      </c>
+      <c r="J34" t="n">
+        <v>230854.9331531558</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29011.08746326684</v>
+      </c>
+      <c r="L34" t="n">
+        <v>28024.58392773839</v>
+      </c>
+      <c r="M34" t="n">
+        <v>237213.9083277083</v>
+      </c>
+      <c r="N34" t="n">
+        <v>229147.6005914641</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>188.1244178830662</v>
+      </c>
+      <c r="R34" t="n">
+        <v>84</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>45.7150209015348</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>75.98341208521323</v>
+      </c>
+      <c r="X34" t="n">
+        <v>37.69843298674803</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-8.016587914786768</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>19.96931130004358</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>21.17350643606788</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27.98589921483035</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>29.19009435085465</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-7.275957614183426e-11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.027648418459137</v>
+      </c>
+      <c r="C35" t="n">
+        <v>192.1520663015254</v>
+      </c>
+      <c r="D35" t="n">
+        <v>190.1382420922958</v>
+      </c>
+      <c r="E35" t="n">
+        <v>194.1658905107549</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.813044376521873</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.53441083936717</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.651993024357012</v>
+      </c>
+      <c r="I35" t="n">
+        <v>230854.9331531558</v>
+      </c>
+      <c r="J35" t="n">
+        <v>221459.9233508941</v>
+      </c>
+      <c r="K35" t="n">
+        <v>28024.58392773839</v>
+      </c>
+      <c r="L35" t="n">
+        <v>26884.0787753935</v>
+      </c>
+      <c r="M35" t="n">
+        <v>229147.6005914641</v>
+      </c>
+      <c r="N35" t="n">
+        <v>219822.0734116169</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>192.1520663015254</v>
+      </c>
+      <c r="R35" t="n">
+        <v>84</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>46.55432349078631</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>74.34800697564299</v>
+      </c>
+      <c r="X35" t="n">
+        <v>36.9023304664293</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-9.651993024357012</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>19.53810132649764</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>20.86999436465773</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29.19009435085465</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>30.52198738901474</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.619344741106033e-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C36" t="n">
+        <v>196.1797147199845</v>
+      </c>
+      <c r="D36" t="n">
+        <v>194.1658905107549</v>
+      </c>
+      <c r="E36" t="n">
+        <v>198.1935389292141</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.53441083936717</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.43398577531013</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.46135802774664</v>
+      </c>
+      <c r="I36" t="n">
+        <v>221459.9233508941</v>
+      </c>
+      <c r="J36" t="n">
+        <v>210853.9398031413</v>
+      </c>
+      <c r="K36" t="n">
+        <v>26884.0787753935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>25596.5677310745</v>
+      </c>
+      <c r="M36" t="n">
+        <v>219822.0734116169</v>
+      </c>
+      <c r="N36" t="n">
+        <v>209294.5284781598</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>196.1797147199845</v>
+      </c>
+      <c r="R36" t="n">
+        <v>84</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>47.48407877153981</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>72.53864197225336</v>
+      </c>
+      <c r="X36" t="n">
+        <v>36.02272074379317</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-11.46135802774664</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19.0606293612681</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>20.5243486029464</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>30.52198738901474</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>31.98570663069304</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.619344741106033e-10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C37" t="n">
+        <v>200.2073631384437</v>
+      </c>
+      <c r="D37" t="n">
+        <v>198.1935389292141</v>
+      </c>
+      <c r="E37" t="n">
+        <v>202.2211873476733</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.43398577531013</v>
+      </c>
+      <c r="G37" t="n">
+        <v>14.52139686873703</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13.45354508337684</v>
+      </c>
+      <c r="I37" t="n">
+        <v>210853.9398031413</v>
+      </c>
+      <c r="J37" t="n">
+        <v>199101.483360557</v>
+      </c>
+      <c r="K37" t="n">
+        <v>25596.5677310745</v>
+      </c>
+      <c r="L37" t="n">
+        <v>24169.88086138657</v>
+      </c>
+      <c r="M37" t="n">
+        <v>209294.5284781598</v>
+      </c>
+      <c r="N37" t="n">
+        <v>197628.9896131651</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>200.2073631384437</v>
+      </c>
+      <c r="R37" t="n">
+        <v>84</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>48.50932041657803</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>70.54645491662316</v>
+      </c>
+      <c r="X37" t="n">
+        <v>35.05577533320119</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-13.45354508337684</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18.5321615473162</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>20.13318440527235</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>31.98570663069304</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>33.58672948864918</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>8.949427865445614e-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.027648418459137</v>
+      </c>
+      <c r="C38" t="n">
+        <v>204.2350115569028</v>
+      </c>
+      <c r="D38" t="n">
+        <v>202.2211873476733</v>
+      </c>
+      <c r="E38" t="n">
+        <v>206.2488357661324</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.52139686873703</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16.80804238074877</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15.63902354877284</v>
+      </c>
+      <c r="I38" t="n">
+        <v>199101.483360557</v>
+      </c>
+      <c r="J38" t="n">
+        <v>186275.3668722066</v>
+      </c>
+      <c r="K38" t="n">
+        <v>24169.88086138657</v>
+      </c>
+      <c r="L38" t="n">
+        <v>22612.8572661565</v>
+      </c>
+      <c r="M38" t="n">
+        <v>197628.9896131651</v>
+      </c>
+      <c r="N38" t="n">
+        <v>184897.7311641103</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>204.2350115569028</v>
+      </c>
+      <c r="R38" t="n">
+        <v>84</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>49.63606368927006</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>68.36097645122716</v>
+      </c>
+      <c r="X38" t="n">
+        <v>33.99704014049722</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-15.63902354877284</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17.94770593987634</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>19.693044249177</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>33.58672948864918</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>35.33206779794984</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-1.309672370553017e-10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C39" t="n">
+        <v>208.262659975362</v>
+      </c>
+      <c r="D39" t="n">
+        <v>206.2488357661324</v>
+      </c>
+      <c r="E39" t="n">
+        <v>210.2764841845916</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16.80804238074877</v>
+      </c>
+      <c r="G39" t="n">
+        <v>19.3074947550774</v>
+      </c>
+      <c r="H39" t="n">
+        <v>18.03022088460851</v>
+      </c>
+      <c r="I39" t="n">
+        <v>186275.3668722066</v>
+      </c>
+      <c r="J39" t="n">
+        <v>172461.1155774424</v>
+      </c>
+      <c r="K39" t="n">
+        <v>22612.8572661565</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20935.87926303906</v>
+      </c>
+      <c r="M39" t="n">
+        <v>184897.7311641103</v>
+      </c>
+      <c r="N39" t="n">
+        <v>171185.6458518044</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>208.262659975362</v>
+      </c>
+      <c r="R39" t="n">
+        <v>84</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>50.87154931840715</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>65.96977911539149</v>
+      </c>
+      <c r="X39" t="n">
+        <v>32.84132843379864</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-18.03022088460851</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17.30184691334133</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>19.20004287026958</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>35.33206779794984</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>37.2302637548781</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-7.275957614183426e-10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C40" t="n">
+        <v>212.2903083938211</v>
+      </c>
+      <c r="D40" t="n">
+        <v>210.2764841845916</v>
+      </c>
+      <c r="E40" t="n">
+        <v>214.3041326030507</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19.3074947550774</v>
+      </c>
+      <c r="G40" t="n">
+        <v>22.03604130018653</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20.64198876655972</v>
+      </c>
+      <c r="I40" t="n">
+        <v>172461.1155774424</v>
+      </c>
+      <c r="J40" t="n">
+        <v>157792.3258637912</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20935.87926303906</v>
+      </c>
+      <c r="L40" t="n">
+        <v>19155.16475616805</v>
+      </c>
+      <c r="M40" t="n">
+        <v>171185.6458518044</v>
+      </c>
+      <c r="N40" t="n">
+        <v>156625.3420257045</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>212.2903083938211</v>
+      </c>
+      <c r="R40" t="n">
+        <v>84</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>52.22458006874904</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>63.35801123344028</v>
+      </c>
+      <c r="X40" t="n">
+        <v>31.58259130218932</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-20.64198876655972</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>16.58827498831837</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>18.64583881950917</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>37.2302637548781</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>39.28782758606889</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.275957614183426e-11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.027648418459137</v>
+      </c>
+      <c r="C41" t="n">
+        <v>216.3179568122803</v>
+      </c>
+      <c r="D41" t="n">
+        <v>214.3041326030507</v>
+      </c>
+      <c r="E41" t="n">
+        <v>218.3317810215099</v>
+      </c>
+      <c r="F41" t="n">
+        <v>22.03604130018653</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.01342256816848</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23.49223328601101</v>
+      </c>
+      <c r="I41" t="n">
+        <v>157792.3258637912</v>
+      </c>
+      <c r="J41" t="n">
+        <v>142383.6255441431</v>
+      </c>
+      <c r="K41" t="n">
+        <v>19155.16475616805</v>
+      </c>
+      <c r="L41" t="n">
+        <v>17284.6289637236</v>
+      </c>
+      <c r="M41" t="n">
+        <v>156625.3420257045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>141330.5997464143</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>216.3179568122803</v>
+      </c>
+      <c r="R41" t="n">
+        <v>84</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>53.7059974721163</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>60.50776671398899</v>
+      </c>
+      <c r="X41" t="n">
+        <v>30.21376418610529</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-23.49223328601101</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>15.79559430005787</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18.02421912232005</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>39.28782758606889</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>41.51645240833106</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-5.675246939063072e-10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C42" t="n">
+        <v>220.3456052307395</v>
+      </c>
+      <c r="D42" t="n">
+        <v>218.3317810215099</v>
+      </c>
+      <c r="E42" t="n">
+        <v>222.359429439969</v>
+      </c>
+      <c r="F42" t="n">
+        <v>25.01342256816848</v>
+      </c>
+      <c r="G42" t="n">
+        <v>28.26386384459802</v>
+      </c>
+      <c r="H42" t="n">
+        <v>26.60278498577398</v>
+      </c>
+      <c r="I42" t="n">
+        <v>142383.6255441431</v>
+      </c>
+      <c r="J42" t="n">
+        <v>126370.7981802917</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17284.6289637236</v>
+      </c>
+      <c r="L42" t="n">
+        <v>15340.75530137945</v>
+      </c>
+      <c r="M42" t="n">
+        <v>141330.5997464143</v>
+      </c>
+      <c r="N42" t="n">
+        <v>125436.1983619848</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>220.3456052307395</v>
+      </c>
+      <c r="R42" t="n">
+        <v>84</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>55.32937878385028</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>57.39721501422602</v>
+      </c>
+      <c r="X42" t="n">
+        <v>28.7265937980763</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-26.60278498577398</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>14.91366742255708</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17.32720999439771</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>41.51645240833106</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>43.92999498017168</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4.911271389573812e-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C43" t="n">
+        <v>224.3732536491986</v>
+      </c>
+      <c r="D43" t="n">
+        <v>222.359429439969</v>
+      </c>
+      <c r="E43" t="n">
+        <v>226.3870778584282</v>
+      </c>
+      <c r="F43" t="n">
+        <v>28.26386384459802</v>
+      </c>
+      <c r="G43" t="n">
+        <v>31.8175552750654</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.00062997364937</v>
+      </c>
+      <c r="I43" t="n">
+        <v>126370.7981802917</v>
+      </c>
+      <c r="J43" t="n">
+        <v>109917.2460383836</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15340.75530137945</v>
+      </c>
+      <c r="L43" t="n">
+        <v>13343.37995136078</v>
+      </c>
+      <c r="M43" t="n">
+        <v>125436.1983619848</v>
+      </c>
+      <c r="N43" t="n">
+        <v>109104.3316653202</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>224.3732536491986</v>
+      </c>
+      <c r="R43" t="n">
+        <v>84</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>57.11209625315113</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>53.99937002635063</v>
+      </c>
+      <c r="X43" t="n">
+        <v>27.11146627950176</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-30.00062997364937</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>13.92936500652232</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>16.54390224894387</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>43.92999498017168</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>46.54453222259323</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-2.546585164964199e-11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.027648418459137</v>
+      </c>
+      <c r="C44" t="n">
+        <v>228.4009020676578</v>
+      </c>
+      <c r="D44" t="n">
+        <v>226.3870778584282</v>
+      </c>
+      <c r="E44" t="n">
+        <v>230.4147262768873</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31.8175552750654</v>
+      </c>
+      <c r="G44" t="n">
+        <v>35.71284478021333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>33.71970367284916</v>
+      </c>
+      <c r="I44" t="n">
+        <v>109917.2460383836</v>
+      </c>
+      <c r="J44" t="n">
+        <v>93223.32652384539</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13343.37995136078</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11316.82525691243</v>
+      </c>
+      <c r="M44" t="n">
+        <v>109104.3316653202</v>
+      </c>
+      <c r="N44" t="n">
+        <v>92533.8752796834</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>228.4009020676578</v>
+      </c>
+      <c r="R44" t="n">
+        <v>84</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>59.07700694729628</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>50.28029632715084</v>
+      </c>
+      <c r="X44" t="n">
+        <v>25.35730327444712</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-33.71970367284916</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>12.82482854974407</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>15.65811073529364</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>46.54453222259323</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>49.3778144081428</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-5.456968210637569e-11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.027648418459165</v>
+      </c>
+      <c r="C45" t="n">
+        <v>232.4285504861169</v>
+      </c>
+      <c r="D45" t="n">
+        <v>230.4147262768873</v>
+      </c>
+      <c r="E45" t="n">
+        <v>234.4423746953465</v>
+      </c>
+      <c r="F45" t="n">
+        <v>35.71284478021333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>39.99961494556892</v>
+      </c>
+      <c r="H45" t="n">
+        <v>37.80359764626859</v>
+      </c>
+      <c r="I45" t="n">
+        <v>93223.32652384539</v>
+      </c>
+      <c r="J45" t="n">
+        <v>76540.33843123008</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11316.82525691243</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9291.597580028514</v>
+      </c>
+      <c r="M45" t="n">
+        <v>92533.8752796834</v>
+      </c>
+      <c r="N45" t="n">
+        <v>75974.26947051247</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>232.4285504861169</v>
+      </c>
+      <c r="R45" t="n">
+        <v>84</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>61.255319878409</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>46.19640235373141</v>
+      </c>
+      <c r="X45" t="n">
+        <v>23.45172223214041</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-37.80359764626859</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>11.57421676187422</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>14.64323222690748</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>49.3778144081428</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>52.44682987317606</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-2.728484105318785e-10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.168806238980551</v>
+      </c>
+      <c r="C46" t="n">
+        <v>236.5267778148368</v>
+      </c>
+      <c r="D46" t="n">
+        <v>234.4423746953465</v>
+      </c>
+      <c r="E46" t="n">
+        <v>238.6111809343271</v>
+      </c>
+      <c r="F46" t="n">
+        <v>39.99961494556892</v>
+      </c>
+      <c r="G46" t="n">
+        <v>44.92039688383612</v>
+      </c>
+      <c r="H46" t="n">
+        <v>42.39298393293618</v>
+      </c>
+      <c r="I46" t="n">
+        <v>76540.33843123008</v>
+      </c>
+      <c r="J46" t="n">
+        <v>59208.54707938838</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9291.597580028514</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7187.608573930474</v>
+      </c>
+      <c r="M46" t="n">
+        <v>75974.26947051247</v>
+      </c>
+      <c r="N46" t="n">
+        <v>58770.65875281739</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>236.5267778148368</v>
+      </c>
+      <c r="R46" t="n">
+        <v>84</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>63.61258427904859</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>41.60701606706382</v>
+      </c>
+      <c r="X46" t="n">
+        <v>21.21960034611241</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-42.39298393293618</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>10.05384594023989</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>13.58131636315161</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>52.44682987317606</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>55.97430029608779</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.600710675120354e-10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.168806238980551</v>
+      </c>
+      <c r="C47" t="n">
+        <v>240.6955840538173</v>
+      </c>
+      <c r="D47" t="n">
+        <v>238.6111809343271</v>
+      </c>
+      <c r="E47" t="n">
+        <v>242.7799871733076</v>
+      </c>
+      <c r="F47" t="n">
+        <v>44.92039688383612</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50.43654617266478</v>
+      </c>
+      <c r="H47" t="n">
+        <v>47.59588967055267</v>
+      </c>
+      <c r="I47" t="n">
+        <v>59208.54707938838</v>
+      </c>
+      <c r="J47" t="n">
+        <v>42357.71223891796</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7187.608573930474</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5142.005177940121</v>
+      </c>
+      <c r="M47" t="n">
+        <v>58770.65875281739</v>
+      </c>
+      <c r="N47" t="n">
+        <v>42044.44753906295</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>240.6955840538173</v>
+      </c>
+      <c r="R47" t="n">
+        <v>84</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>66.15701530926749</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>36.40411032944733</v>
+      </c>
+      <c r="X47" t="n">
+        <v>18.56112563871483</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-47.59588967055267</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.378410625535125</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>12.32278285139671</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>55.97430029608779</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>59.91867252194938</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>9.640643838793039e-11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.168806238980551</v>
+      </c>
+      <c r="C48" t="n">
+        <v>244.8643902927979</v>
+      </c>
+      <c r="D48" t="n">
+        <v>242.7799871733076</v>
+      </c>
+      <c r="E48" t="n">
+        <v>246.9487934122882</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50.43654617266478</v>
+      </c>
+      <c r="G48" t="n">
+        <v>56.70352678246132</v>
+      </c>
+      <c r="H48" t="n">
+        <v>53.46351713948401</v>
+      </c>
+      <c r="I48" t="n">
+        <v>42357.71223891796</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26550.21126481109</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5142.005177940121</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3223.057067601209</v>
+      </c>
+      <c r="M48" t="n">
+        <v>42044.44753906295</v>
+      </c>
+      <c r="N48" t="n">
+        <v>26353.85401312468</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>244.8643902927979</v>
+      </c>
+      <c r="R48" t="n">
+        <v>84</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>69.00441520465753</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>30.53648286051599</v>
+      </c>
+      <c r="X48" t="n">
+        <v>15.54089806517352</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-53.46351713948401</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.455155382465364</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10.96005174537487</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>59.91867252194938</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>64.42356888485888</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.39152689371258e-10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.168806238980551</v>
+      </c>
+      <c r="C49" t="n">
+        <v>249.0331965317784</v>
+      </c>
+      <c r="D49" t="n">
+        <v>246.9487934122882</v>
+      </c>
+      <c r="E49" t="n">
+        <v>251.1175996512687</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56.70352678246132</v>
+      </c>
+      <c r="G49" t="n">
+        <v>63.97272945919053</v>
+      </c>
+      <c r="H49" t="n">
+        <v>60.19118777821812</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26550.21126481109</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12693.73441211637</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3223.057067601209</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1540.953102149089</v>
+      </c>
+      <c r="M49" t="n">
+        <v>26353.85401312468</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12599.85543021523</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>249.0331965317784</v>
+      </c>
+      <c r="R49" t="n">
+        <v>84</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>72.22018468478032</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>23.80881222178188</v>
+      </c>
+      <c r="X49" t="n">
+        <v>12.0289969065622</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-60.19118777821812</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>4.232381106640759</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>9.640560730572886</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>64.42356888485888</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>69.83174850879101</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-1.637090463191271e-11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.169970338189927</v>
+      </c>
+      <c r="C50" t="n">
+        <v>253.2025848203637</v>
+      </c>
+      <c r="D50" t="n">
+        <v>251.1175996512687</v>
+      </c>
+      <c r="E50" t="n">
         <v>255.2875699894586</v>
       </c>
-      <c r="D21" t="n">
-        <v>251.1175996512687</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="F50" t="n">
+        <v>63.97272945919053</v>
+      </c>
+      <c r="G50" t="n">
+        <v>72.7067456626184</v>
+      </c>
+      <c r="H50" t="n">
+        <v>68.11357944324922</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12693.73441211637</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2704.441156440498</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1540.953102149089</v>
+      </c>
+      <c r="L50" t="n">
+        <v>328.3050404472612</v>
+      </c>
+      <c r="M50" t="n">
+        <v>12599.85543021523</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2684.43993582761</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>253.2025848203637</v>
+      </c>
+      <c r="R50" t="n">
+        <v>84</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>76.05678972162461</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>15.88642055675078</v>
+      </c>
+      <c r="X50" t="n">
+        <v>7.943210278375389</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-68.11357944324922</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.718169065541787</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>9.516345288292726</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>69.83174850879101</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>77.62992473154195</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-4.206412995699793e-12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.169970338189955</v>
+      </c>
+      <c r="C51" t="n">
+        <v>257.3725551585536</v>
+      </c>
+      <c r="D51" t="n">
+        <v>255.2875699894586</v>
+      </c>
+      <c r="E51" t="n">
         <v>259.4575403276486</v>
       </c>
-      <c r="F21" t="n">
-        <v>63.97272945919053</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F51" t="n">
+        <v>72.7067456626184</v>
+      </c>
+      <c r="G51" t="n">
         <v>83.95181749179723</v>
       </c>
-      <c r="H21" t="n">
-        <v>72.7067456626184</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13627.07479317009</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2247.315758187477</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13440.48880441682</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>255.2875699894586</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="H51" t="n">
+        <v>77.90001369195201</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2704.441156440498</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>328.3050404472612</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2684.43993582761</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>257.3725551585536</v>
+      </c>
+      <c r="R51" t="n">
         <v>84</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>78.3533728313092</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>38.39334017957948</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>124.1855323624137</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>180.889059144875</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>80.95000684597601</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.718169065541787</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>9.516345288292726</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>77.62992473154195</v>
+      </c>
+      <c r="AC51" t="n">
         <v>83.95181749179723</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/thrust_calc_results_center_base.xlsx
+++ b/thrust_calc_results_center_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,61 +590,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.00949164635643</v>
+        <v>7.84294098461892</v>
       </c>
       <c r="C2" t="n">
-        <v>57.56237112783171</v>
+        <v>-27.45029344616621</v>
       </c>
       <c r="D2" t="n">
-        <v>55.5576253046535</v>
+        <v>-31.37176393847567</v>
       </c>
       <c r="E2" t="n">
-        <v>59.56711695100993</v>
+        <v>-23.52882295385675</v>
       </c>
       <c r="F2" t="n">
-        <v>39.99961494556892</v>
+        <v>226.9606994594122</v>
       </c>
       <c r="G2" t="n">
-        <v>35.73124841355734</v>
+        <v>223.3239621874805</v>
       </c>
       <c r="H2" t="n">
-        <v>37.81325497859791</v>
+        <v>225.1083437052225</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5101.265628877664</v>
+        <v>19421.19192501702</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>619.2670210747668</v>
+        <v>1547.671640628224</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5063.538226672908</v>
+        <v>19359.42685828125</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>36704.96380801655</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>57.56237112783171</v>
+        <v>-27.45029344616621</v>
       </c>
       <c r="R2" t="n">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>38.90662748929896</v>
+        <v>226.0541718526112</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -653,28 +653,28 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.186745021402089</v>
+        <v>1.891656294777533</v>
       </c>
       <c r="X2" t="n">
-        <v>1.093372510701045</v>
+        <v>0.9458281473887666</v>
       </c>
       <c r="Y2" t="n">
-        <v>-37.81325497859791</v>
+        <v>-225.1083437052225</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.186359966971011</v>
+        <v>1.852355754189773</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2451789476757611</v>
+        <v>0.3134983651601146</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.99961494556892</v>
+        <v>226.9606994594122</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.05843392627367</v>
+        <v>225.4218420703826</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>2.346496330574155e-10</v>
       </c>
     </row>
     <row r="3">
@@ -682,61 +682,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.009491646356437</v>
+        <v>7.842940984618917</v>
       </c>
       <c r="C3" t="n">
-        <v>61.57186277418815</v>
+        <v>-19.60735246154729</v>
       </c>
       <c r="D3" t="n">
-        <v>59.56711695100993</v>
+        <v>-23.52882295385675</v>
       </c>
       <c r="E3" t="n">
-        <v>63.57660859736637</v>
+        <v>-15.68588196923784</v>
       </c>
       <c r="F3" t="n">
-        <v>35.73124841355734</v>
+        <v>223.3239621874805</v>
       </c>
       <c r="G3" t="n">
-        <v>31.85108433739228</v>
+        <v>219.9539739382121</v>
       </c>
       <c r="H3" t="n">
-        <v>33.74603824153289</v>
+        <v>221.6062478482335</v>
       </c>
       <c r="I3" t="n">
-        <v>5101.265628877664</v>
+        <v>19421.19192501702</v>
       </c>
       <c r="J3" t="n">
-        <v>13022.41570242318</v>
+        <v>39454.24268802753</v>
       </c>
       <c r="K3" t="n">
-        <v>619.2670210747668</v>
+        <v>1547.671640628224</v>
       </c>
       <c r="L3" t="n">
-        <v>1580.853295226487</v>
+        <v>3144.102213009265</v>
       </c>
       <c r="M3" t="n">
-        <v>5063.538226672908</v>
+        <v>19359.42685828125</v>
       </c>
       <c r="N3" t="n">
-        <v>12926.10589410784</v>
+        <v>39328.76666461744</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>36704.96380801653</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.57186277418815</v>
+        <v>-19.60735246154729</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>36.87301912076644</v>
+        <v>224.3031239241168</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.253961758467113</v>
+        <v>5.393752151766478</v>
       </c>
       <c r="X3" t="n">
-        <v>3.126980879233557</v>
+        <v>2.696876075883239</v>
       </c>
       <c r="Y3" t="n">
-        <v>-33.74603824153289</v>
+        <v>-221.6062478482335</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.312395684740785</v>
+        <v>3.815594222149059</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.030515812560601</v>
+        <v>2.346027547088369</v>
       </c>
       <c r="AB3" t="n">
-        <v>38.05843392627367</v>
+        <v>225.4218420703826</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.77655405409349</v>
+        <v>223.9522753953219</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.864464138634503e-11</v>
+        <v>-4.747562343254685e-10</v>
       </c>
     </row>
     <row r="4">
@@ -774,61 +774,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00949164635643</v>
+        <v>7.842940984618917</v>
       </c>
       <c r="C4" t="n">
-        <v>65.58135442054459</v>
+        <v>-11.76441147692838</v>
       </c>
       <c r="D4" t="n">
-        <v>63.57660859736637</v>
+        <v>-15.68588196923784</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5861002437228</v>
+        <v>-7.84294098461892</v>
       </c>
       <c r="F4" t="n">
-        <v>31.85108433739228</v>
+        <v>219.9539739382121</v>
       </c>
       <c r="G4" t="n">
-        <v>28.30982536539118</v>
+        <v>216.8412104846682</v>
       </c>
       <c r="H4" t="n">
-        <v>30.04068289318306</v>
+        <v>218.3659886888378</v>
       </c>
       <c r="I4" t="n">
-        <v>13022.41570242318</v>
+        <v>39454.24268802753</v>
       </c>
       <c r="J4" t="n">
-        <v>22862.59797774188</v>
+        <v>59734.36670565528</v>
       </c>
       <c r="K4" t="n">
-        <v>1580.853295226487</v>
+        <v>3144.102213009265</v>
       </c>
       <c r="L4" t="n">
-        <v>2775.400062204001</v>
+        <v>4760.222013054869</v>
       </c>
       <c r="M4" t="n">
-        <v>12926.10589410784</v>
+        <v>39328.76666461744</v>
       </c>
       <c r="N4" t="n">
-        <v>22693.51318739707</v>
+        <v>59544.39396040677</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>36704.96380801653</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.58135442054459</v>
+        <v>-11.76441147692838</v>
       </c>
       <c r="R4" t="n">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>35.02034144659153</v>
+        <v>222.6829943444189</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -837,28 +837,28 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>9.95931710681694</v>
+        <v>8.634011311162169</v>
       </c>
       <c r="X4" t="n">
-        <v>4.97965855340847</v>
+        <v>4.317005655581085</v>
       </c>
       <c r="Y4" t="n">
-        <v>-30.04068289318306</v>
+        <v>-218.3659886888378</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.735871160910428</v>
+        <v>5.58628670648406</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.651953668854041</v>
+        <v>4.21027613081128</v>
       </c>
       <c r="AB4" t="n">
-        <v>35.77655405409349</v>
+        <v>223.9522753953219</v>
       </c>
       <c r="AC4" t="n">
-        <v>33.6926365620371</v>
+        <v>222.5762648196491</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.819433575496078e-11</v>
+        <v>8.403731044381857e-10</v>
       </c>
     </row>
     <row r="5">
@@ -866,61 +866,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.009491646356437</v>
+        <v>7.84294098461892</v>
       </c>
       <c r="C5" t="n">
-        <v>69.59084606690101</v>
+        <v>-3.92147049230946</v>
       </c>
       <c r="D5" t="n">
-        <v>67.5861002437228</v>
+        <v>-7.84294098461892</v>
       </c>
       <c r="E5" t="n">
-        <v>71.59559189007923</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>28.30982536539118</v>
+        <v>216.8412104846682</v>
       </c>
       <c r="G5" t="n">
-        <v>25.0695366595517</v>
+        <v>213.9772736302236</v>
       </c>
       <c r="H5" t="n">
-        <v>26.65408684310715</v>
+        <v>215.3786234825008</v>
       </c>
       <c r="I5" t="n">
-        <v>22862.59797774188</v>
+        <v>59734.36670565528</v>
       </c>
       <c r="J5" t="n">
-        <v>33994.12361882484</v>
+        <v>79944.54567464307</v>
       </c>
       <c r="K5" t="n">
-        <v>2775.400062204001</v>
+        <v>4760.222013054869</v>
       </c>
       <c r="L5" t="n">
-        <v>4126.709173564166</v>
+        <v>6370.767903496963</v>
       </c>
       <c r="M5" t="n">
-        <v>22693.51318739707</v>
+        <v>59544.39396040677</v>
       </c>
       <c r="N5" t="n">
-        <v>33742.71346541007</v>
+        <v>79690.29865325431</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>36704.96380801655</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.59084606690101</v>
+        <v>-3.92147049230946</v>
       </c>
       <c r="R5" t="n">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>33.32704342155358</v>
+        <v>221.1893117412503</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -929,28 +929,28 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>13.34591315689285</v>
+        <v>11.62137651749924</v>
       </c>
       <c r="X5" t="n">
-        <v>6.672956578446424</v>
+        <v>5.810688258749593</v>
       </c>
       <c r="Y5" t="n">
-        <v>-26.65408684310715</v>
+        <v>-215.3786234825008</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.03854971892995</v>
+        <v>7.197641337148355</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.143818552296842</v>
+        <v>5.925803364441748</v>
       </c>
       <c r="AB5" t="n">
-        <v>33.6926365620371</v>
+        <v>222.5762648196491</v>
       </c>
       <c r="AC5" t="n">
-        <v>31.79790539540399</v>
+        <v>221.3044268469425</v>
       </c>
       <c r="AD5" t="n">
-        <v>-6.548361852765083e-11</v>
+        <v>-6.293703336268663e-10</v>
       </c>
     </row>
     <row r="6">
@@ -958,91 +958,91 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C6" t="n">
-        <v>73.60033771325746</v>
+        <v>3.629032258064516</v>
       </c>
       <c r="D6" t="n">
-        <v>71.59559189007923</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>75.60508353643567</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="F6" t="n">
-        <v>25.0695366595517</v>
+        <v>213.9772736302236</v>
       </c>
       <c r="G6" t="n">
-        <v>22.10032906584962</v>
+        <v>211.5421462280746</v>
       </c>
       <c r="H6" t="n">
-        <v>23.55266605375184</v>
+        <v>212.7342056970882</v>
       </c>
       <c r="I6" t="n">
-        <v>33994.12361882484</v>
+        <v>79944.54567464307</v>
       </c>
       <c r="J6" t="n">
-        <v>45960.71807752333</v>
+        <v>110457.017661432</v>
       </c>
       <c r="K6" t="n">
-        <v>4126.709173564166</v>
+        <v>6370.767903496963</v>
       </c>
       <c r="L6" t="n">
-        <v>5579.391280705962</v>
+        <v>8802.301856806318</v>
       </c>
       <c r="M6" t="n">
-        <v>33742.71346541007</v>
+        <v>79690.29865325431</v>
       </c>
       <c r="N6" t="n">
-        <v>45620.80664716881</v>
+        <v>110105.7320609584</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>35227.6415098154</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.3217505543966442</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.60033771325746</v>
+        <v>3.609201480698043</v>
       </c>
       <c r="R6" t="n">
-        <v>40</v>
+        <v>228.2030671602327</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>31.77633302687591</v>
+        <v>220.4809960667045</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.01983077736647276</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44733394624816</v>
+        <v>15.46886146314446</v>
       </c>
       <c r="X6" t="n">
-        <v>8.223666973124079</v>
+        <v>7.746790369616321</v>
       </c>
       <c r="Y6" t="n">
-        <v>-23.55266605375184</v>
+        <v>-212.7342056970882</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.245239341652159</v>
+        <v>8.570221149854291</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.524983549860465</v>
+        <v>8.261938377537007</v>
       </c>
       <c r="AB6" t="n">
-        <v>31.79790539540399</v>
+        <v>221.3044268469425</v>
       </c>
       <c r="AC6" t="n">
-        <v>30.0776496036123</v>
+        <v>220.9961440746252</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.274180926382542e-11</v>
+        <v>1.01863406598568e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1050,91 +1050,91 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.009491646356423</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C7" t="n">
-        <v>77.60982935961388</v>
+        <v>10.88709677419355</v>
       </c>
       <c r="D7" t="n">
-        <v>75.60508353643567</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="E7" t="n">
-        <v>79.61457518279209</v>
+        <v>14.51612903225806</v>
       </c>
       <c r="F7" t="n">
-        <v>22.10032906584962</v>
+        <v>211.5421462280746</v>
       </c>
       <c r="G7" t="n">
-        <v>19.37820205604925</v>
+        <v>209.3085694342359</v>
       </c>
       <c r="H7" t="n">
-        <v>20.70969382130177</v>
+        <v>210.4004653341652</v>
       </c>
       <c r="I7" t="n">
-        <v>45960.71807752333</v>
+        <v>110457.017661432</v>
       </c>
       <c r="J7" t="n">
-        <v>58419.82884702988</v>
+        <v>140716.856994246</v>
       </c>
       <c r="K7" t="n">
-        <v>5579.391280705962</v>
+        <v>8802.301856806318</v>
       </c>
       <c r="L7" t="n">
-        <v>7091.862297270212</v>
+        <v>11213.70355481624</v>
       </c>
       <c r="M7" t="n">
-        <v>45620.80664716881</v>
+        <v>110105.7320609584</v>
       </c>
       <c r="N7" t="n">
-        <v>57987.77363955976</v>
+        <v>140269.3362603665</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>34072.63687014929</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.3217505543966407</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.60982935961388</v>
+        <v>10.86659376708584</v>
       </c>
       <c r="R7" t="n">
-        <v>40</v>
+        <v>230.6221979223619</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30.35484691065088</v>
+        <v>220.5388895862224</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.02050300710770969</v>
       </c>
       <c r="W7" t="n">
-        <v>19.29030617869823</v>
+        <v>20.22173258819677</v>
       </c>
       <c r="X7" t="n">
-        <v>9.645153089349112</v>
+        <v>10.13842425205718</v>
       </c>
       <c r="Y7" t="n">
-        <v>-20.70969382130177</v>
+        <v>-210.4004653341652</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.367955782310531</v>
+        <v>10.59567874046004</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.808134606499319</v>
+        <v>10.38362604705253</v>
       </c>
       <c r="AB7" t="n">
-        <v>30.0776496036123</v>
+        <v>220.9961440746252</v>
       </c>
       <c r="AC7" t="n">
-        <v>28.51782842780109</v>
+        <v>220.7840913812177</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.093170329928398e-11</v>
+        <v>7.8580342233181e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1142,91 +1142,91 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C8" t="n">
-        <v>81.61932100597031</v>
+        <v>18.14516129032258</v>
       </c>
       <c r="D8" t="n">
-        <v>79.61457518279209</v>
+        <v>14.51612903225806</v>
       </c>
       <c r="E8" t="n">
-        <v>83.62406682914853</v>
+        <v>21.7741935483871</v>
       </c>
       <c r="F8" t="n">
-        <v>19.37820205604925</v>
+        <v>209.3085694342359</v>
       </c>
       <c r="G8" t="n">
-        <v>16.88358604272948</v>
+        <v>207.2719295916519</v>
       </c>
       <c r="H8" t="n">
-        <v>18.10353524162007</v>
+        <v>208.265899525248</v>
       </c>
       <c r="I8" t="n">
-        <v>58419.82884702988</v>
+        <v>140716.856994246</v>
       </c>
       <c r="J8" t="n">
-        <v>71107.75773802548</v>
+        <v>170480.0370005049</v>
       </c>
       <c r="K8" t="n">
-        <v>7091.862297270212</v>
+        <v>11213.70355481624</v>
       </c>
       <c r="L8" t="n">
-        <v>8632.110639457402</v>
+        <v>13585.52655149154</v>
       </c>
       <c r="M8" t="n">
-        <v>57987.77363955976</v>
+        <v>140269.3362603665</v>
       </c>
       <c r="N8" t="n">
-        <v>70581.8664845149</v>
+        <v>169937.8606550413</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>32917.63223048321</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.3217505543966407</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.61932100597031</v>
+        <v>18.12393887945671</v>
       </c>
       <c r="R8" t="n">
-        <v>40</v>
+        <v>233.0413129598189</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>29.05176762081003</v>
+        <v>220.6941689323237</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.02122241086587451</v>
       </c>
       <c r="W8" t="n">
-        <v>21.89646475837993</v>
+        <v>24.77541343457088</v>
       </c>
       <c r="X8" t="n">
-        <v>10.94823237918997</v>
+        <v>12.42826940707565</v>
       </c>
       <c r="Y8" t="n">
-        <v>-18.10353524162007</v>
+        <v>-208.265899525248</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.41429318618102</v>
+        <v>12.51819185596969</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.002655733174095</v>
+        <v>12.37600511298197</v>
       </c>
       <c r="AB8" t="n">
-        <v>28.51782842780109</v>
+        <v>220.7840913812177</v>
       </c>
       <c r="AC8" t="n">
-        <v>27.10619097479416</v>
+        <v>220.64190463823</v>
       </c>
       <c r="AD8" t="n">
-        <v>-1.891748979687691e-10</v>
+        <v>-1.251464709639549e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1234,91 +1234,91 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C9" t="n">
-        <v>85.62881265232676</v>
+        <v>25.40322580645161</v>
       </c>
       <c r="D9" t="n">
-        <v>83.62406682914853</v>
+        <v>21.7741935483871</v>
       </c>
       <c r="E9" t="n">
-        <v>87.63355847550497</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="F9" t="n">
-        <v>16.88358604272948</v>
+        <v>207.2719295916519</v>
       </c>
       <c r="G9" t="n">
-        <v>14.60032548998696</v>
+        <v>205.4281418658962</v>
       </c>
       <c r="H9" t="n">
-        <v>15.71643411866143</v>
+        <v>206.3261651424888</v>
       </c>
       <c r="I9" t="n">
-        <v>71107.75773802548</v>
+        <v>170480.0370005049</v>
       </c>
       <c r="J9" t="n">
-        <v>83817.4925554009</v>
+        <v>199527.2417013069</v>
       </c>
       <c r="K9" t="n">
-        <v>8632.110639457402</v>
+        <v>13585.52655149154</v>
       </c>
       <c r="L9" t="n">
-        <v>10175.00610729015</v>
+        <v>15900.29359197609</v>
       </c>
       <c r="M9" t="n">
-        <v>70581.8664845149</v>
+        <v>169937.8606550413</v>
       </c>
       <c r="N9" t="n">
-        <v>83197.60398587986</v>
+        <v>198892.6867549954</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>31762.62759081717</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.3217505543966442</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.62881265232676</v>
+        <v>25.38123167155425</v>
       </c>
       <c r="R9" t="n">
-        <v>40</v>
+        <v>235.4604105571848</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>27.85821705933071</v>
+        <v>220.9455632898094</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.02199413489736202</v>
       </c>
       <c r="W9" t="n">
-        <v>24.28356588133857</v>
+        <v>29.13424541469593</v>
       </c>
       <c r="X9" t="n">
-        <v>12.14178294066929</v>
+        <v>14.61939814732054</v>
       </c>
       <c r="Y9" t="n">
-        <v>-15.71643411866143</v>
+        <v>-206.3261651424888</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.38975685613273</v>
+        <v>14.31573949574116</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.11584163646772</v>
+        <v>14.23762406493819</v>
       </c>
       <c r="AB9" t="n">
-        <v>27.10619097479416</v>
+        <v>220.64190463823</v>
       </c>
       <c r="AC9" t="n">
-        <v>25.83227575512915</v>
+        <v>220.563789207427</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.673470251262188e-10</v>
+        <v>-2.619344741106033e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1326,91 +1326,91 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.009491646356423</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C10" t="n">
-        <v>89.63830429868318</v>
+        <v>32.66129032258064</v>
       </c>
       <c r="D10" t="n">
-        <v>87.63355847550497</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="E10" t="n">
-        <v>91.64305012186139</v>
+        <v>36.29032258064516</v>
       </c>
       <c r="F10" t="n">
-        <v>14.60032548998696</v>
+        <v>205.4281418658962</v>
       </c>
       <c r="G10" t="n">
-        <v>12.51495034330679</v>
+        <v>203.773605154568</v>
       </c>
       <c r="H10" t="n">
-        <v>13.53365485246148</v>
+        <v>204.5774243918041</v>
       </c>
       <c r="I10" t="n">
-        <v>83817.4925554009</v>
+        <v>199527.2417013069</v>
       </c>
       <c r="J10" t="n">
-        <v>96384.02105240329</v>
+        <v>227661.1377764984</v>
       </c>
       <c r="K10" t="n">
-        <v>10175.00610729015</v>
+        <v>15900.29359197609</v>
       </c>
       <c r="L10" t="n">
-        <v>11700.51707530104</v>
+        <v>18142.27921593091</v>
       </c>
       <c r="M10" t="n">
-        <v>83197.60398587986</v>
+        <v>198892.6867549954</v>
       </c>
       <c r="N10" t="n">
-        <v>95671.19427706915</v>
+        <v>226937.1088177096</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>30607.62295115106</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.3217505543966407</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.63830429868318</v>
+        <v>32.63846622032867</v>
       </c>
       <c r="R10" t="n">
-        <v>40</v>
+        <v>237.8794887401096</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>26.76682742623074</v>
+        <v>221.2915285648264</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.02282410225197395</v>
       </c>
       <c r="W10" t="n">
-        <v>26.46634514753852</v>
+        <v>33.30206434830549</v>
       </c>
       <c r="X10" t="n">
-        <v>13.23317257376926</v>
+        <v>16.71410417302235</v>
       </c>
       <c r="Y10" t="n">
-        <v>-13.53365485246148</v>
+        <v>-204.5774243918041</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.29862090266766</v>
+        <v>15.98636481562295</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.15352079825041</v>
+        <v>15.97261877390997</v>
       </c>
       <c r="AB10" t="n">
-        <v>25.83227575512915</v>
+        <v>220.563789207427</v>
       </c>
       <c r="AC10" t="n">
-        <v>24.68717565071189</v>
+        <v>220.550043165714</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.091393642127514e-11</v>
+        <v>-2.444721758365631e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1418,91 +1418,91 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C11" t="n">
-        <v>93.6477959450396</v>
+        <v>39.91935483870968</v>
       </c>
       <c r="D11" t="n">
-        <v>91.64305012186139</v>
+        <v>36.29032258064516</v>
       </c>
       <c r="E11" t="n">
-        <v>95.65254176821783</v>
+        <v>43.54838709677419</v>
       </c>
       <c r="F11" t="n">
-        <v>12.51495034330679</v>
+        <v>203.773605154568</v>
       </c>
       <c r="G11" t="n">
-        <v>10.6161421138269</v>
+        <v>202.3051639671518</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5428603608886</v>
+        <v>203.0163033481415</v>
       </c>
       <c r="I11" t="n">
-        <v>96384.02105240329</v>
+        <v>227661.1377764984</v>
       </c>
       <c r="J11" t="n">
-        <v>108674.2657295691</v>
+        <v>254704.0718525467</v>
       </c>
       <c r="K11" t="n">
-        <v>11700.51707530104</v>
+        <v>18142.27921593091</v>
       </c>
       <c r="L11" t="n">
-        <v>13192.48862965881</v>
+        <v>20297.32625477746</v>
       </c>
       <c r="M11" t="n">
-        <v>95671.19427706915</v>
+        <v>226937.1088177096</v>
       </c>
       <c r="N11" t="n">
-        <v>107870.5440591514</v>
+        <v>253894.0384593037</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>29452.61831148498</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.3217505543966407</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.6477959450396</v>
+        <v>39.89563567362428</v>
       </c>
       <c r="R11" t="n">
-        <v>40</v>
+        <v>240.2985452245414</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.7714301804443</v>
+        <v>221.7305552535153</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.02371916508539584</v>
       </c>
       <c r="W11" t="n">
-        <v>28.4571396391114</v>
+        <v>37.28224187639992</v>
       </c>
       <c r="X11" t="n">
-        <v>14.2285698195557</v>
+        <v>18.71425190537383</v>
       </c>
       <c r="Y11" t="n">
-        <v>-11.5428603608886</v>
+        <v>-203.0163033481415</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.1443152898233</v>
+        <v>17.53373981757255</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.12042177360453</v>
+        <v>17.5865846281234</v>
       </c>
       <c r="AB11" t="n">
-        <v>24.68717565071189</v>
+        <v>220.550043165714</v>
       </c>
       <c r="AC11" t="n">
-        <v>23.66328213449312</v>
+        <v>220.6028879762649</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.128661774098873e-10</v>
+        <v>1.746229827404022e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1510,91 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C12" t="n">
-        <v>97.65728759139606</v>
+        <v>47.1774193548387</v>
       </c>
       <c r="D12" t="n">
-        <v>95.65254176821783</v>
+        <v>43.54838709677419</v>
       </c>
       <c r="E12" t="n">
-        <v>99.66203341457427</v>
+        <v>50.80645161290322</v>
       </c>
       <c r="F12" t="n">
-        <v>10.6161421138269</v>
+        <v>202.3051639671518</v>
       </c>
       <c r="G12" t="n">
-        <v>8.894335041372344</v>
+        <v>201.0200762641639</v>
       </c>
       <c r="H12" t="n">
-        <v>9.733651634797397</v>
+        <v>201.6398569279311</v>
       </c>
       <c r="I12" t="n">
-        <v>108674.2657295691</v>
+        <v>254704.0718525467</v>
       </c>
       <c r="J12" t="n">
-        <v>120579.9871590491</v>
+        <v>280496.120003826</v>
       </c>
       <c r="K12" t="n">
-        <v>13192.48862965881</v>
+        <v>20297.32625477746</v>
       </c>
       <c r="L12" t="n">
-        <v>14637.78106878282</v>
+        <v>22352.6903967709</v>
       </c>
       <c r="M12" t="n">
-        <v>107870.5440591514</v>
+        <v>253894.0384593037</v>
       </c>
       <c r="N12" t="n">
-        <v>119688.2144100196</v>
+        <v>279604.0603589777</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>28297.61367181893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.3217505543966442</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.65728759139606</v>
+        <v>47.15273206056616</v>
       </c>
       <c r="R12" t="n">
-        <v>40</v>
+        <v>242.717577353522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>24.8668258173987</v>
+        <v>222.2612597853434</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.02468729427254601</v>
       </c>
       <c r="W12" t="n">
-        <v>30.2663483652026</v>
+        <v>41.07772042559097</v>
       </c>
       <c r="X12" t="n">
-        <v>15.1331741826013</v>
+        <v>20.62140285741231</v>
       </c>
       <c r="Y12" t="n">
-        <v>-9.733651634797397</v>
+        <v>-201.6398569279311</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.92963049969573</v>
+        <v>18.96303104833382</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.02040844341097</v>
+        <v>19.08520101413944</v>
       </c>
       <c r="AB12" t="n">
-        <v>23.66328213449312</v>
+        <v>220.6028879762649</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.75406007820837</v>
+        <v>220.7250579420705</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.729372449219227e-11</v>
+        <v>3.667082637548447e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1602,91 +1602,91 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.009491646356423</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6667792377525</v>
+        <v>54.43548387096774</v>
       </c>
       <c r="D13" t="n">
-        <v>99.66203341457427</v>
+        <v>50.80645161290322</v>
       </c>
       <c r="E13" t="n">
-        <v>103.6715250609307</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="F13" t="n">
-        <v>8.894335041372344</v>
+        <v>201.0200762641639</v>
       </c>
       <c r="G13" t="n">
-        <v>7.341413291259855</v>
+        <v>199.9159864429499</v>
       </c>
       <c r="H13" t="n">
-        <v>8.097220863955656</v>
+        <v>200.4455393923716</v>
       </c>
       <c r="I13" t="n">
-        <v>120579.9871590491</v>
+        <v>280496.120003826</v>
       </c>
       <c r="J13" t="n">
-        <v>132012.6596190492</v>
+        <v>304893.4313497049</v>
       </c>
       <c r="K13" t="n">
-        <v>14637.78106878282</v>
+        <v>22352.6903967709</v>
       </c>
       <c r="L13" t="n">
-        <v>16025.64783211102</v>
+        <v>24296.9081885201</v>
       </c>
       <c r="M13" t="n">
-        <v>119688.2144100196</v>
+        <v>279604.0603589777</v>
       </c>
       <c r="N13" t="n">
-        <v>131036.3343170744</v>
+        <v>303923.7811239453</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>27142.60903215282</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.3217505543966407</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.6667792377525</v>
+        <v>54.40974605353466</v>
       </c>
       <c r="R13" t="n">
-        <v>40</v>
+        <v>245.1365820178449</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>24.04861043197783</v>
+        <v>222.8824130513485</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.02573781743308245</v>
       </c>
       <c r="W13" t="n">
-        <v>31.90277913604434</v>
+        <v>44.69104262547324</v>
       </c>
       <c r="X13" t="n">
-        <v>15.95138956802217</v>
+        <v>22.43687365897691</v>
       </c>
       <c r="Y13" t="n">
-        <v>-8.097220863955656</v>
+        <v>-200.4455393923716</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.65683921425271</v>
+        <v>20.27951854969888</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.856639877215</v>
+        <v>20.47375201135242</v>
       </c>
       <c r="AB13" t="n">
-        <v>22.75406007820837</v>
+        <v>220.7250579420705</v>
       </c>
       <c r="AC13" t="n">
-        <v>21.95386074117066</v>
+        <v>220.9192914037241</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.16504156216979e-10</v>
+        <v>3.317836672067642e-09</v>
       </c>
     </row>
     <row r="14">
@@ -1694,91 +1694,91 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C14" t="n">
-        <v>105.6762708841089</v>
+        <v>61.69354838709677</v>
       </c>
       <c r="D14" t="n">
-        <v>103.6715250609307</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="E14" t="n">
-        <v>107.6810167072871</v>
+        <v>65.32258064516128</v>
       </c>
       <c r="F14" t="n">
-        <v>7.341413291259855</v>
+        <v>199.9159864429499</v>
       </c>
       <c r="G14" t="n">
-        <v>5.950477922973221</v>
+        <v>198.9909028170599</v>
       </c>
       <c r="H14" t="n">
-        <v>6.62608620842262</v>
+        <v>199.4311796529316</v>
       </c>
       <c r="I14" t="n">
-        <v>132012.6596190492</v>
+        <v>304893.4313497049</v>
       </c>
       <c r="J14" t="n">
-        <v>142899.6959525348</v>
+        <v>327766.8192814041</v>
       </c>
       <c r="K14" t="n">
-        <v>16025.64783211102</v>
+        <v>24296.9081885201</v>
       </c>
       <c r="L14" t="n">
-        <v>17347.27721765111</v>
+        <v>26119.68477008399</v>
       </c>
       <c r="M14" t="n">
-        <v>131036.3343170744</v>
+        <v>303923.7811239453</v>
       </c>
       <c r="N14" t="n">
-        <v>141842.85345572</v>
+        <v>326724.4249966018</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25987.60439248676</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.6762708841089</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="R14" t="n">
-        <v>40</v>
+        <v>247.5555555555555</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>23.31304310421131</v>
+        <v>223.5929475559934</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.02688172043010439</v>
       </c>
       <c r="W14" t="n">
-        <v>33.37391379157738</v>
+        <v>48.12437590262397</v>
       </c>
       <c r="X14" t="n">
-        <v>16.68695689578869</v>
+        <v>24.16176790306181</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.62608620842262</v>
+        <v>-199.4311796529316</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.32777453274804</v>
+        <v>21.48811175079248</v>
       </c>
       <c r="AA14" t="n">
-        <v>14.63168266534171</v>
+        <v>21.756974838953</v>
       </c>
       <c r="AB14" t="n">
-        <v>21.95386074117066</v>
+        <v>220.9192914037241</v>
       </c>
       <c r="AC14" t="n">
-        <v>21.25776887376433</v>
+        <v>221.1881544918846</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.182787284255028e-10</v>
+        <v>1.222360879182816e-09</v>
       </c>
     </row>
     <row r="15">
@@ -1786,91 +1786,91 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.009491646356437</v>
+        <v>7.258064516129039</v>
       </c>
       <c r="C15" t="n">
-        <v>109.6857625304654</v>
+        <v>68.95161290322579</v>
       </c>
       <c r="D15" t="n">
-        <v>107.6810167072871</v>
+        <v>65.32258064516128</v>
       </c>
       <c r="E15" t="n">
-        <v>111.6905083536436</v>
+        <v>72.58064516129032</v>
       </c>
       <c r="F15" t="n">
-        <v>5.950477922973221</v>
+        <v>198.9909028170599</v>
       </c>
       <c r="G15" t="n">
-        <v>4.715665564391145</v>
+        <v>198.2431790659423</v>
       </c>
       <c r="H15" t="n">
-        <v>5.313886490363117</v>
+        <v>198.5949607941353</v>
       </c>
       <c r="I15" t="n">
-        <v>142899.6959525348</v>
+        <v>327766.8192814041</v>
       </c>
       <c r="J15" t="n">
-        <v>153181.6194726666</v>
+        <v>349000.5629840612</v>
       </c>
       <c r="K15" t="n">
-        <v>17347.27721765111</v>
+        <v>26119.68477008399</v>
       </c>
       <c r="L15" t="n">
-        <v>18595.44906606189</v>
+        <v>27811.79836845892</v>
       </c>
       <c r="M15" t="n">
-        <v>141842.85345572</v>
+        <v>326724.4249966018</v>
       </c>
       <c r="N15" t="n">
-        <v>152048.7350105233</v>
+        <v>347890.6391880987</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>24832.59975282069</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.3217505543966405</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.6857625304654</v>
+        <v>68.92348087021755</v>
       </c>
       <c r="R15" t="n">
-        <v>40</v>
+        <v>249.9744936234059</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>22.65694324518156</v>
+        <v>224.391956777029</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.02813203300824796</v>
       </c>
       <c r="W15" t="n">
-        <v>34.68611350963688</v>
+        <v>51.3795328292706</v>
       </c>
       <c r="X15" t="n">
-        <v>17.34305675481844</v>
+        <v>25.79699598289375</v>
       </c>
       <c r="Y15" t="n">
-        <v>-5.313886490363117</v>
+        <v>-198.5949607941353</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.94388238340121</v>
+        <v>22.59319369774931</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.34759103818534</v>
+        <v>22.93903510118506</v>
       </c>
       <c r="AB15" t="n">
-        <v>21.25776887376433</v>
+        <v>221.1881544918846</v>
       </c>
       <c r="AC15" t="n">
-        <v>20.66147752854845</v>
+        <v>221.5339958953203</v>
       </c>
       <c r="AD15" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>-2.852175384759903e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1878,91 +1878,91 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.009491646356423</v>
+        <v>7.258064516129039</v>
       </c>
       <c r="C16" t="n">
-        <v>113.6952541768218</v>
+        <v>76.20967741935485</v>
       </c>
       <c r="D16" t="n">
-        <v>111.6905083536436</v>
+        <v>72.58064516129032</v>
       </c>
       <c r="E16" t="n">
-        <v>115.7</v>
+        <v>79.83870967741936</v>
       </c>
       <c r="F16" t="n">
-        <v>4.715665564391145</v>
+        <v>198.2431790659423</v>
       </c>
       <c r="G16" t="n">
-        <v>3.632006118520721</v>
+        <v>197.6714992387773</v>
       </c>
       <c r="H16" t="n">
-        <v>4.15522070914804</v>
+        <v>197.9354033463887</v>
       </c>
       <c r="I16" t="n">
-        <v>153181.6194726666</v>
+        <v>349000.5629840612</v>
       </c>
       <c r="J16" t="n">
-        <v>162809.9161669164</v>
+        <v>368491.3891615561</v>
       </c>
       <c r="K16" t="n">
-        <v>18595.44906606189</v>
+        <v>27811.79836845892</v>
       </c>
       <c r="L16" t="n">
-        <v>19764.27402944336</v>
+        <v>29365.01915139481</v>
       </c>
       <c r="M16" t="n">
-        <v>152048.7350105233</v>
+        <v>347890.6391880987</v>
       </c>
       <c r="N16" t="n">
-        <v>161605.8237637723</v>
+        <v>367319.4788415823</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>23677.59511315464</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.321750554396644</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.6952541768218</v>
+        <v>76.18017309205351</v>
       </c>
       <c r="R16" t="n">
-        <v>40</v>
+        <v>252.3933910306845</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.07761035457402</v>
+        <v>225.2786918180951</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.02950432730133912</v>
       </c>
       <c r="W16" t="n">
-        <v>35.84477929085196</v>
+        <v>54.45798768429577</v>
       </c>
       <c r="X16" t="n">
-        <v>17.92238964542598</v>
+        <v>27.34328847170633</v>
       </c>
       <c r="Y16" t="n">
-        <v>-4.15522070914804</v>
+        <v>-197.9354033463887</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.50625681940041</v>
+        <v>23.59859254893158</v>
       </c>
       <c r="AA16" t="n">
-        <v>16.00596379239214</v>
+        <v>24.02355066451418</v>
       </c>
       <c r="AB16" t="n">
-        <v>20.66147752854845</v>
+        <v>221.5339958953203</v>
       </c>
       <c r="AC16" t="n">
-        <v>20.16118450154018</v>
+        <v>221.9589540109029</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.964508555829525e-10</v>
+        <v>5.413312464952469e-09</v>
       </c>
     </row>
     <row r="17">
@@ -1970,91 +1970,91 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.228571428571428</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C17" t="n">
-        <v>117.8142857142857</v>
+        <v>83.46774193548387</v>
       </c>
       <c r="D17" t="n">
-        <v>115.7</v>
+        <v>79.83870967741936</v>
       </c>
       <c r="E17" t="n">
-        <v>119.9285714285714</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="F17" t="n">
-        <v>3.632006118520721</v>
+        <v>197.6714992387773</v>
       </c>
       <c r="G17" t="n">
-        <v>2.648291578742857</v>
+        <v>197.2748659860108</v>
       </c>
       <c r="H17" t="n">
-        <v>3.119989139393425</v>
+        <v>197.4513519394142</v>
       </c>
       <c r="I17" t="n">
-        <v>162809.9161669164</v>
+        <v>368491.3891615561</v>
       </c>
       <c r="J17" t="n">
-        <v>172556.0316997264</v>
+        <v>386147.6096611199</v>
       </c>
       <c r="K17" t="n">
-        <v>19764.27402944336</v>
+        <v>29365.01915139481</v>
       </c>
       <c r="L17" t="n">
-        <v>20947.40158486564</v>
+        <v>30772.04050483985</v>
       </c>
       <c r="M17" t="n">
-        <v>161605.8237637723</v>
+        <v>367319.4788415823</v>
       </c>
       <c r="N17" t="n">
-        <v>171279.8600034439</v>
+        <v>384919.547399408</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>22522.59047348852</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6812982252878483</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.8142857142857</v>
+        <v>83.43672456575682</v>
       </c>
       <c r="R17" t="n">
-        <v>41.71428571428571</v>
+        <v>254.812241521919</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>22.34237460734002</v>
+        <v>226.252557439499</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.03101736972705282</v>
       </c>
       <c r="W17" t="n">
-        <v>38.59429657489228</v>
+        <v>57.3608895825048</v>
       </c>
       <c r="X17" t="n">
-        <v>19.22238546794659</v>
+        <v>28.80120550008479</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.119989139393425</v>
+        <v>-197.4513519394142</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.04119536214675</v>
+        <v>24.50760207148875</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.58124036601831</v>
+        <v>25.01363188283113</v>
       </c>
       <c r="AB17" t="n">
-        <v>20.16118450154018</v>
+        <v>221.9589540109029</v>
       </c>
       <c r="AC17" t="n">
-        <v>19.70122950541174</v>
+        <v>222.4649838222453</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.693881005048752e-10</v>
+        <v>4.656612873077393e-10</v>
       </c>
     </row>
     <row r="18">
@@ -2062,91 +2062,91 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.228571428571442</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C18" t="n">
-        <v>122.0428571428571</v>
+        <v>90.7258064516129</v>
       </c>
       <c r="D18" t="n">
-        <v>119.9285714285714</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="E18" t="n">
-        <v>124.1571428571429</v>
+        <v>94.35483870967741</v>
       </c>
       <c r="F18" t="n">
-        <v>2.648291578742857</v>
+        <v>197.2748659860108</v>
       </c>
       <c r="G18" t="n">
-        <v>1.823964755444393</v>
+        <v>197.0525917687919</v>
       </c>
       <c r="H18" t="n">
-        <v>2.216429024092093</v>
+        <v>197.1419650495846</v>
       </c>
       <c r="I18" t="n">
-        <v>172556.0316997264</v>
+        <v>386147.6096611199</v>
       </c>
       <c r="J18" t="n">
-        <v>182060.5872274888</v>
+        <v>401888.3953889348</v>
       </c>
       <c r="K18" t="n">
-        <v>20947.40158486564</v>
+        <v>30772.04050483985</v>
       </c>
       <c r="L18" t="n">
-        <v>22101.20501650778</v>
+        <v>32026.42117139224</v>
       </c>
       <c r="M18" t="n">
-        <v>171279.8600034439</v>
+        <v>384919.547399408</v>
       </c>
       <c r="N18" t="n">
-        <v>180714.1227420712</v>
+        <v>400610.2728279012</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>21367.58583382239</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6812982252878487</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.0428571428571</v>
+        <v>90.69311246730601</v>
       </c>
       <c r="R18" t="n">
-        <v>45.14285714285714</v>
+        <v>257.231037489102</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>23.47161781692436</v>
+        <v>227.3131083766207</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.03269398430688852</v>
       </c>
       <c r="W18" t="n">
-        <v>42.92642811876505</v>
+        <v>60.08907243951739</v>
       </c>
       <c r="X18" t="n">
-        <v>21.25518879283227</v>
+        <v>30.17114332703611</v>
       </c>
       <c r="Y18" t="n">
-        <v>-2.216429024092093</v>
+        <v>-197.1419650495846</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.48480048131964</v>
+        <v>25.3230187726607</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.07565067833724</v>
+        <v>25.9119244575763</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.70122950541174</v>
+        <v>222.4649838222453</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.29207970242933</v>
+        <v>223.0538895071609</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.637978807091713e-11</v>
+        <v>2.095475792884827e-09</v>
       </c>
     </row>
     <row r="19">
@@ -2154,91 +2154,91 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.228571428571442</v>
+        <v>7.258064516129039</v>
       </c>
       <c r="C19" t="n">
-        <v>126.2714285714286</v>
+        <v>97.98387096774192</v>
       </c>
       <c r="D19" t="n">
-        <v>124.1571428571429</v>
+        <v>94.35483870967741</v>
       </c>
       <c r="E19" t="n">
-        <v>128.3857142857143</v>
+        <v>101.6129032258064</v>
       </c>
       <c r="F19" t="n">
-        <v>1.823964755444393</v>
+        <v>197.0525917687919</v>
       </c>
       <c r="G19" t="n">
-        <v>1.155708970922461</v>
+        <v>197.0042928634397</v>
       </c>
       <c r="H19" t="n">
-        <v>1.470507415897131</v>
+        <v>197.006707625853</v>
       </c>
       <c r="I19" t="n">
-        <v>182060.5872274888</v>
+        <v>401888.3953889348</v>
       </c>
       <c r="J19" t="n">
-        <v>191143.8234326861</v>
+        <v>415643.1707387978</v>
       </c>
       <c r="K19" t="n">
-        <v>22101.20501650778</v>
+        <v>32026.42117139224</v>
       </c>
       <c r="L19" t="n">
-        <v>23203.86248148447</v>
+        <v>33122.53699241832</v>
       </c>
       <c r="M19" t="n">
-        <v>180714.1227420712</v>
+        <v>400610.2728279012</v>
       </c>
       <c r="N19" t="n">
-        <v>189730.182107134</v>
+        <v>414321.3039719141</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>20212.5811941564</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6812982252878487</v>
+        <v>0.321750554396644</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.2714285714286</v>
+        <v>97.94930875576036</v>
       </c>
       <c r="R19" t="n">
-        <v>48.57142857142858</v>
+        <v>259.6497695852535</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>24.69689762285971</v>
+        <v>228.460046358407</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.03456221198156584</v>
       </c>
       <c r="W19" t="n">
-        <v>47.10092115553145</v>
+        <v>62.64306195940043</v>
       </c>
       <c r="X19" t="n">
-        <v>23.22639020696258</v>
+        <v>31.45333873255393</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.470507415897131</v>
+        <v>-197.006707625853</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.8215722865322</v>
+        <v>26.04718188130786</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.47954712217678</v>
+        <v>26.72064915598696</v>
       </c>
       <c r="AB19" t="n">
-        <v>19.29207970242933</v>
+        <v>223.0538895071609</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.95005453807391</v>
+        <v>223.72735678184</v>
       </c>
       <c r="AD19" t="n">
-        <v>-5.093170329928398e-11</v>
+        <v>-8.731149137020111e-10</v>
       </c>
     </row>
     <row r="20">
@@ -2246,91 +2246,91 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.228571428571428</v>
+        <v>7.258064516129039</v>
       </c>
       <c r="C20" t="n">
-        <v>130.5</v>
+        <v>105.241935483871</v>
       </c>
       <c r="D20" t="n">
-        <v>128.3857142857143</v>
+        <v>101.6129032258064</v>
       </c>
       <c r="E20" t="n">
-        <v>132.6142857142857</v>
+        <v>108.8709677419355</v>
       </c>
       <c r="F20" t="n">
-        <v>1.155708970922461</v>
+        <v>197.0042928634397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.640902811588532</v>
+        <v>197.129886038055</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8792629304200403</v>
+        <v>197.0453464421071</v>
       </c>
       <c r="I20" t="n">
-        <v>191143.8234326861</v>
+        <v>415643.1707387978</v>
       </c>
       <c r="J20" t="n">
-        <v>199642.0015737264</v>
+        <v>427351.1159568921</v>
       </c>
       <c r="K20" t="n">
-        <v>23203.86248148447</v>
+        <v>33122.53699241832</v>
       </c>
       <c r="L20" t="n">
-        <v>24235.49695120774</v>
+        <v>34055.54125158186</v>
       </c>
       <c r="M20" t="n">
-        <v>189730.182107134</v>
+        <v>414321.3039719141</v>
       </c>
       <c r="N20" t="n">
-        <v>198165.5103187529</v>
+        <v>425992.0145022238</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>19057.57655449032</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6812982252878483</v>
+        <v>0.321750554396644</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.5</v>
+        <v>105.2052785923754</v>
       </c>
       <c r="R20" t="n">
-        <v>52.00000000000001</v>
+        <v>262.0684261974585</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>26.01311423102661</v>
+        <v>229.6932180183736</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.03665689149561047</v>
       </c>
       <c r="W20" t="n">
-        <v>51.12073706957997</v>
+        <v>65.02307975535138</v>
       </c>
       <c r="X20" t="n">
-        <v>25.13385130060657</v>
+        <v>32.64787157626654</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.8792629304200403</v>
+        <v>-197.0453464421071</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.07079160765387</v>
+        <v>26.68201033973293</v>
       </c>
       <c r="AA20" t="n">
-        <v>17.80771506003937</v>
+        <v>27.44163610181295</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.95005453807391</v>
+        <v>223.72735678184</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.68697799045941</v>
+        <v>224.48698254392</v>
       </c>
       <c r="AD20" t="n">
-        <v>-2.983142621815205e-10</v>
+        <v>6.170012056827545e-09</v>
       </c>
     </row>
     <row r="21">
@@ -2338,91 +2338,91 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.228571428571428</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C21" t="n">
-        <v>134.7285714285715</v>
+        <v>112.5</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6142857142857</v>
+        <v>108.8709677419355</v>
       </c>
       <c r="E21" t="n">
-        <v>136.8428571428572</v>
+        <v>116.1290322580645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.640902811588532</v>
+        <v>197.129886038055</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2775667620801983</v>
+        <v>197.4295878338096</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4404008240992709</v>
+        <v>197.2579480812089</v>
       </c>
       <c r="I21" t="n">
-        <v>199642.0015737264</v>
+        <v>427351.1159568921</v>
       </c>
       <c r="J21" t="n">
-        <v>207510.2620227552</v>
+        <v>436960.7675552682</v>
       </c>
       <c r="K21" t="n">
-        <v>24235.49695120774</v>
+        <v>34055.54125158186</v>
       </c>
       <c r="L21" t="n">
-        <v>25190.66270100275</v>
+        <v>34821.332831859</v>
       </c>
       <c r="M21" t="n">
-        <v>198165.5103187529</v>
+        <v>425992.0145022238</v>
       </c>
       <c r="N21" t="n">
-        <v>205975.5795171768</v>
+        <v>435571.1045998139</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>17902.57191482417</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6812982252878493</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.7285714285715</v>
+        <v>112.4609781477627</v>
       </c>
       <c r="R21" t="n">
-        <v>55.42857142857144</v>
+        <v>264.4869927159209</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>27.41675170887492</v>
+        <v>231.0126137920101</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.03902185223725496</v>
       </c>
       <c r="W21" t="n">
-        <v>54.98817060447217</v>
+        <v>67.22904463471201</v>
       </c>
       <c r="X21" t="n">
-        <v>26.97635088477564</v>
+        <v>33.75466571080122</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.4404008240992709</v>
+        <v>-197.2579480812089</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.24657716636014</v>
+        <v>27.22903446271113</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.06206011279452</v>
+        <v>28.07635288507836</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.68697799045941</v>
+        <v>224.48698254392</v>
       </c>
       <c r="AC21" t="n">
-        <v>18.50246093689379</v>
+        <v>225.3343009662873</v>
       </c>
       <c r="AD21" t="n">
-        <v>-2.182787284255028e-10</v>
+        <v>-1.33877620100975e-09</v>
       </c>
     </row>
     <row r="22">
@@ -2430,91 +2430,91 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.228571428571428</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C22" t="n">
-        <v>138.9571428571429</v>
+        <v>119.758064516129</v>
       </c>
       <c r="D22" t="n">
-        <v>136.8428571428572</v>
+        <v>116.1290322580645</v>
       </c>
       <c r="E22" t="n">
-        <v>141.0714285714286</v>
+        <v>123.3870967741935</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2775667620801983</v>
+        <v>197.4295878338096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06432421280725009</v>
+        <v>197.9039164363853</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1522470901059449</v>
+        <v>197.6448795099106</v>
       </c>
       <c r="I22" t="n">
-        <v>207510.2620227552</v>
+        <v>436960.7675552682</v>
       </c>
       <c r="J22" t="n">
-        <v>214605.9446253926</v>
+        <v>444429.7092116467</v>
       </c>
       <c r="K22" t="n">
-        <v>25190.66270100275</v>
+        <v>34821.332831859</v>
       </c>
       <c r="L22" t="n">
-        <v>26052.04153274849</v>
+        <v>35416.53158339359</v>
       </c>
       <c r="M22" t="n">
-        <v>205975.5795171768</v>
+        <v>435571.1045998139</v>
       </c>
       <c r="N22" t="n">
-        <v>213018.7846189463</v>
+        <v>443016.2928387074</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>16747.56727515813</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6812982252878483</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9571428571429</v>
+        <v>119.7163515016685</v>
       </c>
       <c r="R22" t="n">
-        <v>58.85714285714286</v>
+        <v>266.9054505005562</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>28.90538191576636</v>
+        <v>232.4183678525846</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.04171301446051245</v>
       </c>
       <c r="W22" t="n">
-        <v>58.70489576703692</v>
+        <v>69.26057099064559</v>
       </c>
       <c r="X22" t="n">
-        <v>28.75313482566042</v>
+        <v>34.77348834267403</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.1522470901059449</v>
+        <v>-197.6448795099106</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.35021384678785</v>
+        <v>27.68942145637666</v>
       </c>
       <c r="AA22" t="n">
-        <v>18.252088217638</v>
+        <v>28.62592636701095</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.50246093689379</v>
+        <v>225.3343009662873</v>
       </c>
       <c r="AC22" t="n">
-        <v>18.40433530774395</v>
+        <v>226.2708058769215</v>
       </c>
       <c r="AD22" t="n">
-        <v>-6.984919309616089e-10</v>
+        <v>4.307366907596588e-09</v>
       </c>
     </row>
     <row r="23">
@@ -2522,91 +2522,91 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.228571428571428</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C23" t="n">
-        <v>143.1857142857143</v>
+        <v>127.016129032258</v>
       </c>
       <c r="D23" t="n">
-        <v>141.0714285714286</v>
+        <v>123.3870967741935</v>
       </c>
       <c r="E23" t="n">
-        <v>145.3</v>
+        <v>130.6451612903226</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06432421280725009</v>
+        <v>197.9039164363853</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000375000585933094</v>
+        <v>198.5536961754381</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01371591991467369</v>
+        <v>198.2068112562638</v>
       </c>
       <c r="I23" t="n">
-        <v>214605.9446253926</v>
+        <v>444429.7092116467</v>
       </c>
       <c r="J23" t="n">
-        <v>220797.117216648</v>
+        <v>449724.3476426514</v>
       </c>
       <c r="K23" t="n">
-        <v>26052.04153274849</v>
+        <v>35416.53158339359</v>
       </c>
       <c r="L23" t="n">
-        <v>26803.61757024059</v>
+        <v>35838.46046287142</v>
       </c>
       <c r="M23" t="n">
-        <v>213018.7846189463</v>
+        <v>443016.2928387074</v>
       </c>
       <c r="N23" t="n">
-        <v>219164.1691890591</v>
+        <v>448294.0927719877</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>15592.56263549205</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6812982252878483</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.1857142857143</v>
+        <v>126.9713261648745</v>
       </c>
       <c r="R23" t="n">
-        <v>62.28571428571429</v>
+        <v>269.3237753882915</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>30.4773788463628</v>
+        <v>233.9107591232943</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>0.04480286738350969</v>
       </c>
       <c r="W23" t="n">
-        <v>62.27199836579962</v>
+        <v>71.1169641320277</v>
       </c>
       <c r="X23" t="n">
-        <v>30.46366292644812</v>
+        <v>35.70394786703054</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.01371591991467369</v>
+        <v>-198.2068112562638</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.39061938782927</v>
+        <v>28.06399462065775</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.38484534335448</v>
+        <v>29.09115825411729</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.40433530774395</v>
+        <v>226.2708058769215</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.39856126326915</v>
+        <v>227.2979695103811</v>
       </c>
       <c r="AD23" t="n">
-        <v>-3.055902197957039e-10</v>
+        <v>-3.899913281202316e-09</v>
       </c>
     </row>
     <row r="24">
@@ -2614,91 +2614,91 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.116666666666674</v>
+        <v>7.258064516129053</v>
       </c>
       <c r="C24" t="n">
-        <v>147.3583333333333</v>
+        <v>134.2741935483871</v>
       </c>
       <c r="D24" t="n">
-        <v>145.3</v>
+        <v>130.6451612903226</v>
       </c>
       <c r="E24" t="n">
-        <v>149.4166666666667</v>
+        <v>137.9032258064516</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000375000585933094</v>
+        <v>198.5536961754381</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08130647995052698</v>
+        <v>199.3800647437613</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02317613851877809</v>
+        <v>198.9447232540049</v>
       </c>
       <c r="I24" t="n">
-        <v>220797.117216648</v>
+        <v>449724.3476426514</v>
       </c>
       <c r="J24" t="n">
-        <v>230286.1690345761</v>
+        <v>452819.7698032614</v>
       </c>
       <c r="K24" t="n">
-        <v>26803.61757024059</v>
+        <v>35838.46046287142</v>
       </c>
       <c r="L24" t="n">
-        <v>27955.5389324311</v>
+        <v>36085.13415376766</v>
       </c>
       <c r="M24" t="n">
-        <v>219164.1691890591</v>
+        <v>448294.0927719877</v>
       </c>
       <c r="N24" t="n">
-        <v>228583.0428785536</v>
+        <v>451379.670585399</v>
       </c>
       <c r="O24" t="n">
-        <v>5296.985515890682</v>
+        <v>14437.55799582603</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6806376797732449</v>
+        <v>0.3217505543966434</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.3583333333333</v>
+        <v>134.2258064516129</v>
       </c>
       <c r="R24" t="n">
-        <v>65.66666666666667</v>
+        <v>271.741935483871</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>32.17337204564281</v>
+        <v>235.4902134041015</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.04838709677417796</v>
       </c>
       <c r="W24" t="n">
-        <v>65.64349052814789</v>
+        <v>72.79721222986609</v>
       </c>
       <c r="X24" t="n">
-        <v>32.15019590712404</v>
+        <v>36.54549015009661</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.02317613851877809</v>
+        <v>-198.9447232540049</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.37538512475038</v>
+        <v>28.3532462563762</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.06856340581314</v>
+        <v>29.47253449443022</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.39856126326915</v>
+        <v>227.2979695103811</v>
       </c>
       <c r="AC24" t="n">
-        <v>19.09173954433192</v>
+        <v>228.4172577484351</v>
       </c>
       <c r="AD24" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>-4.365574568510056e-09</v>
       </c>
     </row>
     <row r="25">
@@ -2706,91 +2706,91 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.116666666666646</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C25" t="n">
-        <v>151.475</v>
+        <v>141.5322580645161</v>
       </c>
       <c r="D25" t="n">
-        <v>149.4166666666667</v>
+        <v>137.9032258064516</v>
       </c>
       <c r="E25" t="n">
-        <v>153.5333333333333</v>
+        <v>145.1612903225806</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08130647995052698</v>
+        <v>199.3800647437613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3037919471873067</v>
+        <v>200.3844832849948</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17481744224213</v>
+        <v>199.8599134736207</v>
       </c>
       <c r="I25" t="n">
-        <v>230286.1690345761</v>
+        <v>452819.7698032614</v>
       </c>
       <c r="J25" t="n">
-        <v>238563.3149072933</v>
+        <v>453699.6795083213</v>
       </c>
       <c r="K25" t="n">
-        <v>27955.5389324311</v>
+        <v>36085.13415376766</v>
       </c>
       <c r="L25" t="n">
-        <v>28960.34123846719</v>
+        <v>36155.25401572528</v>
       </c>
       <c r="M25" t="n">
-        <v>228583.0428785536</v>
+        <v>451379.670585399</v>
       </c>
       <c r="N25" t="n">
-        <v>236798.9735089828</v>
+        <v>452256.7819204172</v>
       </c>
       <c r="O25" t="n">
-        <v>5296.985515890642</v>
+        <v>13282.55335615986</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6806376797732442</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.475</v>
+        <v>141.4796633941094</v>
       </c>
       <c r="R25" t="n">
-        <v>69</v>
+        <v>274.1598877980365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>33.98037580017571</v>
+        <v>237.1573066599852</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.05259467040673371</v>
       </c>
       <c r="W25" t="n">
-        <v>68.82518255775787</v>
+        <v>74.29997432441576</v>
       </c>
       <c r="X25" t="n">
-        <v>33.80555835793358</v>
+        <v>37.29739318636445</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.17481744224213</v>
+        <v>-199.8599134736207</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.91692210208979</v>
+        <v>28.55734427481437</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.72414269928987</v>
+        <v>29.77022840438269</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.09173954433192</v>
+        <v>228.4172577484351</v>
       </c>
       <c r="AC25" t="n">
-        <v>19.898960141532</v>
+        <v>229.6301418780034</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>5.937181413173676e-09</v>
       </c>
     </row>
     <row r="26">
@@ -2798,91 +2798,91 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.116666666666674</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C26" t="n">
-        <v>155.5916666666667</v>
+        <v>148.7903225806452</v>
       </c>
       <c r="D26" t="n">
-        <v>153.5333333333333</v>
+        <v>145.1612903225806</v>
       </c>
       <c r="E26" t="n">
-        <v>157.65</v>
+        <v>152.4193548387097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3037919471873067</v>
+        <v>200.3844832849948</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6686231538410539</v>
+        <v>201.5687495614887</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4683447900840747</v>
+        <v>200.9540095194778</v>
       </c>
       <c r="I26" t="n">
-        <v>238563.3149072933</v>
+        <v>453699.6795083213</v>
       </c>
       <c r="J26" t="n">
-        <v>245549.6539186454</v>
+        <v>452356.4132758704</v>
       </c>
       <c r="K26" t="n">
-        <v>28960.34123846719</v>
+        <v>36155.25401572528</v>
       </c>
       <c r="L26" t="n">
-        <v>29808.44632895436</v>
+        <v>36048.2093471074</v>
       </c>
       <c r="M26" t="n">
-        <v>236798.9735089828</v>
+        <v>452256.7819204172</v>
       </c>
       <c r="N26" t="n">
-        <v>243733.6436912647</v>
+        <v>450917.7876671946</v>
       </c>
       <c r="O26" t="n">
-        <v>5296.985515890682</v>
+        <v>12127.54871649382</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6806376797732449</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q26" t="n">
-        <v>155.5916666666667</v>
+        <v>148.7327188940092</v>
       </c>
       <c r="R26" t="n">
-        <v>72.33333333333333</v>
+        <v>276.5775729646697</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>35.85387153520603</v>
+        <v>238.9127695305617</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.05760368663595727</v>
       </c>
       <c r="W26" t="n">
-        <v>71.86498854324925</v>
+        <v>75.62356344519196</v>
       </c>
       <c r="X26" t="n">
-        <v>35.38552674512196</v>
+        <v>37.95876001108391</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.4683447900840747</v>
+        <v>-200.9540095194778</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.43061535144793</v>
+        <v>28.67613235852565</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.35691671838334</v>
+        <v>29.98409720040499</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.898960141532</v>
+        <v>229.6301418780034</v>
       </c>
       <c r="AC26" t="n">
-        <v>20.82526150846742</v>
+        <v>230.9381067198828</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.149072527885437e-10</v>
+        <v>-5.296897143125534e-09</v>
       </c>
     </row>
     <row r="27">
@@ -2890,91 +2890,91 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.116666666666674</v>
+        <v>7.258064516129053</v>
       </c>
       <c r="C27" t="n">
-        <v>159.7083333333333</v>
+        <v>156.0483870967742</v>
       </c>
       <c r="D27" t="n">
-        <v>157.65</v>
+        <v>152.4193548387097</v>
       </c>
       <c r="E27" t="n">
-        <v>161.7666666666667</v>
+        <v>159.6774193548387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6686231538410539</v>
+        <v>201.5687495614887</v>
       </c>
       <c r="G27" t="n">
-        <v>1.177111258441087</v>
+        <v>202.9350144847988</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9048072735278083</v>
+        <v>202.2289834388677</v>
       </c>
       <c r="I27" t="n">
-        <v>245549.6539186454</v>
+        <v>452356.4132758704</v>
       </c>
       <c r="J27" t="n">
-        <v>251143.2696043364</v>
+        <v>448791.0369088246</v>
       </c>
       <c r="K27" t="n">
-        <v>29808.44632895436</v>
+        <v>36048.2093471074</v>
       </c>
       <c r="L27" t="n">
-        <v>30487.4820770844</v>
+        <v>35764.08508157585</v>
       </c>
       <c r="M27" t="n">
-        <v>243733.6436912647</v>
+        <v>450917.7876671946</v>
       </c>
       <c r="N27" t="n">
-        <v>249285.8907041388</v>
+        <v>447363.7502390821</v>
       </c>
       <c r="O27" t="n">
-        <v>5296.985515890682</v>
+        <v>10972.54407682778</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6806376797732449</v>
+        <v>0.3217505543966434</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.7083333333333</v>
+        <v>155.9847198641766</v>
       </c>
       <c r="R27" t="n">
-        <v>75.66666666666667</v>
+        <v>278.9949066213922</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>37.79544665568664</v>
+        <v>240.7574931375312</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.06366723259762352</v>
       </c>
       <c r="W27" t="n">
-        <v>74.76185939313886</v>
+        <v>76.76592318252455</v>
       </c>
       <c r="X27" t="n">
-        <v>36.89063938215883</v>
+        <v>38.52850969866356</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.9048072735278083</v>
+        <v>-202.2289834388677</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.92045423493961</v>
+        <v>28.70912328101511</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.97431265434898</v>
+        <v>30.11367128666078</v>
       </c>
       <c r="AB27" t="n">
-        <v>20.82526150846742</v>
+        <v>230.9381067198828</v>
       </c>
       <c r="AC27" t="n">
-        <v>21.87911992787679</v>
+        <v>232.3426547255284</v>
       </c>
       <c r="AD27" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>1.455191522836685e-09</v>
       </c>
     </row>
     <row r="28">
@@ -2982,91 +2982,91 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.116666666666646</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C28" t="n">
-        <v>163.825</v>
+        <v>163.3064516129032</v>
       </c>
       <c r="D28" t="n">
-        <v>161.7666666666667</v>
+        <v>159.6774193548387</v>
       </c>
       <c r="E28" t="n">
-        <v>165.8833333333333</v>
+        <v>166.9354838709677</v>
       </c>
       <c r="F28" t="n">
-        <v>1.177111258441087</v>
+        <v>202.9350144847988</v>
       </c>
       <c r="G28" t="n">
-        <v>1.831110740225327</v>
+        <v>204.485802373288</v>
       </c>
       <c r="H28" t="n">
-        <v>1.485784080558503</v>
+        <v>203.6871700648398</v>
       </c>
       <c r="I28" t="n">
-        <v>251143.2696043364</v>
+        <v>448791.0369088246</v>
       </c>
       <c r="J28" t="n">
-        <v>255246.7151902775</v>
+        <v>443013.5261387683</v>
       </c>
       <c r="K28" t="n">
-        <v>30487.4820770844</v>
+        <v>35764.08508157585</v>
       </c>
       <c r="L28" t="n">
-        <v>30985.61895311044</v>
+        <v>35303.67618356572</v>
       </c>
       <c r="M28" t="n">
-        <v>249285.8907041388</v>
+        <v>447363.7502390821</v>
       </c>
       <c r="N28" t="n">
-        <v>253358.9884600886</v>
+        <v>441604.6136419219</v>
       </c>
       <c r="O28" t="n">
-        <v>5296.985515890642</v>
+        <v>9817.539437161638</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6806376797732442</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.825</v>
+        <v>163.2352941176471</v>
       </c>
       <c r="R28" t="n">
-        <v>79</v>
+        <v>281.4117647058824</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.80675988444744</v>
+        <v>242.6925362854061</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.07115749525615911</v>
       </c>
       <c r="W28" t="n">
-        <v>77.5142159194415</v>
+        <v>77.72459464104253</v>
       </c>
       <c r="X28" t="n">
-        <v>38.32097580388893</v>
+        <v>39.00536622056623</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.485784080558503</v>
+        <v>-203.6871700648398</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.39333584731828</v>
+        <v>28.65548466068859</v>
       </c>
       <c r="AA28" t="n">
-        <v>21.5847236249688</v>
+        <v>30.15813521363538</v>
       </c>
       <c r="AB28" t="n">
-        <v>21.87911992787679</v>
+        <v>232.3426547255284</v>
       </c>
       <c r="AC28" t="n">
-        <v>23.0705077055273</v>
+        <v>233.8453052784752</v>
       </c>
       <c r="AD28" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>3.114109858870506e-09</v>
       </c>
     </row>
     <row r="29">
@@ -3074,91 +3074,91 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.116666666666674</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C29" t="n">
-        <v>167.9416666666667</v>
+        <v>170.5645161290323</v>
       </c>
       <c r="D29" t="n">
-        <v>165.8833333333333</v>
+        <v>166.9354838709677</v>
       </c>
       <c r="E29" t="n">
-        <v>170</v>
+        <v>174.1935483870968</v>
       </c>
       <c r="F29" t="n">
-        <v>1.831110740225327</v>
+        <v>204.485802373288</v>
       </c>
       <c r="G29" t="n">
-        <v>2.633054056944971</v>
+        <v>206.2240353981771</v>
       </c>
       <c r="H29" t="n">
-        <v>2.213413622112483</v>
+        <v>205.3312893036053</v>
       </c>
       <c r="I29" t="n">
-        <v>255246.7151902775</v>
+        <v>443013.5261387683</v>
       </c>
       <c r="J29" t="n">
-        <v>257766.3396339125</v>
+        <v>435043.0366262125</v>
       </c>
       <c r="K29" t="n">
-        <v>30985.61895311044</v>
+        <v>35303.67618356572</v>
       </c>
       <c r="L29" t="n">
-        <v>31291.48820928174</v>
+        <v>34668.50916456225</v>
       </c>
       <c r="M29" t="n">
-        <v>253358.9884600886</v>
+        <v>441604.6136419219</v>
       </c>
       <c r="N29" t="n">
-        <v>255859.9785310588</v>
+        <v>433659.4726156258</v>
       </c>
       <c r="O29" t="n">
-        <v>5296.985515890682</v>
+        <v>8662.534797495582</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6806376797732449</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q29" t="n">
-        <v>167.9416666666667</v>
+        <v>170.4838709677419</v>
       </c>
       <c r="R29" t="n">
-        <v>82.33333333333333</v>
+        <v>283.8279569892473</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>41.88960993561306</v>
+        <v>244.7191341720307</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.0806451612903345</v>
       </c>
       <c r="W29" t="n">
-        <v>80.11991971122085</v>
+        <v>78.49666768564197</v>
       </c>
       <c r="X29" t="n">
-        <v>39.67619631350058</v>
+        <v>39.38784486842539</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.213413622112483</v>
+        <v>-205.3312893036053</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.85709408341481</v>
+        <v>28.51401597486989</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.19802306094057</v>
+        <v>30.11629861947455</v>
       </c>
       <c r="AB29" t="n">
-        <v>23.0705077055273</v>
+        <v>233.8453052784752</v>
       </c>
       <c r="AC29" t="n">
-        <v>24.41143668305305</v>
+        <v>235.4475879230799</v>
       </c>
       <c r="AD29" t="n">
-        <v>-5.820766091346741e-10</v>
+        <v>-1.80443748831749e-09</v>
       </c>
     </row>
     <row r="30">
@@ -3166,91 +3166,91 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.027648418459165</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C30" t="n">
-        <v>172.0138242092296</v>
+        <v>177.8225806451613</v>
       </c>
       <c r="D30" t="n">
-        <v>170</v>
+        <v>174.1935483870968</v>
       </c>
       <c r="E30" t="n">
-        <v>174.0276484184592</v>
+        <v>181.4516129032258</v>
       </c>
       <c r="F30" t="n">
-        <v>2.633054056944971</v>
+        <v>206.2240353981771</v>
       </c>
       <c r="G30" t="n">
-        <v>3.563770125899708</v>
+        <v>208.1530627958157</v>
       </c>
       <c r="H30" t="n">
-        <v>3.080141543051639</v>
+        <v>207.1644728832798</v>
       </c>
       <c r="I30" t="n">
-        <v>257766.3396339125</v>
+        <v>435043.0366262125</v>
       </c>
       <c r="J30" t="n">
-        <v>255231.8680414693</v>
+        <v>424908.2708229553</v>
       </c>
       <c r="K30" t="n">
-        <v>31291.48820928174</v>
+        <v>34668.50916456225</v>
       </c>
       <c r="L30" t="n">
-        <v>30983.81658674044</v>
+        <v>33860.87131830292</v>
       </c>
       <c r="M30" t="n">
-        <v>255859.9785310588</v>
+        <v>433659.4726156258</v>
       </c>
       <c r="N30" t="n">
-        <v>253344.2511162573</v>
+        <v>423556.9383298062</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>7507.530157829507</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q30" t="n">
-        <v>172.0138242092296</v>
+        <v>177.7295285359801</v>
       </c>
       <c r="R30" t="n">
-        <v>84</v>
+        <v>286.2431761786601</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>43.18706120345391</v>
+        <v>246.8387087481186</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>0.09305210918114426</v>
       </c>
       <c r="W30" t="n">
-        <v>80.91985845694836</v>
+        <v>79.07870329538025</v>
       </c>
       <c r="X30" t="n">
-        <v>40.10691966040228</v>
+        <v>39.67423586483883</v>
       </c>
       <c r="Y30" t="n">
-        <v>-3.080141543051639</v>
+        <v>-207.1644728832798</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.33129514000141</v>
+        <v>28.28311503980007</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.03814062642269</v>
+        <v>29.98655460786392</v>
       </c>
       <c r="AB30" t="n">
-        <v>24.41143668305305</v>
+        <v>235.4475879230799</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.11828216947433</v>
+        <v>237.1510274911437</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.837623469531536e-10</v>
+        <v>-5.413312464952469e-09</v>
       </c>
     </row>
     <row r="31">
@@ -3258,91 +3258,91 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.027648418459137</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C31" t="n">
-        <v>176.0414726276887</v>
+        <v>185.0806451612903</v>
       </c>
       <c r="D31" t="n">
-        <v>174.0276484184592</v>
+        <v>181.4516129032258</v>
       </c>
       <c r="E31" t="n">
-        <v>178.0552968369183</v>
+        <v>188.7096774193548</v>
       </c>
       <c r="F31" t="n">
-        <v>3.563770125899708</v>
+        <v>208.1530627958157</v>
       </c>
       <c r="G31" t="n">
-        <v>4.642523644875027</v>
+        <v>210.2766955660039</v>
       </c>
       <c r="H31" t="n">
-        <v>4.084397180084295</v>
+        <v>209.1902962091213</v>
       </c>
       <c r="I31" t="n">
-        <v>255231.8680414693</v>
+        <v>424908.2708229553</v>
       </c>
       <c r="J31" t="n">
-        <v>251225.5982914919</v>
+        <v>412647.9517782449</v>
       </c>
       <c r="K31" t="n">
-        <v>30983.81658674044</v>
+        <v>33860.87131830292</v>
       </c>
       <c r="L31" t="n">
-        <v>30497.47634998702</v>
+        <v>32883.84847831387</v>
       </c>
       <c r="M31" t="n">
-        <v>253344.2511162573</v>
+        <v>423556.9383298062</v>
       </c>
       <c r="N31" t="n">
-        <v>249367.6105134748</v>
+        <v>411335.6106830966</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>6352.525518163415</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q31" t="n">
-        <v>176.0414726276887</v>
+        <v>184.9706744868035</v>
       </c>
       <c r="R31" t="n">
-        <v>84</v>
+        <v>288.6568914956011</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>43.70072448624472</v>
+        <v>249.0528808887719</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.1099706744868172</v>
       </c>
       <c r="W31" t="n">
-        <v>79.9156028199157</v>
+        <v>79.46659528647984</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61632730616043</v>
+        <v>39.86258467965064</v>
       </c>
       <c r="Y31" t="n">
-        <v>-4.084397180084295</v>
+        <v>-209.1902962091213</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.03388498939004</v>
+        <v>27.96073128202244</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.86581627664345</v>
+        <v>29.76682175152177</v>
       </c>
       <c r="AB31" t="n">
-        <v>25.11828216947433</v>
+        <v>237.1510274911437</v>
       </c>
       <c r="AC31" t="n">
-        <v>25.95021345672774</v>
+        <v>238.9571179606431</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.091393642127514e-10</v>
+        <v>5.762558430433273e-09</v>
       </c>
     </row>
     <row r="32">
@@ -3350,91 +3350,91 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.027648418459165</v>
+        <v>7.258064516129053</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0691210461479</v>
+        <v>192.3387096774193</v>
       </c>
       <c r="D32" t="n">
-        <v>178.0552968369183</v>
+        <v>188.7096774193548</v>
       </c>
       <c r="E32" t="n">
-        <v>182.0829452553775</v>
+        <v>195.9677419354839</v>
       </c>
       <c r="F32" t="n">
-        <v>4.642523644875027</v>
+        <v>210.2766955660039</v>
       </c>
       <c r="G32" t="n">
-        <v>5.873512403181891</v>
+        <v>212.5992475517777</v>
       </c>
       <c r="H32" t="n">
-        <v>5.238696639282509</v>
+        <v>211.4128161281079</v>
       </c>
       <c r="I32" t="n">
-        <v>251225.5982914919</v>
+        <v>412647.9517782449</v>
       </c>
       <c r="J32" t="n">
-        <v>245787.2542647926</v>
+        <v>398311.4170198725</v>
       </c>
       <c r="K32" t="n">
-        <v>30497.47634998702</v>
+        <v>32883.84847831387</v>
       </c>
       <c r="L32" t="n">
-        <v>29837.28977081162</v>
+        <v>31741.3723441981</v>
       </c>
       <c r="M32" t="n">
-        <v>249367.6105134748</v>
+        <v>411335.6106830966</v>
       </c>
       <c r="N32" t="n">
-        <v>243969.4868178364</v>
+        <v>397044.6702955295</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>5197.52087849737</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.3217505543966434</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.0691210461479</v>
+        <v>192.2043010752688</v>
       </c>
       <c r="R32" t="n">
-        <v>84</v>
+        <v>291.0681003584229</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>44.29150838722049</v>
+        <v>251.3634845635655</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.1344086021505291</v>
       </c>
       <c r="W32" t="n">
-        <v>78.76130336071749</v>
+        <v>79.65528423031503</v>
       </c>
       <c r="X32" t="n">
-        <v>39.05281174793798</v>
+        <v>39.95066843545769</v>
       </c>
       <c r="Y32" t="n">
-        <v>-5.238696639282509</v>
+        <v>-211.4128161281079</v>
       </c>
       <c r="Z32" t="n">
-        <v>20.71151681744523</v>
+        <v>27.54430183253521</v>
       </c>
       <c r="AA32" t="n">
-        <v>21.667812399406</v>
+        <v>29.45446398684302</v>
       </c>
       <c r="AB32" t="n">
-        <v>25.95021345672774</v>
+        <v>238.9571179606431</v>
       </c>
       <c r="AC32" t="n">
-        <v>26.90650903868851</v>
+        <v>240.8672801149509</v>
       </c>
       <c r="AD32" t="n">
-        <v>-4.001776687800884e-10</v>
+        <v>-3.259629011154175e-09</v>
       </c>
     </row>
     <row r="33">
@@ -3442,91 +3442,91 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.027648418459165</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C33" t="n">
-        <v>184.0967694646071</v>
+        <v>199.5967741935484</v>
       </c>
       <c r="D33" t="n">
-        <v>182.0829452553775</v>
+        <v>195.9677419354839</v>
       </c>
       <c r="E33" t="n">
-        <v>186.1105936738366</v>
+        <v>203.2258064516129</v>
       </c>
       <c r="F33" t="n">
-        <v>5.873512403181891</v>
+        <v>212.5992475517777</v>
       </c>
       <c r="G33" t="n">
-        <v>7.261723058294422</v>
+        <v>215.1255840156682</v>
       </c>
       <c r="H33" t="n">
-        <v>6.54761960438482</v>
+        <v>213.8366156017871</v>
       </c>
       <c r="I33" t="n">
-        <v>245787.2542647926</v>
+        <v>398311.4170198725</v>
       </c>
       <c r="J33" t="n">
-        <v>238981.3413216767</v>
+        <v>381959.3493463154</v>
       </c>
       <c r="K33" t="n">
-        <v>29837.28977081162</v>
+        <v>31741.3723441981</v>
       </c>
       <c r="L33" t="n">
-        <v>29011.08746326684</v>
+        <v>30438.27871834303</v>
       </c>
       <c r="M33" t="n">
-        <v>243969.4868178364</v>
+        <v>397044.6702955295</v>
       </c>
       <c r="N33" t="n">
-        <v>237213.9083277083</v>
+        <v>380744.6069765468</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>4042.516238831271</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q33" t="n">
-        <v>184.0967694646071</v>
+        <v>199.4239631336405</v>
       </c>
       <c r="R33" t="n">
-        <v>84</v>
+        <v>293.4746543778802</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>44.96193838809383</v>
+        <v>253.7725832130553</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.1728110599078434</v>
       </c>
       <c r="W33" t="n">
-        <v>77.45238039561518</v>
+        <v>79.63803877609308</v>
       </c>
       <c r="X33" t="n">
-        <v>38.41431878370901</v>
+        <v>39.93596761126818</v>
       </c>
       <c r="Y33" t="n">
-        <v>-6.54761960438482</v>
+        <v>-213.8366156017871</v>
       </c>
       <c r="Z33" t="n">
-        <v>20.35888943430369</v>
+        <v>27.03066451316377</v>
       </c>
       <c r="AA33" t="n">
-        <v>21.43827961044553</v>
+        <v>29.04617964204542</v>
       </c>
       <c r="AB33" t="n">
-        <v>26.90650903868851</v>
+        <v>240.8672801149509</v>
       </c>
       <c r="AC33" t="n">
-        <v>27.98589921483035</v>
+        <v>242.8827952438325</v>
       </c>
       <c r="AD33" t="n">
-        <v>-1.673470251262188e-10</v>
+        <v>3.346940502524376e-09</v>
       </c>
     </row>
     <row r="34">
@@ -3534,91 +3534,91 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.027648418459165</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C34" t="n">
-        <v>188.1244178830662</v>
+        <v>206.8548387096774</v>
       </c>
       <c r="D34" t="n">
-        <v>186.1105936738366</v>
+        <v>203.2258064516129</v>
       </c>
       <c r="E34" t="n">
-        <v>190.1382420922958</v>
+        <v>210.4838709677419</v>
       </c>
       <c r="F34" t="n">
-        <v>7.261723058294422</v>
+        <v>215.1255840156682</v>
       </c>
       <c r="G34" t="n">
-        <v>8.813044376521873</v>
+        <v>217.8611791050665</v>
       </c>
       <c r="H34" t="n">
-        <v>8.016587914786768</v>
+        <v>216.4668565329111</v>
       </c>
       <c r="I34" t="n">
-        <v>238981.3413216767</v>
+        <v>381959.3493463154</v>
       </c>
       <c r="J34" t="n">
-        <v>230854.9331531558</v>
+        <v>363664.6659444986</v>
       </c>
       <c r="K34" t="n">
-        <v>29011.08746326684</v>
+        <v>30438.27871834303</v>
       </c>
       <c r="L34" t="n">
-        <v>28024.58392773839</v>
+        <v>28980.37835957094</v>
       </c>
       <c r="M34" t="n">
-        <v>237213.9083277083</v>
+        <v>380744.6069765468</v>
       </c>
       <c r="N34" t="n">
-        <v>229147.6005914641</v>
+        <v>362508.1060151068</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2887.511599165189</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.3217505543966375</v>
       </c>
       <c r="Q34" t="n">
-        <v>188.1244178830662</v>
+        <v>206.6129032258064</v>
       </c>
       <c r="R34" t="n">
-        <v>84</v>
+        <v>295.8709677419355</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.7150209015348</v>
+        <v>256.2824885544587</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.2419354838709751</v>
       </c>
       <c r="W34" t="n">
-        <v>75.98341208521323</v>
+        <v>79.40411120902439</v>
       </c>
       <c r="X34" t="n">
-        <v>37.69843298674803</v>
+        <v>39.81563202154757</v>
       </c>
       <c r="Y34" t="n">
-        <v>-8.016587914786768</v>
+        <v>-216.4668565329111</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.96931130004358</v>
+        <v>26.41593871092144</v>
       </c>
       <c r="AA34" t="n">
-        <v>21.17350643606788</v>
+        <v>28.53784593085166</v>
       </c>
       <c r="AB34" t="n">
-        <v>27.98589921483035</v>
+        <v>242.8827952438325</v>
       </c>
       <c r="AC34" t="n">
-        <v>29.19009435085465</v>
+        <v>245.0047024637628</v>
       </c>
       <c r="AD34" t="n">
-        <v>-7.275957614183426e-11</v>
+        <v>4.627509042620659e-09</v>
       </c>
     </row>
     <row r="35">
@@ -3626,91 +3626,91 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.027648418459137</v>
+        <v>7.258064516129053</v>
       </c>
       <c r="C35" t="n">
-        <v>192.1520663015254</v>
+        <v>214.1129032258065</v>
       </c>
       <c r="D35" t="n">
-        <v>190.1382420922958</v>
+        <v>210.4838709677419</v>
       </c>
       <c r="E35" t="n">
-        <v>194.1658905107549</v>
+        <v>217.741935483871</v>
       </c>
       <c r="F35" t="n">
-        <v>8.813044376521873</v>
+        <v>217.8611791050665</v>
       </c>
       <c r="G35" t="n">
-        <v>10.53441083936717</v>
+        <v>220.8121839540415</v>
       </c>
       <c r="H35" t="n">
-        <v>9.651993024357012</v>
+        <v>219.3093423047754</v>
       </c>
       <c r="I35" t="n">
-        <v>230854.9331531558</v>
+        <v>363664.6659444986</v>
       </c>
       <c r="J35" t="n">
-        <v>221459.9233508941</v>
+        <v>343513.5929790863</v>
       </c>
       <c r="K35" t="n">
-        <v>28024.58392773839</v>
+        <v>28980.37835957094</v>
       </c>
       <c r="L35" t="n">
-        <v>26884.0787753935</v>
+        <v>27374.54261698577</v>
       </c>
       <c r="M35" t="n">
-        <v>229147.6005914641</v>
+        <v>362508.1060151068</v>
       </c>
       <c r="N35" t="n">
-        <v>219822.0734116169</v>
+        <v>342421.1193514678</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1732.506959499122</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.3217505543966434</v>
       </c>
       <c r="Q35" t="n">
-        <v>192.1520663015254</v>
+        <v>213.7096774193548</v>
       </c>
       <c r="R35" t="n">
-        <v>84</v>
+        <v>298.2365591397849</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>46.55432349078631</v>
+        <v>258.8957820404764</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.4032258064516441</v>
       </c>
       <c r="W35" t="n">
-        <v>74.34800697564299</v>
+        <v>78.92721683500946</v>
       </c>
       <c r="X35" t="n">
-        <v>36.9023304664293</v>
+        <v>39.58643973570094</v>
       </c>
       <c r="Y35" t="n">
-        <v>-9.651993024357012</v>
+        <v>-219.3093423047754</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.53810132649764</v>
+        <v>25.69536015898731</v>
       </c>
       <c r="AA35" t="n">
-        <v>20.86999436465773</v>
+        <v>27.92429698521221</v>
       </c>
       <c r="AB35" t="n">
-        <v>29.19009435085465</v>
+        <v>245.0047024637628</v>
       </c>
       <c r="AC35" t="n">
-        <v>30.52198738901474</v>
+        <v>247.2336392899877</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.619344741106033e-10</v>
+        <v>-2.641172613948584e-09</v>
       </c>
     </row>
     <row r="36">
@@ -3718,91 +3718,91 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.027648418459165</v>
+        <v>7.258064516129025</v>
       </c>
       <c r="C36" t="n">
-        <v>196.1797147199845</v>
+        <v>221.3709677419355</v>
       </c>
       <c r="D36" t="n">
-        <v>194.1658905107549</v>
+        <v>217.741935483871</v>
       </c>
       <c r="E36" t="n">
-        <v>198.1935389292141</v>
+        <v>225</v>
       </c>
       <c r="F36" t="n">
-        <v>10.53441083936717</v>
+        <v>220.8121839540415</v>
       </c>
       <c r="G36" t="n">
-        <v>12.43398577531013</v>
+        <v>223.9855076268639</v>
       </c>
       <c r="H36" t="n">
-        <v>11.46135802774664</v>
+        <v>222.3705919946771</v>
       </c>
       <c r="I36" t="n">
-        <v>221459.9233508941</v>
+        <v>343513.5929790863</v>
       </c>
       <c r="J36" t="n">
-        <v>210853.9398031413</v>
+        <v>321606.9601041133</v>
       </c>
       <c r="K36" t="n">
-        <v>26884.0787753935</v>
+        <v>27374.54261698577</v>
       </c>
       <c r="L36" t="n">
-        <v>25596.5677310745</v>
+        <v>25628.8065893954</v>
       </c>
       <c r="M36" t="n">
-        <v>219822.0734116169</v>
+        <v>342421.1193514678</v>
       </c>
       <c r="N36" t="n">
-        <v>209294.5284781598</v>
+        <v>320584.1559718947</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>577.5023198330377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.3217505543966445</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1797147199845</v>
+        <v>220.1612903225806</v>
       </c>
       <c r="R36" t="n">
-        <v>84</v>
+        <v>300.3870967741935</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>47.48407877153981</v>
+        <v>261.6153391698043</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.209677419354847</v>
       </c>
       <c r="W36" t="n">
-        <v>72.53864197225336</v>
+        <v>78.01650477951642</v>
       </c>
       <c r="X36" t="n">
-        <v>36.02272074379317</v>
+        <v>39.24474717512715</v>
       </c>
       <c r="Y36" t="n">
-        <v>-11.46135802774664</v>
+        <v>-222.3705919946771</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.0606293612681</v>
+        <v>24.86304729531054</v>
       </c>
       <c r="AA36" t="n">
-        <v>20.5243486029464</v>
+        <v>27.1989990645271</v>
       </c>
       <c r="AB36" t="n">
-        <v>30.52198738901474</v>
+        <v>247.2336392899877</v>
       </c>
       <c r="AC36" t="n">
-        <v>31.98570663069304</v>
+        <v>249.5695910592042</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.619344741106033e-10</v>
+        <v>-3.468812792561948e-09</v>
       </c>
     </row>
     <row r="37">
@@ -3810,61 +3810,61 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.027648418459165</v>
+        <v>6.371763938475624</v>
       </c>
       <c r="C37" t="n">
-        <v>200.2073631384437</v>
+        <v>228.1858819692378</v>
       </c>
       <c r="D37" t="n">
-        <v>198.1935389292141</v>
+        <v>225</v>
       </c>
       <c r="E37" t="n">
-        <v>202.2211873476733</v>
+        <v>231.3717639384756</v>
       </c>
       <c r="F37" t="n">
-        <v>12.43398577531013</v>
+        <v>223.9855076268639</v>
       </c>
       <c r="G37" t="n">
-        <v>14.52139686873703</v>
+        <v>226.9606994594122</v>
       </c>
       <c r="H37" t="n">
-        <v>13.45354508337684</v>
+        <v>225.4505879376745</v>
       </c>
       <c r="I37" t="n">
-        <v>210853.9398031413</v>
+        <v>321606.9601041133</v>
       </c>
       <c r="J37" t="n">
-        <v>199101.483360557</v>
+        <v>301072.6645942341</v>
       </c>
       <c r="K37" t="n">
-        <v>25596.5677310745</v>
+        <v>25628.8065893954</v>
       </c>
       <c r="L37" t="n">
-        <v>24169.88086138657</v>
+        <v>23992.43190427721</v>
       </c>
       <c r="M37" t="n">
-        <v>209294.5284781598</v>
+        <v>320584.1559718947</v>
       </c>
       <c r="N37" t="n">
-        <v>197628.9896131651</v>
+        <v>300115.1655234883</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.3217505543966395</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.2073631384437</v>
+        <v>228.1858819692378</v>
       </c>
       <c r="R37" t="n">
-        <v>84</v>
+        <v>303.0619606564126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>48.50932041657803</v>
+        <v>264.2684260187558</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3873,28 +3873,28 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>70.54645491662316</v>
+        <v>77.6113727187381</v>
       </c>
       <c r="X37" t="n">
-        <v>35.05577533320119</v>
+        <v>38.81783808108133</v>
       </c>
       <c r="Y37" t="n">
-        <v>-13.45354508337684</v>
+        <v>-225.4505879376745</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.5321615473162</v>
+        <v>24.11900312152974</v>
       </c>
       <c r="AA37" t="n">
-        <v>20.13318440527235</v>
+        <v>26.29076625916068</v>
       </c>
       <c r="AB37" t="n">
-        <v>31.98570663069304</v>
+        <v>249.5695910592042</v>
       </c>
       <c r="AC37" t="n">
-        <v>33.58672948864918</v>
+        <v>251.7413541968351</v>
       </c>
       <c r="AD37" t="n">
-        <v>8.949427865445614e-10</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="38">
@@ -3902,61 +3902,61 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.027648418459137</v>
+        <v>5.77000730906218</v>
       </c>
       <c r="C38" t="n">
-        <v>204.2350115569028</v>
+        <v>234.2567675930067</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2211873476733</v>
+        <v>231.3717639384756</v>
       </c>
       <c r="E38" t="n">
-        <v>206.2488357661324</v>
+        <v>237.1417712475378</v>
       </c>
       <c r="F38" t="n">
-        <v>14.52139686873703</v>
+        <v>226.9606994594122</v>
       </c>
       <c r="G38" t="n">
-        <v>16.80804238074877</v>
+        <v>229.8127786532309</v>
       </c>
       <c r="H38" t="n">
-        <v>15.63902354877284</v>
+        <v>228.3676743178798</v>
       </c>
       <c r="I38" t="n">
-        <v>199101.483360557</v>
+        <v>301072.6645942341</v>
       </c>
       <c r="J38" t="n">
-        <v>186275.3668722066</v>
+        <v>284622.3762126812</v>
       </c>
       <c r="K38" t="n">
-        <v>24169.88086138657</v>
+        <v>23992.43190427721</v>
       </c>
       <c r="L38" t="n">
-        <v>22612.8572661565</v>
+        <v>22681.51108610178</v>
       </c>
       <c r="M38" t="n">
-        <v>197628.9896131651</v>
+        <v>300115.1655234883</v>
       </c>
       <c r="N38" t="n">
-        <v>184897.7311641103</v>
+        <v>283717.1938670691</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.3217505543966451</v>
       </c>
       <c r="Q38" t="n">
-        <v>204.2350115569028</v>
+        <v>234.2567675930067</v>
       </c>
       <c r="R38" t="n">
-        <v>84</v>
+        <v>305.0855891976689</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.63606368927006</v>
+        <v>266.7266317577744</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3965,28 +3965,28 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>68.36097645122716</v>
+        <v>76.71791487978908</v>
       </c>
       <c r="X38" t="n">
-        <v>33.99704014049722</v>
+        <v>38.35895743989454</v>
       </c>
       <c r="Y38" t="n">
-        <v>-15.63902354877284</v>
+        <v>-228.3676743178798</v>
       </c>
       <c r="Z38" t="n">
-        <v>17.94770593987634</v>
+        <v>23.3736798789553</v>
       </c>
       <c r="AA38" t="n">
-        <v>19.693044249177</v>
+        <v>25.19921406389656</v>
       </c>
       <c r="AB38" t="n">
-        <v>33.58672948864918</v>
+        <v>251.7413541968351</v>
       </c>
       <c r="AC38" t="n">
-        <v>35.33206779794984</v>
+        <v>253.5668883817764</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.309672370553017e-10</v>
+        <v>-1.986336428672075e-09</v>
       </c>
     </row>
     <row r="39">
@@ -3994,61 +3994,61 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.027648418459165</v>
+        <v>5.770007309062208</v>
       </c>
       <c r="C39" t="n">
-        <v>208.262659975362</v>
+        <v>240.0267749020689</v>
       </c>
       <c r="D39" t="n">
-        <v>206.2488357661324</v>
+        <v>237.1417712475378</v>
       </c>
       <c r="E39" t="n">
-        <v>210.2764841845916</v>
+        <v>242.9117785566</v>
       </c>
       <c r="F39" t="n">
-        <v>16.80804238074877</v>
+        <v>229.8127786532309</v>
       </c>
       <c r="G39" t="n">
-        <v>19.3074947550774</v>
+        <v>232.8198668504911</v>
       </c>
       <c r="H39" t="n">
-        <v>18.03022088460851</v>
+        <v>231.296627653233</v>
       </c>
       <c r="I39" t="n">
-        <v>186275.3668722066</v>
+        <v>284622.3762126812</v>
       </c>
       <c r="J39" t="n">
-        <v>172461.1155774424</v>
+        <v>267371.8439142802</v>
       </c>
       <c r="K39" t="n">
-        <v>22612.8572661565</v>
+        <v>22681.51108610178</v>
       </c>
       <c r="L39" t="n">
-        <v>20935.87926303906</v>
+        <v>21306.81895973513</v>
       </c>
       <c r="M39" t="n">
-        <v>184897.7311641103</v>
+        <v>283717.1938670691</v>
       </c>
       <c r="N39" t="n">
-        <v>171185.6458518044</v>
+        <v>266521.5233033521</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.3217505543966437</v>
       </c>
       <c r="Q39" t="n">
-        <v>208.262659975362</v>
+        <v>240.0267749020689</v>
       </c>
       <c r="R39" t="n">
-        <v>84</v>
+        <v>307.0089249673563</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>50.87154931840715</v>
+        <v>269.1527763102946</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4057,28 +4057,28 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>65.96977911539149</v>
+        <v>75.7122973141233</v>
       </c>
       <c r="X39" t="n">
-        <v>32.84132843379864</v>
+        <v>37.85614865706162</v>
       </c>
       <c r="Y39" t="n">
-        <v>-18.03022088460851</v>
+        <v>-231.296627653233</v>
       </c>
       <c r="Z39" t="n">
-        <v>17.30184691334133</v>
+        <v>22.27026072854343</v>
       </c>
       <c r="AA39" t="n">
-        <v>19.20004287026958</v>
+        <v>24.18327155587073</v>
       </c>
       <c r="AB39" t="n">
-        <v>35.33206779794984</v>
+        <v>253.5668883817764</v>
       </c>
       <c r="AC39" t="n">
-        <v>37.2302637548781</v>
+        <v>255.4798992091037</v>
       </c>
       <c r="AD39" t="n">
-        <v>-7.275957614183426e-10</v>
+        <v>1.491571310907602e-09</v>
       </c>
     </row>
     <row r="40">
@@ -4086,61 +4086,61 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.027648418459165</v>
+        <v>6.772055360850004</v>
       </c>
       <c r="C40" t="n">
-        <v>212.2903083938211</v>
+        <v>246.297806237025</v>
       </c>
       <c r="D40" t="n">
-        <v>210.2764841845916</v>
+        <v>242.9117785566</v>
       </c>
       <c r="E40" t="n">
-        <v>214.3041326030507</v>
+        <v>249.68383391745</v>
       </c>
       <c r="F40" t="n">
-        <v>19.3074947550774</v>
+        <v>232.8198668504911</v>
       </c>
       <c r="G40" t="n">
-        <v>22.03604130018653</v>
+        <v>236.5540855056332</v>
       </c>
       <c r="H40" t="n">
-        <v>20.64198876655972</v>
+        <v>234.6588009934494</v>
       </c>
       <c r="I40" t="n">
-        <v>172461.1155774424</v>
+        <v>267371.8439142802</v>
       </c>
       <c r="J40" t="n">
-        <v>157792.3258637912</v>
+        <v>243573.6382356466</v>
       </c>
       <c r="K40" t="n">
-        <v>20935.87926303906</v>
+        <v>21306.81895973513</v>
       </c>
       <c r="L40" t="n">
-        <v>19155.16475616805</v>
+        <v>19410.34380162629</v>
       </c>
       <c r="M40" t="n">
-        <v>171185.6458518044</v>
+        <v>266521.5233033521</v>
       </c>
       <c r="N40" t="n">
-        <v>156625.3420257045</v>
+        <v>242799.0028745017</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.3217505543966397</v>
       </c>
       <c r="Q40" t="n">
-        <v>212.2903083938211</v>
+        <v>246.297806237025</v>
       </c>
       <c r="R40" t="n">
-        <v>84</v>
+        <v>309.099268745675</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.22458006874904</v>
+        <v>271.9344359385564</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4149,28 +4149,28 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.35801123344028</v>
+        <v>74.44046775222557</v>
       </c>
       <c r="X40" t="n">
-        <v>31.58259130218932</v>
+        <v>37.27563494510702</v>
       </c>
       <c r="Y40" t="n">
-        <v>-20.64198876655972</v>
+        <v>-234.6588009934494</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.58827498831837</v>
+        <v>20.8210982156543</v>
       </c>
       <c r="AA40" t="n">
-        <v>18.64583881950917</v>
+        <v>23.42324386069578</v>
       </c>
       <c r="AB40" t="n">
-        <v>37.2302637548781</v>
+        <v>255.4798992091037</v>
       </c>
       <c r="AC40" t="n">
-        <v>39.28782758606889</v>
+        <v>258.0820448541452</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.275957614183426e-11</v>
+        <v>-2.735760062932968e-09</v>
       </c>
     </row>
     <row r="41">
@@ -4178,61 +4178,61 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.027648418459137</v>
+        <v>6.772055360849976</v>
       </c>
       <c r="C41" t="n">
-        <v>216.3179568122803</v>
+        <v>253.069861597875</v>
       </c>
       <c r="D41" t="n">
-        <v>214.3041326030507</v>
+        <v>249.68383391745</v>
       </c>
       <c r="E41" t="n">
-        <v>218.3317810215099</v>
+        <v>256.4558892783</v>
       </c>
       <c r="F41" t="n">
-        <v>22.03604130018653</v>
+        <v>236.5540855056332</v>
       </c>
       <c r="G41" t="n">
-        <v>25.01342256816848</v>
+        <v>240.5186813850825</v>
       </c>
       <c r="H41" t="n">
-        <v>23.49223328601101</v>
+        <v>238.5069456555158</v>
       </c>
       <c r="I41" t="n">
-        <v>157792.3258637912</v>
+        <v>243573.6382356466</v>
       </c>
       <c r="J41" t="n">
-        <v>142383.6255441431</v>
+        <v>218863.1605997958</v>
       </c>
       <c r="K41" t="n">
-        <v>19155.16475616805</v>
+        <v>19410.34380162629</v>
       </c>
       <c r="L41" t="n">
-        <v>17284.6289637236</v>
+        <v>17441.16983892416</v>
       </c>
       <c r="M41" t="n">
-        <v>156625.3420257045</v>
+        <v>242799.0028745017</v>
       </c>
       <c r="N41" t="n">
-        <v>141330.5997464143</v>
+        <v>218167.1117798964</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.3217505543966409</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.3179568122803</v>
+        <v>253.069861597875</v>
       </c>
       <c r="R41" t="n">
-        <v>84</v>
+        <v>311.356620532625</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>53.7059974721163</v>
+        <v>275.0727860190318</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4241,28 +4241,28 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>60.50776671398899</v>
+        <v>72.84967487710924</v>
       </c>
       <c r="X41" t="n">
-        <v>30.21376418610529</v>
+        <v>36.56584036351603</v>
       </c>
       <c r="Y41" t="n">
-        <v>-23.49223328601101</v>
+        <v>-238.5069456555158</v>
       </c>
       <c r="Z41" t="n">
-        <v>15.79559430005787</v>
+        <v>19.5750991986294</v>
       </c>
       <c r="AA41" t="n">
-        <v>18.02421912232005</v>
+        <v>22.35714985662014</v>
       </c>
       <c r="AB41" t="n">
-        <v>39.28782758606889</v>
+        <v>258.0820448541452</v>
       </c>
       <c r="AC41" t="n">
-        <v>41.51645240833106</v>
+        <v>260.8640955121359</v>
       </c>
       <c r="AD41" t="n">
-        <v>-5.675246939063072e-10</v>
+        <v>-1.600710675120354e-10</v>
       </c>
     </row>
     <row r="42">
@@ -4270,61 +4270,61 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.027648418459165</v>
+        <v>6.772055360850004</v>
       </c>
       <c r="C42" t="n">
-        <v>220.3456052307395</v>
+        <v>259.841916958725</v>
       </c>
       <c r="D42" t="n">
-        <v>218.3317810215099</v>
+        <v>256.4558892783</v>
       </c>
       <c r="E42" t="n">
-        <v>222.359429439969</v>
+        <v>263.22794463915</v>
       </c>
       <c r="F42" t="n">
-        <v>25.01342256816848</v>
+        <v>240.5186813850825</v>
       </c>
       <c r="G42" t="n">
-        <v>28.26386384459802</v>
+        <v>244.7243879864773</v>
       </c>
       <c r="H42" t="n">
-        <v>26.60278498577398</v>
+        <v>242.5906730847539</v>
       </c>
       <c r="I42" t="n">
-        <v>142383.6255441431</v>
+        <v>218863.1605997958</v>
       </c>
       <c r="J42" t="n">
-        <v>126370.7981802917</v>
+        <v>193373.033368489</v>
       </c>
       <c r="K42" t="n">
-        <v>17284.6289637236</v>
+        <v>17441.16983892416</v>
       </c>
       <c r="L42" t="n">
-        <v>15340.75530137945</v>
+        <v>15409.86572616878</v>
       </c>
       <c r="M42" t="n">
-        <v>141330.5997464143</v>
+        <v>218167.1117798964</v>
       </c>
       <c r="N42" t="n">
-        <v>125436.1983619848</v>
+        <v>192758.0506034241</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.3217505543966472</v>
       </c>
       <c r="Q42" t="n">
-        <v>220.3456052307395</v>
+        <v>259.841916958725</v>
       </c>
       <c r="R42" t="n">
-        <v>84</v>
+        <v>313.613972319575</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>55.32937878385028</v>
+        <v>278.2949315780608</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4333,28 +4333,28 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>57.39721501422602</v>
+        <v>71.02329923482114</v>
       </c>
       <c r="X42" t="n">
-        <v>28.7265937980763</v>
+        <v>35.70425849330695</v>
       </c>
       <c r="Y42" t="n">
-        <v>-26.60278498577398</v>
+        <v>-242.5906730847539</v>
       </c>
       <c r="Z42" t="n">
-        <v>14.91366742255708</v>
+        <v>18.27342242738206</v>
       </c>
       <c r="AA42" t="n">
-        <v>17.32720999439771</v>
+        <v>21.25926412018384</v>
       </c>
       <c r="AB42" t="n">
-        <v>41.51645240833106</v>
+        <v>260.8640955121359</v>
       </c>
       <c r="AC42" t="n">
-        <v>43.92999498017168</v>
+        <v>263.8499372049377</v>
       </c>
       <c r="AD42" t="n">
-        <v>4.911271389573812e-10</v>
+        <v>-1.360604073852301e-09</v>
       </c>
     </row>
     <row r="43">
@@ -4362,61 +4362,61 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.027648418459165</v>
+        <v>6.772055360850004</v>
       </c>
       <c r="C43" t="n">
-        <v>224.3732536491986</v>
+        <v>266.613972319575</v>
       </c>
       <c r="D43" t="n">
-        <v>222.359429439969</v>
+        <v>263.22794463915</v>
       </c>
       <c r="E43" t="n">
-        <v>226.3870778584282</v>
+        <v>270</v>
       </c>
       <c r="F43" t="n">
-        <v>28.26386384459802</v>
+        <v>244.7243879864773</v>
       </c>
       <c r="G43" t="n">
-        <v>31.8175552750654</v>
+        <v>249.18333388708</v>
       </c>
       <c r="H43" t="n">
-        <v>30.00062997364937</v>
+        <v>246.9213872570582</v>
       </c>
       <c r="I43" t="n">
-        <v>126370.7981802917</v>
+        <v>193373.033368489</v>
       </c>
       <c r="J43" t="n">
-        <v>109917.2460383836</v>
+        <v>167258.0778999777</v>
       </c>
       <c r="K43" t="n">
-        <v>15340.75530137945</v>
+        <v>15409.86572616878</v>
       </c>
       <c r="L43" t="n">
-        <v>13343.37995136078</v>
+        <v>13328.76915233692</v>
       </c>
       <c r="M43" t="n">
-        <v>125436.1983619848</v>
+        <v>192758.0506034241</v>
       </c>
       <c r="N43" t="n">
-        <v>109104.3316653202</v>
+        <v>166726.1483261661</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.3217505543966397</v>
       </c>
       <c r="Q43" t="n">
-        <v>224.3732536491986</v>
+        <v>266.613972319575</v>
       </c>
       <c r="R43" t="n">
-        <v>84</v>
+        <v>315.871324106525</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.11209625315113</v>
+        <v>281.6053913095525</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4425,28 +4425,28 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>53.99937002635063</v>
+        <v>68.94993684946678</v>
       </c>
       <c r="X43" t="n">
-        <v>27.11146627950176</v>
+        <v>34.68400405249429</v>
       </c>
       <c r="Y43" t="n">
-        <v>-30.00062997364937</v>
+        <v>-246.9213872570582</v>
       </c>
       <c r="Z43" t="n">
-        <v>13.92936500652232</v>
+        <v>16.9285499478795</v>
       </c>
       <c r="AA43" t="n">
-        <v>16.54390224894387</v>
+        <v>20.1553513616725</v>
       </c>
       <c r="AB43" t="n">
-        <v>43.92999498017168</v>
+        <v>263.8499372049377</v>
       </c>
       <c r="AC43" t="n">
-        <v>46.54453222259323</v>
+        <v>267.0767386187307</v>
       </c>
       <c r="AD43" t="n">
-        <v>-2.546585164964199e-11</v>
+        <v>4.321918822824955e-09</v>
       </c>
     </row>
     <row r="44">
@@ -4454,43 +4454,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.027648418459137</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>228.4009020676578</v>
+        <v>275</v>
       </c>
       <c r="D44" t="n">
-        <v>226.3870778584282</v>
+        <v>270</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4147262768873</v>
+        <v>280</v>
       </c>
       <c r="F44" t="n">
-        <v>31.8175552750654</v>
+        <v>249.18333388708</v>
       </c>
       <c r="G44" t="n">
-        <v>35.71284478021333</v>
+        <v>256.2603848366048</v>
       </c>
       <c r="H44" t="n">
-        <v>33.71970367284916</v>
+        <v>252.6460026601551</v>
       </c>
       <c r="I44" t="n">
-        <v>109917.2460383836</v>
+        <v>167258.0778999777</v>
       </c>
       <c r="J44" t="n">
-        <v>93223.32652384539</v>
+        <v>128702.7715330616</v>
       </c>
       <c r="K44" t="n">
-        <v>13343.37995136078</v>
+        <v>13328.76915233692</v>
       </c>
       <c r="L44" t="n">
-        <v>11316.82525691243</v>
+        <v>10256.30302923843</v>
       </c>
       <c r="M44" t="n">
-        <v>109104.3316653202</v>
+        <v>166726.1483261661</v>
       </c>
       <c r="N44" t="n">
-        <v>92533.8752796834</v>
+        <v>128293.4591024183</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4499,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>228.4009020676578</v>
+        <v>275</v>
       </c>
       <c r="R44" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>59.07700694729628</v>
+        <v>284.9911960405029</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>50.28029632715084</v>
+        <v>64.35399733984491</v>
       </c>
       <c r="X44" t="n">
-        <v>25.35730327444712</v>
+        <v>32.34519338034784</v>
       </c>
       <c r="Y44" t="n">
-        <v>-33.71970367284916</v>
+        <v>-252.6460026601551</v>
       </c>
       <c r="Z44" t="n">
-        <v>12.82482854974407</v>
+        <v>14.43073595857561</v>
       </c>
       <c r="AA44" t="n">
-        <v>15.65811073529364</v>
+        <v>19.67291553638933</v>
       </c>
       <c r="AB44" t="n">
-        <v>46.54453222259323</v>
+        <v>267.0767386187307</v>
       </c>
       <c r="AC44" t="n">
-        <v>49.3778144081428</v>
+        <v>272.3189181965444</v>
       </c>
       <c r="AD44" t="n">
-        <v>-5.456968210637569e-11</v>
+        <v>2.35741026699543e-09</v>
       </c>
     </row>
     <row r="45">
@@ -4546,43 +4546,43 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.027648418459165</v>
+        <v>7.5</v>
       </c>
       <c r="C45" t="n">
-        <v>232.4285504861169</v>
+        <v>283.75</v>
       </c>
       <c r="D45" t="n">
-        <v>230.4147262768873</v>
+        <v>280</v>
       </c>
       <c r="E45" t="n">
-        <v>234.4423746953465</v>
+        <v>287.5</v>
       </c>
       <c r="F45" t="n">
-        <v>35.71284478021333</v>
+        <v>256.2603848366048</v>
       </c>
       <c r="G45" t="n">
-        <v>39.99961494556892</v>
+        <v>261.9816183569009</v>
       </c>
       <c r="H45" t="n">
-        <v>37.80359764626859</v>
+        <v>259.0748300820356</v>
       </c>
       <c r="I45" t="n">
-        <v>93223.32652384539</v>
+        <v>128702.7715330616</v>
       </c>
       <c r="J45" t="n">
-        <v>76540.33843123008</v>
+        <v>101391.0935191998</v>
       </c>
       <c r="K45" t="n">
-        <v>11316.82525691243</v>
+        <v>10256.30302923843</v>
       </c>
       <c r="L45" t="n">
-        <v>9291.597580028514</v>
+        <v>8079.83982949142</v>
       </c>
       <c r="M45" t="n">
-        <v>92533.8752796834</v>
+        <v>128293.4591024183</v>
       </c>
       <c r="N45" t="n">
-        <v>75974.26947051247</v>
+        <v>101068.6402072813</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4591,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.4285504861169</v>
+        <v>283.75</v>
       </c>
       <c r="R45" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>61.255319878409</v>
+        <v>288.1387100449879</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4609,28 +4609,28 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.19640235373141</v>
+        <v>57.92516991796435</v>
       </c>
       <c r="X45" t="n">
-        <v>23.45172223214041</v>
+        <v>29.06387996295223</v>
       </c>
       <c r="Y45" t="n">
-        <v>-37.80359764626859</v>
+        <v>-259.0748300820356</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.57421676187422</v>
+        <v>13.24408811450877</v>
       </c>
       <c r="AA45" t="n">
-        <v>14.64323222690748</v>
+        <v>17.49197781786745</v>
       </c>
       <c r="AB45" t="n">
-        <v>49.3778144081428</v>
+        <v>272.3189181965444</v>
       </c>
       <c r="AC45" t="n">
-        <v>52.44682987317606</v>
+        <v>276.5668078999031</v>
       </c>
       <c r="AD45" t="n">
-        <v>-2.728484105318785e-10</v>
+        <v>-1.044099917635322e-09</v>
       </c>
     </row>
     <row r="46">
@@ -4638,43 +4638,43 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.168806238980551</v>
+        <v>7.5</v>
       </c>
       <c r="C46" t="n">
-        <v>236.5267778148368</v>
+        <v>291.25</v>
       </c>
       <c r="D46" t="n">
-        <v>234.4423746953465</v>
+        <v>287.5</v>
       </c>
       <c r="E46" t="n">
-        <v>238.6111809343271</v>
+        <v>295</v>
       </c>
       <c r="F46" t="n">
-        <v>39.99961494556892</v>
+        <v>261.9816183569009</v>
       </c>
       <c r="G46" t="n">
-        <v>44.92039688383612</v>
+        <v>268.0862229189478</v>
       </c>
       <c r="H46" t="n">
-        <v>42.39298393293618</v>
+        <v>264.9841760646743</v>
       </c>
       <c r="I46" t="n">
-        <v>76540.33843123008</v>
+        <v>101391.0935191998</v>
       </c>
       <c r="J46" t="n">
-        <v>59208.54707938838</v>
+        <v>76222.34589086581</v>
       </c>
       <c r="K46" t="n">
-        <v>9291.597580028514</v>
+        <v>8079.83982949142</v>
       </c>
       <c r="L46" t="n">
-        <v>7187.608573930474</v>
+        <v>6074.14640527244</v>
       </c>
       <c r="M46" t="n">
-        <v>75974.26947051247</v>
+        <v>101068.6402072813</v>
       </c>
       <c r="N46" t="n">
-        <v>58770.65875281739</v>
+        <v>75979.93655271175</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4683,16 +4683,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>236.5267778148368</v>
+        <v>291.25</v>
       </c>
       <c r="R46" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>63.61258427904859</v>
+        <v>291.0909343665376</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4701,28 +4701,28 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.60701606706382</v>
+        <v>52.01582393532567</v>
       </c>
       <c r="X46" t="n">
-        <v>21.21960034611241</v>
+        <v>26.10675830186329</v>
       </c>
       <c r="Y46" t="n">
-        <v>-42.39298393293618</v>
+        <v>-264.9841760646743</v>
       </c>
       <c r="Z46" t="n">
-        <v>10.05384594023989</v>
+        <v>11.58263183522877</v>
       </c>
       <c r="AA46" t="n">
-        <v>13.58131636315161</v>
+        <v>16.10580836875977</v>
       </c>
       <c r="AB46" t="n">
-        <v>52.44682987317606</v>
+        <v>276.5668078999031</v>
       </c>
       <c r="AC46" t="n">
-        <v>55.97430029608779</v>
+        <v>281.0899844334341</v>
       </c>
       <c r="AD46" t="n">
-        <v>-1.600710675120354e-10</v>
+        <v>-2.350134309381247e-09</v>
       </c>
     </row>
     <row r="47">
@@ -4730,43 +4730,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.168806238980551</v>
+        <v>7.5</v>
       </c>
       <c r="C47" t="n">
-        <v>240.6955840538173</v>
+        <v>298.75</v>
       </c>
       <c r="D47" t="n">
-        <v>238.6111809343271</v>
+        <v>295</v>
       </c>
       <c r="E47" t="n">
-        <v>242.7799871733076</v>
+        <v>302.5</v>
       </c>
       <c r="F47" t="n">
-        <v>44.92039688383612</v>
+        <v>268.0862229189478</v>
       </c>
       <c r="G47" t="n">
-        <v>50.43654617266478</v>
+        <v>274.6053461148646</v>
       </c>
       <c r="H47" t="n">
-        <v>47.59588967055267</v>
+        <v>271.2918070990897</v>
       </c>
       <c r="I47" t="n">
-        <v>59208.54707938838</v>
+        <v>76222.34589086581</v>
       </c>
       <c r="J47" t="n">
-        <v>42357.71223891796</v>
+        <v>53860.90523704824</v>
       </c>
       <c r="K47" t="n">
-        <v>7187.608573930474</v>
+        <v>6074.14640527244</v>
       </c>
       <c r="L47" t="n">
-        <v>5142.005177940121</v>
+        <v>4292.166819409602</v>
       </c>
       <c r="M47" t="n">
-        <v>58770.65875281739</v>
+        <v>75979.93655271175</v>
       </c>
       <c r="N47" t="n">
-        <v>42044.44753906295</v>
+        <v>53689.61181596166</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>240.6955840538173</v>
+        <v>298.75</v>
       </c>
       <c r="R47" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>66.15701530926749</v>
+        <v>294.2414413167471</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4793,28 +4793,28 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>36.40411032944733</v>
+        <v>45.70819290091032</v>
       </c>
       <c r="X47" t="n">
-        <v>18.56112563871483</v>
+        <v>22.94963421765743</v>
       </c>
       <c r="Y47" t="n">
-        <v>-47.59588967055267</v>
+        <v>-271.2918070990897</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.378410625535125</v>
+        <v>9.798177334344416</v>
       </c>
       <c r="AA47" t="n">
-        <v>12.32278285139671</v>
+        <v>14.59013280769113</v>
       </c>
       <c r="AB47" t="n">
-        <v>55.97430029608779</v>
+        <v>281.0899844334341</v>
       </c>
       <c r="AC47" t="n">
-        <v>59.91867252194938</v>
+        <v>285.8819399067808</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.640643838793039e-11</v>
+        <v>-9.713403414934874e-10</v>
       </c>
     </row>
     <row r="48">
@@ -4822,43 +4822,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.168806238980551</v>
+        <v>7.5</v>
       </c>
       <c r="C48" t="n">
-        <v>244.8643902927979</v>
+        <v>306.25</v>
       </c>
       <c r="D48" t="n">
-        <v>242.7799871733076</v>
+        <v>302.5</v>
       </c>
       <c r="E48" t="n">
-        <v>246.9487934122882</v>
+        <v>310</v>
       </c>
       <c r="F48" t="n">
-        <v>50.43654617266478</v>
+        <v>274.6053461148646</v>
       </c>
       <c r="G48" t="n">
-        <v>56.70352678246132</v>
+        <v>281.5761002087912</v>
       </c>
       <c r="H48" t="n">
-        <v>53.46351713948401</v>
+        <v>278.0316745569314</v>
       </c>
       <c r="I48" t="n">
-        <v>42357.71223891796</v>
+        <v>53860.90523704824</v>
       </c>
       <c r="J48" t="n">
-        <v>26550.21126481109</v>
+        <v>35090.88134468647</v>
       </c>
       <c r="K48" t="n">
-        <v>5142.005177940121</v>
+        <v>4292.166819409602</v>
       </c>
       <c r="L48" t="n">
-        <v>3223.057067601209</v>
+        <v>2796.386653893471</v>
       </c>
       <c r="M48" t="n">
-        <v>42044.44753906295</v>
+        <v>53689.61181596166</v>
       </c>
       <c r="N48" t="n">
-        <v>26353.85401312468</v>
+        <v>34979.28208566881</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4867,16 +4867,16 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>244.8643902927979</v>
+        <v>306.25</v>
       </c>
       <c r="R48" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>69.00441520465753</v>
+        <v>297.6066634816768</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4885,28 +4885,28 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>30.53648286051599</v>
+        <v>38.96832544306858</v>
       </c>
       <c r="X48" t="n">
-        <v>15.54089806517352</v>
+        <v>19.57498892474541</v>
       </c>
       <c r="Y48" t="n">
-        <v>-53.46351713948401</v>
+        <v>-278.0316745569314</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.455155382465364</v>
+        <v>7.850265349849394</v>
       </c>
       <c r="AA48" t="n">
-        <v>10.96005174537487</v>
+        <v>12.80929018821024</v>
       </c>
       <c r="AB48" t="n">
-        <v>59.91867252194938</v>
+        <v>285.8819399067808</v>
       </c>
       <c r="AC48" t="n">
-        <v>64.42356888485888</v>
+        <v>290.8409647451417</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.39152689371258e-10</v>
+        <v>8.185452315956354e-10</v>
       </c>
     </row>
     <row r="49">
@@ -4914,43 +4914,43 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.168806238980551</v>
+        <v>8.466184206216099</v>
       </c>
       <c r="C49" t="n">
-        <v>249.0331965317784</v>
+        <v>314.233092103108</v>
       </c>
       <c r="D49" t="n">
-        <v>246.9487934122882</v>
+        <v>310</v>
       </c>
       <c r="E49" t="n">
-        <v>251.1175996512687</v>
+        <v>318.4661842062161</v>
       </c>
       <c r="F49" t="n">
-        <v>56.70352678246132</v>
+        <v>281.5761002087912</v>
       </c>
       <c r="G49" t="n">
-        <v>63.97272945919053</v>
+        <v>290.0439894683278</v>
       </c>
       <c r="H49" t="n">
-        <v>60.19118777821812</v>
+        <v>285.7263846201749</v>
       </c>
       <c r="I49" t="n">
-        <v>26550.21126481109</v>
+        <v>35090.88134468647</v>
       </c>
       <c r="J49" t="n">
-        <v>12693.73441211637</v>
+        <v>17165.63615058353</v>
       </c>
       <c r="K49" t="n">
-        <v>3223.057067601209</v>
+        <v>2796.386653893471</v>
       </c>
       <c r="L49" t="n">
-        <v>1540.953102149089</v>
+        <v>1367.926766089949</v>
       </c>
       <c r="M49" t="n">
-        <v>26353.85401312468</v>
+        <v>34979.28208566881</v>
       </c>
       <c r="N49" t="n">
-        <v>12599.85543021523</v>
+        <v>17111.04441046294</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4959,16 +4959,16 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>249.0331965317784</v>
+        <v>314.233092103108</v>
       </c>
       <c r="R49" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>72.22018468478032</v>
+        <v>301.454842212406</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4977,28 +4977,28 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>23.80881222178188</v>
+        <v>31.27361537982512</v>
       </c>
       <c r="X49" t="n">
-        <v>12.0289969065622</v>
+        <v>15.72845759223111</v>
       </c>
       <c r="Y49" t="n">
-        <v>-60.19118777821812</v>
+        <v>-285.7263846201749</v>
       </c>
       <c r="Z49" t="n">
-        <v>4.232381106640759</v>
+        <v>5.114580124966778</v>
       </c>
       <c r="AA49" t="n">
-        <v>9.640560730572886</v>
+        <v>11.4856965173787</v>
       </c>
       <c r="AB49" t="n">
-        <v>64.42356888485888</v>
+        <v>290.8409647451417</v>
       </c>
       <c r="AC49" t="n">
-        <v>69.83174850879101</v>
+        <v>297.2120811375536</v>
       </c>
       <c r="AD49" t="n">
-        <v>-1.637090463191271e-11</v>
+        <v>-4.611138137988746e-10</v>
       </c>
     </row>
     <row r="50">
@@ -5006,43 +5006,43 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.169970338189927</v>
+        <v>1.533815793783901</v>
       </c>
       <c r="C50" t="n">
-        <v>253.2025848203637</v>
+        <v>319.233092103108</v>
       </c>
       <c r="D50" t="n">
-        <v>251.1175996512687</v>
+        <v>318.4661842062161</v>
       </c>
       <c r="E50" t="n">
-        <v>255.2875699894586</v>
+        <v>320</v>
       </c>
       <c r="F50" t="n">
-        <v>63.97272945919053</v>
+        <v>290.0439894683278</v>
       </c>
       <c r="G50" t="n">
-        <v>72.7067456626184</v>
+        <v>291.6517338685056</v>
       </c>
       <c r="H50" t="n">
-        <v>68.11357944324922</v>
+        <v>290.8449108271325</v>
       </c>
       <c r="I50" t="n">
-        <v>12693.73441211637</v>
+        <v>17165.63615058353</v>
       </c>
       <c r="J50" t="n">
-        <v>2704.441156440498</v>
+        <v>14715.44223468056</v>
       </c>
       <c r="K50" t="n">
-        <v>1540.953102149089</v>
+        <v>1367.926766089949</v>
       </c>
       <c r="L50" t="n">
-        <v>328.3050404472612</v>
+        <v>1172.671209565731</v>
       </c>
       <c r="M50" t="n">
-        <v>12599.85543021523</v>
+        <v>17111.04441046294</v>
       </c>
       <c r="N50" t="n">
-        <v>2684.43993582761</v>
+        <v>14668.64282735373</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5051,16 +5051,16 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>253.2025848203637</v>
+        <v>319.233092103108</v>
       </c>
       <c r="R50" t="n">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>76.05678972162461</v>
+        <v>303.9224554135662</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5069,28 +5069,28 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>15.88642055675078</v>
+        <v>26.15508917286746</v>
       </c>
       <c r="X50" t="n">
-        <v>7.943210278375389</v>
+        <v>13.0775445864337</v>
       </c>
       <c r="Y50" t="n">
-        <v>-68.11357944324922</v>
+        <v>-290.8449108271325</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.718169065541787</v>
+        <v>6.367170310421045</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.516345288292726</v>
+        <v>7.560163534294759</v>
       </c>
       <c r="AB50" t="n">
-        <v>69.83174850879101</v>
+        <v>297.2120811375536</v>
       </c>
       <c r="AC50" t="n">
-        <v>77.62992473154195</v>
+        <v>298.4050743614273</v>
       </c>
       <c r="AD50" t="n">
-        <v>-4.206412995699793e-12</v>
+        <v>4.267803888069466e-10</v>
       </c>
     </row>
     <row r="51">
@@ -5098,61 +5098,61 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.169970338189955</v>
+        <v>8.525791954013471</v>
       </c>
       <c r="C51" t="n">
-        <v>257.3725551585536</v>
+        <v>324.2628959770067</v>
       </c>
       <c r="D51" t="n">
-        <v>255.2875699894586</v>
+        <v>320</v>
       </c>
       <c r="E51" t="n">
-        <v>259.4575403276486</v>
+        <v>328.5257919540135</v>
       </c>
       <c r="F51" t="n">
-        <v>72.7067456626184</v>
+        <v>291.6517338685056</v>
       </c>
       <c r="G51" t="n">
-        <v>83.95181749179723</v>
+        <v>301.040299528294</v>
       </c>
       <c r="H51" t="n">
-        <v>77.90001369195201</v>
+        <v>296.2473227464084</v>
       </c>
       <c r="I51" t="n">
-        <v>2704.441156440498</v>
+        <v>14715.44223468056</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>4058.477255461346</v>
       </c>
       <c r="K51" t="n">
-        <v>328.3050404472612</v>
+        <v>1172.671209565731</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>323.4193955068847</v>
       </c>
       <c r="M51" t="n">
-        <v>2684.43993582761</v>
+        <v>14668.64282735373</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4045.570111579705</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>-0.3217505543966402</v>
       </c>
       <c r="Q51" t="n">
-        <v>257.3725551585536</v>
+        <v>324.2628959770067</v>
       </c>
       <c r="R51" t="n">
-        <v>84</v>
+        <v>315.5790346743311</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>80.95000684597601</v>
+        <v>305.9131787103697</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5161,27 +5161,119 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>19.33171192792264</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>9.665855963961292</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>-296.2473227464084</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.718169065541787</v>
+        <v>2.157751615018867</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.516345288292726</v>
+        <v>9.400150120648789</v>
       </c>
       <c r="AB51" t="n">
-        <v>77.62992473154195</v>
+        <v>298.4050743614273</v>
       </c>
       <c r="AC51" t="n">
-        <v>83.95181749179723</v>
+        <v>305.6474728670572</v>
       </c>
       <c r="AD51" t="n">
+        <v>2.660272002685815e-11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.525791954013528</v>
+      </c>
+      <c r="C52" t="n">
+        <v>332.7886879310203</v>
+      </c>
+      <c r="D52" t="n">
+        <v>328.5257919540135</v>
+      </c>
+      <c r="E52" t="n">
+        <v>337.051583908027</v>
+      </c>
+      <c r="F52" t="n">
+        <v>301.040299528294</v>
+      </c>
+      <c r="G52" t="n">
+        <v>311.2791835363793</v>
+      </c>
+      <c r="H52" t="n">
+        <v>306.0452971146251</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4058.477255461346</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>323.4193955068847</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4045.570111579705</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.3217505543966442</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>332.7886879310203</v>
+      </c>
+      <c r="R52" t="n">
+        <v>312.7371040229933</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>309.3912005688092</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.157751615018867</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9.400150120648789</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>305.6474728670572</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>311.2791835363793</v>
+      </c>
+      <c r="AD52" t="n">
         <v>0</v>
       </c>
     </row>
